--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E87371-FAAE-4316-BD1E-AF525FA304A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02E5714-B044-451C-BB53-16E763ADA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,55 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video estaba en proceso al momento de revisión el 21/06/2022 15H22.</t>
+Video estaba en proceso al momento de revisión el 21/06/2022 15H22 y al 22/09/2022 15H50.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M36" authorId="0" shapeId="0" xr:uid="{676B7302-6976-4A16-9EB9-5E42A13CEEA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Video dura 00:03:13.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{233926BC-9CBE-4D57-B476-DAADC3613DD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Video estaba en proceso al momento de revisión el 22/06/2022 15H52.</t>
         </r>
       </text>
     </comment>
@@ -952,7 +1000,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="131">
   <si>
     <t>CURSO</t>
   </si>
@@ -1597,7 +1645,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1716,8 +1764,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,14 +1788,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1752,10 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2074,10 +2125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2195,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2154,7 +2206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2165,7 +2217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2176,7 +2228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2187,7 +2239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +2250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2209,7 +2261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2242,7 +2294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2254,7 +2306,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
+  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="02_Martes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A1EA6162-9F94-41F9-B581-C06B3AEA2E9D}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{773B485D-E09A-4C89-9A13-77122C44E990}"/>
@@ -2280,8 +2338,8 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,44 +2352,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2340,11 +2398,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="57">
         <f ca="1">NOW()</f>
-        <v>44733.646704976854</v>
-      </c>
-      <c r="P3" s="56"/>
+        <v>44734.662150925928</v>
+      </c>
+      <c r="P3" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2400,7 +2458,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="12">
@@ -2448,7 +2506,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="12">
         <v>1</v>
       </c>
@@ -2494,7 +2552,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -2540,7 +2598,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -2586,7 +2644,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -2632,7 +2690,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="50">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2680,7 +2738,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2726,7 +2784,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2772,7 +2830,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -2792,7 +2850,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="6"/>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -2812,7 +2870,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2858,7 +2916,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="6"/>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -2878,7 +2936,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="53">
         <v>3</v>
       </c>
       <c r="C18" s="12">
@@ -2926,7 +2984,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -2972,7 +3030,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
@@ -3018,7 +3076,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="12">
         <v>1</v>
       </c>
@@ -3064,7 +3122,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
       <c r="E22" s="12"/>
@@ -3084,7 +3142,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -3130,7 +3188,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="12"/>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -3150,7 +3208,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="50">
         <v>4</v>
       </c>
       <c r="C25" s="34">
@@ -3198,7 +3256,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3244,7 +3302,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3290,7 +3348,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="6"/>
       <c r="D28" s="22"/>
       <c r="E28" s="6"/>
@@ -3310,7 +3368,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3356,7 +3414,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="6"/>
       <c r="D30" s="22"/>
       <c r="E30" s="6"/>
@@ -3376,7 +3434,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3422,15 +3480,19 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="53">
         <v>5</v>
       </c>
       <c r="C32" s="33">
         <v>1</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="33">
+        <v>1</v>
+      </c>
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -3439,7 +3501,9 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
+      <c r="O32" s="33">
+        <v>1</v>
+      </c>
       <c r="P32" s="33">
         <v>1</v>
       </c>
@@ -3448,13 +3512,17 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12">
         <v>5</v>
       </c>
       <c r="D33" s="22"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="12">
+        <v>5</v>
+      </c>
+      <c r="F33" s="12">
+        <v>5</v>
+      </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -3463,7 +3531,9 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
+      <c r="O33" s="12">
+        <v>5</v>
+      </c>
       <c r="P33" s="12">
         <v>5</v>
       </c>
@@ -3472,13 +3542,17 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="12">
         <v>1</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -3487,7 +3561,9 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
+      <c r="O34" s="12">
+        <v>1</v>
+      </c>
       <c r="P34" s="12">
         <v>1</v>
       </c>
@@ -3496,11 +3572,11 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="12"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -3509,18 +3585,18 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="12"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -3529,20 +3605,24 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
       <c r="D37" s="22"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -3551,7 +3631,9 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
+      <c r="O37" s="12">
+        <v>1</v>
+      </c>
       <c r="P37" s="12">
         <v>1</v>
       </c>
@@ -3560,7 +3642,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="12"/>
       <c r="D38" s="22"/>
       <c r="E38" s="13"/>
@@ -3580,7 +3662,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="50">
         <v>6</v>
       </c>
       <c r="C39" s="9"/>
@@ -3602,7 +3684,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="9"/>
       <c r="D40" s="22"/>
       <c r="E40" s="9"/>
@@ -3622,7 +3704,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="9"/>
       <c r="D41" s="22"/>
       <c r="E41" s="9"/>
@@ -3642,7 +3724,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="9"/>
       <c r="D42" s="22"/>
       <c r="E42" s="5"/>
@@ -3662,7 +3744,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="9"/>
       <c r="D43" s="22"/>
       <c r="E43" s="5"/>
@@ -3682,7 +3764,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="9"/>
       <c r="D44" s="22"/>
       <c r="E44" s="5"/>
@@ -3702,7 +3784,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="9"/>
       <c r="D45" s="22"/>
       <c r="E45" s="5"/>
@@ -3722,7 +3804,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="53">
         <v>7</v>
       </c>
       <c r="C46" s="11"/>
@@ -3744,7 +3826,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="13"/>
@@ -3764,7 +3846,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="13"/>
       <c r="D48" s="22"/>
       <c r="E48" s="13"/>
@@ -3784,7 +3866,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="13"/>
       <c r="D49" s="22"/>
       <c r="E49" s="13"/>
@@ -3804,7 +3886,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="50"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="13"/>
@@ -3824,7 +3906,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="50"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="13"/>
@@ -3844,7 +3926,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="13"/>
       <c r="D52" s="22"/>
       <c r="E52" s="13"/>
@@ -3864,7 +3946,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="50">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3886,7 +3968,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="5"/>
       <c r="D54" s="22"/>
       <c r="E54" s="5"/>
@@ -3906,7 +3988,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="6"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
@@ -3926,7 +4008,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="6"/>
       <c r="D56" s="21"/>
       <c r="E56" s="5"/>
@@ -3946,7 +4028,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="6"/>
       <c r="D57" s="21"/>
       <c r="E57" s="5"/>
@@ -3966,7 +4048,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="6"/>
       <c r="D58" s="21"/>
       <c r="E58" s="5"/>
@@ -3986,7 +4068,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="54"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="6"/>
       <c r="D59" s="21"/>
       <c r="E59" s="6"/>
@@ -4006,7 +4088,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="53">
         <v>9</v>
       </c>
       <c r="C60" s="13"/>
@@ -4028,7 +4110,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="13"/>
       <c r="D61" s="22"/>
       <c r="E61" s="13"/>
@@ -4048,7 +4130,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="50"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="13"/>
       <c r="D62" s="22"/>
       <c r="E62" s="13"/>
@@ -4068,7 +4150,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="13"/>
       <c r="D63" s="23"/>
       <c r="E63" s="10"/>
@@ -4088,7 +4170,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="13"/>
       <c r="D64" s="23"/>
       <c r="E64" s="10"/>
@@ -4108,7 +4190,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="13"/>
       <c r="D65" s="23"/>
       <c r="E65" s="10"/>
@@ -4128,7 +4210,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="51"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="23"/>
       <c r="E66" s="10"/>
@@ -4148,7 +4230,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="50">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4170,7 +4252,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="5"/>
       <c r="D68" s="22"/>
       <c r="E68" s="5"/>
@@ -4190,7 +4272,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="5"/>
       <c r="D69" s="22"/>
       <c r="E69" s="5"/>
@@ -4210,7 +4292,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="5"/>
       <c r="D70" s="22"/>
       <c r="E70" s="5"/>
@@ -4230,7 +4312,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="5"/>
       <c r="D71" s="22"/>
       <c r="E71" s="5"/>
@@ -4250,7 +4332,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="5"/>
       <c r="D72" s="22"/>
       <c r="E72" s="5"/>
@@ -4270,7 +4352,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="54"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="6"/>
       <c r="D73" s="21"/>
       <c r="E73" s="6"/>
@@ -4290,7 +4372,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="53">
         <v>11</v>
       </c>
       <c r="C74" s="13"/>
@@ -4312,7 +4394,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="50"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="13"/>
       <c r="D75" s="22"/>
       <c r="E75" s="13"/>
@@ -4332,7 +4414,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="50"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="13"/>
       <c r="D76" s="22"/>
       <c r="E76" s="13"/>
@@ -4352,7 +4434,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="50"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="13"/>
       <c r="D77" s="22"/>
       <c r="E77" s="13"/>
@@ -4372,7 +4454,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="50"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="10"/>
       <c r="D78" s="23"/>
       <c r="E78" s="10"/>
@@ -4392,7 +4474,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="13"/>
       <c r="D79" s="22"/>
       <c r="E79" s="13"/>
@@ -4412,7 +4494,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="51"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="13"/>
       <c r="D80" s="23"/>
       <c r="E80" s="10"/>
@@ -4432,7 +4514,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="50">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4454,7 +4536,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="53"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="5"/>
       <c r="D82" s="22"/>
       <c r="E82" s="5"/>
@@ -4474,7 +4556,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="5"/>
       <c r="D83" s="22"/>
       <c r="E83" s="5"/>
@@ -4494,7 +4576,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="5"/>
       <c r="D84" s="22"/>
       <c r="E84" s="5"/>
@@ -4514,7 +4596,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="5"/>
       <c r="D85" s="22"/>
       <c r="E85" s="5"/>
@@ -4534,7 +4616,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="5"/>
       <c r="D86" s="22"/>
       <c r="E86" s="5"/>
@@ -4554,7 +4636,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="5"/>
       <c r="D87" s="22"/>
       <c r="E87" s="5"/>
@@ -4574,7 +4656,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="49">
+      <c r="B88" s="53">
         <v>13</v>
       </c>
       <c r="C88" s="13"/>
@@ -4596,7 +4678,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="50"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="13"/>
       <c r="D89" s="22"/>
       <c r="E89" s="13"/>
@@ -4616,7 +4698,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="50"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="13"/>
       <c r="D90" s="22"/>
       <c r="E90" s="13"/>
@@ -4636,7 +4718,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="50"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="13"/>
       <c r="D91" s="22"/>
       <c r="E91" s="13"/>
@@ -4656,7 +4738,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="50"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="13"/>
       <c r="D92" s="22"/>
       <c r="E92" s="13"/>
@@ -4676,7 +4758,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="13"/>
       <c r="D93" s="22"/>
       <c r="E93" s="13"/>
@@ -4696,7 +4778,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="51"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="13"/>
       <c r="D94" s="23"/>
       <c r="E94" s="10"/>
@@ -4716,7 +4798,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B95" s="50">
         <v>14</v>
       </c>
       <c r="C95" s="16"/>
@@ -4738,7 +4820,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="16"/>
       <c r="D96" s="22"/>
       <c r="E96" s="16"/>
@@ -4758,7 +4840,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="53"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="16"/>
       <c r="D97" s="22"/>
       <c r="E97" s="16"/>
@@ -4778,7 +4860,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="16"/>
       <c r="D98" s="22"/>
       <c r="E98" s="16"/>
@@ -4798,7 +4880,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="16"/>
       <c r="D99" s="22"/>
       <c r="E99" s="16"/>
@@ -4818,7 +4900,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="16"/>
       <c r="D100" s="22"/>
       <c r="E100" s="16"/>
@@ -4838,7 +4920,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="54"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="16"/>
       <c r="D101" s="22"/>
       <c r="E101" s="16"/>
@@ -4858,7 +4940,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="49">
+      <c r="B102" s="53">
         <v>15</v>
       </c>
       <c r="C102" s="13"/>
@@ -4880,7 +4962,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="50"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="13"/>
       <c r="D103" s="22"/>
       <c r="E103" s="13"/>
@@ -4900,7 +4982,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="50"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="13"/>
       <c r="D104" s="22"/>
       <c r="E104" s="13"/>
@@ -4920,7 +5002,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="50"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="13"/>
       <c r="D105" s="22"/>
       <c r="E105" s="13"/>
@@ -4940,7 +5022,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="50"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="13"/>
       <c r="D106" s="22"/>
       <c r="E106" s="13"/>
@@ -4960,7 +5042,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="50"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="13"/>
       <c r="D107" s="22"/>
       <c r="E107" s="13"/>
@@ -4980,7 +5062,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="51"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="13"/>
       <c r="D108" s="22"/>
       <c r="E108" s="13"/>
@@ -5000,7 +5082,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="52">
+      <c r="B109" s="50">
         <v>16</v>
       </c>
       <c r="C109" s="16"/>
@@ -5022,7 +5104,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="16"/>
       <c r="D110" s="22"/>
       <c r="E110" s="16"/>
@@ -5042,7 +5124,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="53"/>
+      <c r="B111" s="51"/>
       <c r="C111" s="16"/>
       <c r="D111" s="22"/>
       <c r="E111" s="16"/>
@@ -5062,7 +5144,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="16"/>
       <c r="D112" s="22"/>
       <c r="E112" s="16"/>
@@ -5082,7 +5164,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="16"/>
       <c r="D113" s="22"/>
       <c r="E113" s="16"/>
@@ -5102,7 +5184,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="16"/>
       <c r="D114" s="22"/>
       <c r="E114" s="16"/>
@@ -5122,7 +5204,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="54"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="16"/>
       <c r="D115" s="22"/>
       <c r="E115" s="16"/>
@@ -5140,6 +5222,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5148,17 +5241,6 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5170,9 +5252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5253,7 +5333,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -5264,7 +5344,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -5275,7 +5355,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -5286,7 +5366,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -5297,7 +5377,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -5308,7 +5388,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -5319,7 +5399,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -5330,7 +5410,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="48" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -5341,7 +5421,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -5382,7 +5462,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,44 +5475,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5441,11 +5521,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="57">
         <f ca="1">NOW()</f>
-        <v>44733.646704976854</v>
-      </c>
-      <c r="P3" s="56"/>
+        <v>44734.662150925928</v>
+      </c>
+      <c r="P3" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5501,7 +5581,7 @@
       <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="59">
         <v>1</v>
       </c>
       <c r="C6" s="18">
@@ -5551,7 +5631,7 @@
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="18">
         <v>1</v>
       </c>
@@ -5599,7 +5679,7 @@
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="15">
         <v>2</v>
       </c>
@@ -5647,7 +5727,7 @@
       <c r="A9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="18">
         <v>1</v>
       </c>
@@ -5695,7 +5775,7 @@
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="18">
         <v>1</v>
       </c>
@@ -5743,7 +5823,7 @@
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="18">
         <v>10</v>
       </c>
@@ -5791,7 +5871,7 @@
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
@@ -5813,7 +5893,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="50">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5863,7 +5943,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -5911,7 +5991,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="15">
         <v>2</v>
       </c>
@@ -5959,7 +6039,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5979,7 +6059,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6027,7 +6107,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6075,7 +6155,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6095,7 +6175,7 @@
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="59">
         <v>3</v>
       </c>
       <c r="C20" s="18">
@@ -6145,7 +6225,7 @@
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="18">
         <v>5</v>
       </c>
@@ -6193,7 +6273,7 @@
       <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="58"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="15" t="s">
         <v>94</v>
       </c>
@@ -6241,7 +6321,7 @@
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="18">
         <v>1</v>
       </c>
@@ -6289,7 +6369,7 @@
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="58"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -6309,7 +6389,7 @@
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="18">
         <v>1</v>
       </c>
@@ -6357,7 +6437,7 @@
       <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -6377,7 +6457,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="50">
         <v>4</v>
       </c>
       <c r="C27" s="35">
@@ -6427,7 +6507,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6475,7 +6555,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="14" t="s">
         <v>94</v>
       </c>
@@ -6523,7 +6603,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6543,7 +6623,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6567,7 +6647,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6591,7 +6671,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="5">
         <v>1</v>
       </c>
@@ -6633,35 +6713,41 @@
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="59">
         <v>5</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="49">
         <v>1</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="62">
+        <v>1</v>
+      </c>
       <c r="I34" s="19"/>
-      <c r="J34" s="61">
-        <v>1</v>
-      </c>
-      <c r="K34" s="61">
+      <c r="J34" s="49">
+        <v>1</v>
+      </c>
+      <c r="K34" s="49">
         <v>1</v>
       </c>
       <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="M34" s="62">
+        <v>1</v>
+      </c>
       <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
+      <c r="O34" s="49">
+        <v>1</v>
+      </c>
       <c r="P34" s="19"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="18">
         <v>6</v>
       </c>
@@ -6669,7 +6755,9 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19">
+        <v>5</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="19">
         <v>5</v>
@@ -6678,16 +6766,20 @@
         <v>5</v>
       </c>
       <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="M35" s="19">
+        <v>5</v>
+      </c>
       <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
+      <c r="O35" s="19">
+        <v>5</v>
+      </c>
       <c r="P35" s="19"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="58"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="18">
         <v>1</v>
       </c>
@@ -6695,7 +6787,9 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="19">
+        <v>2</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="14" t="s">
         <v>94</v>
@@ -6704,16 +6798,20 @@
         <v>94</v>
       </c>
       <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="M36" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
+      <c r="O36" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="P36" s="19"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="58"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -6724,7 +6822,9 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="M37" s="19">
+        <v>1</v>
+      </c>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
@@ -6733,7 +6833,7 @@
       <c r="A38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="58"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="18">
         <v>1</v>
       </c>
@@ -6741,7 +6841,9 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="19">
+        <v>1</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19">
         <v>1</v>
@@ -6752,14 +6854,16 @@
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="19">
+        <v>1</v>
+      </c>
       <c r="P38" s="19"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="58"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="18">
         <v>1</v>
       </c>
@@ -6767,7 +6871,9 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="19">
+        <v>1</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19">
         <v>1</v>
@@ -6776,16 +6882,20 @@
         <v>1</v>
       </c>
       <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="M39" s="19">
+        <v>1</v>
+      </c>
       <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
+      <c r="O39" s="19">
+        <v>1</v>
+      </c>
       <c r="P39" s="19"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6805,7 +6915,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="50">
         <v>6</v>
       </c>
       <c r="C41" s="9"/>
@@ -6827,7 +6937,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -6847,7 +6957,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -6867,7 +6977,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -6887,7 +6997,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -6907,7 +7017,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -6927,7 +7037,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -6947,7 +7057,7 @@
       <c r="A48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="59">
         <v>7</v>
       </c>
       <c r="C48" s="18"/>
@@ -6969,7 +7079,7 @@
       <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -6989,7 +7099,7 @@
       <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -7009,7 +7119,7 @@
       <c r="A51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -7029,7 +7139,7 @@
       <c r="A52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -7049,7 +7159,7 @@
       <c r="A53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -7069,7 +7179,7 @@
       <c r="A54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -7089,7 +7199,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="50">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7111,7 +7221,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7131,7 +7241,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7151,7 +7261,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7171,7 +7281,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7191,7 +7301,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7211,7 +7321,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7231,7 +7341,7 @@
       <c r="A62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="57">
+      <c r="B62" s="59">
         <v>9</v>
       </c>
       <c r="C62" s="18"/>
@@ -7253,7 +7363,7 @@
       <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -7273,7 +7383,7 @@
       <c r="A64" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="58"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -7293,7 +7403,7 @@
       <c r="A65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="58"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -7313,7 +7423,7 @@
       <c r="A66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="58"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -7333,7 +7443,7 @@
       <c r="A67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="58"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -7353,7 +7463,7 @@
       <c r="A68" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="59"/>
+      <c r="B68" s="61"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -7373,7 +7483,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="50">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7395,7 +7505,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7415,7 +7525,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7435,7 +7545,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7455,7 +7565,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7475,7 +7585,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7495,7 +7605,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7515,7 +7625,7 @@
       <c r="A76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="57">
+      <c r="B76" s="59">
         <v>11</v>
       </c>
       <c r="C76" s="18"/>
@@ -7537,7 +7647,7 @@
       <c r="A77" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="60"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -7557,7 +7667,7 @@
       <c r="A78" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="58"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -7577,7 +7687,7 @@
       <c r="A79" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="58"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -7597,7 +7707,7 @@
       <c r="A80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="58"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -7617,7 +7727,7 @@
       <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="58"/>
+      <c r="B81" s="60"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -7637,7 +7747,7 @@
       <c r="A82" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="59"/>
+      <c r="B82" s="61"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -7657,7 +7767,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="50">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -7679,7 +7789,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7699,7 +7809,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -7719,7 +7829,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -7739,7 +7849,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -7759,7 +7869,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -7779,7 +7889,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -7799,7 +7909,7 @@
       <c r="A90" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="57">
+      <c r="B90" s="59">
         <v>13</v>
       </c>
       <c r="C90" s="18"/>
@@ -7821,7 +7931,7 @@
       <c r="A91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="58"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
@@ -7841,7 +7951,7 @@
       <c r="A92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="58"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -7861,7 +7971,7 @@
       <c r="A93" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="58"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -7881,7 +7991,7 @@
       <c r="A94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="58"/>
+      <c r="B94" s="60"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -7901,7 +8011,7 @@
       <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="58"/>
+      <c r="B95" s="60"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -7921,7 +8031,7 @@
       <c r="A96" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="59"/>
+      <c r="B96" s="61"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -7941,7 +8051,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="50">
         <v>14</v>
       </c>
       <c r="C97" s="16"/>
@@ -7963,7 +8073,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -7983,7 +8093,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -8003,7 +8113,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -8023,7 +8133,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -8043,7 +8153,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -8063,7 +8173,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -8083,7 +8193,7 @@
       <c r="A104" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="57">
+      <c r="B104" s="59">
         <v>15</v>
       </c>
       <c r="C104" s="18"/>
@@ -8105,7 +8215,7 @@
       <c r="A105" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="58"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -8125,7 +8235,7 @@
       <c r="A106" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="58"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -8145,7 +8255,7 @@
       <c r="A107" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="58"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -8165,7 +8275,7 @@
       <c r="A108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="58"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
@@ -8185,7 +8295,7 @@
       <c r="A109" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="58"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
@@ -8205,7 +8315,7 @@
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="59"/>
+      <c r="B110" s="61"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
@@ -8225,7 +8335,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="52">
+      <c r="B111" s="50">
         <v>16</v>
       </c>
       <c r="C111" s="16"/>
@@ -8247,7 +8357,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -8267,7 +8377,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -8287,7 +8397,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -8307,7 +8417,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="51"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -8327,7 +8437,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="51"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -8347,7 +8457,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="54"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -8365,6 +8475,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8373,17 +8494,6 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8395,9 +8505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8488,7 +8598,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="33">
@@ -8526,7 +8636,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="12">
         <v>7</v>
       </c>
@@ -8562,7 +8672,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8598,7 +8708,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -8634,7 +8744,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -8670,7 +8780,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -8706,7 +8816,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
@@ -8742,7 +8852,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -8778,7 +8888,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="12">
         <v>1</v>
       </c>
@@ -8814,7 +8924,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="50">
         <v>2</v>
       </c>
       <c r="C15" s="34">
@@ -8852,7 +8962,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -8888,7 +8998,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -8924,7 +9034,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -8960,7 +9070,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8976,7 +9086,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9012,7 +9122,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9028,7 +9138,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="53">
         <v>3</v>
       </c>
       <c r="C22" s="33">
@@ -9066,7 +9176,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -9102,7 +9212,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="12">
         <v>1</v>
       </c>
@@ -9138,7 +9248,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9154,7 +9264,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9170,7 +9280,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9186,7 +9296,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
@@ -9212,7 +9322,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="50">
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -9250,7 +9360,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9286,7 +9396,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9322,7 +9432,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9338,7 +9448,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9374,7 +9484,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9410,7 +9520,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9426,14 +9536,16 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="53">
         <v>5</v>
       </c>
       <c r="C36" s="33">
         <v>1</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="33">
+        <v>1</v>
+      </c>
       <c r="F36" s="13"/>
       <c r="G36" s="33">
         <v>1</v>
@@ -9448,18 +9560,22 @@
       <c r="K36" s="33">
         <v>1</v>
       </c>
-      <c r="L36" s="13"/>
+      <c r="L36" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12">
         <v>2</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="12">
+        <v>2</v>
+      </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12">
         <v>2</v>
@@ -9474,18 +9590,22 @@
       <c r="K37" s="12">
         <v>2</v>
       </c>
-      <c r="L37" s="13"/>
+      <c r="L37" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12">
         <v>1</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12">
         <v>1</v>
@@ -9500,18 +9620,22 @@
       <c r="K38" s="12">
         <v>1</v>
       </c>
-      <c r="L38" s="13"/>
+      <c r="L38" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="12">
         <v>1</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12">
         <v>1</v>
@@ -9526,34 +9650,38 @@
       <c r="K39" s="12">
         <v>1</v>
       </c>
-      <c r="L39" s="13"/>
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12">
         <v>1</v>
@@ -9568,13 +9696,15 @@
       <c r="K41" s="12">
         <v>1</v>
       </c>
-      <c r="L41" s="13"/>
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -9590,7 +9720,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="50">
         <v>6</v>
       </c>
       <c r="C43" s="9"/>
@@ -9608,7 +9738,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
@@ -9624,7 +9754,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
@@ -9640,7 +9770,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="9"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -9656,7 +9786,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="9"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -9672,7 +9802,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="9"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -9688,7 +9818,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="9"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -9704,7 +9834,7 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="53">
         <v>7</v>
       </c>
       <c r="C50" s="11"/>
@@ -9722,7 +9852,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="50"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -9738,7 +9868,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -9754,7 +9884,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="50"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -9770,7 +9900,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="50"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -9786,7 +9916,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="50"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -9802,7 +9932,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -9818,7 +9948,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="50">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -9836,7 +9966,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -9852,7 +9982,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -9868,7 +9998,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -9884,7 +10014,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -9900,7 +10030,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -9916,7 +10046,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -9932,7 +10062,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="53">
         <v>9</v>
       </c>
       <c r="C64" s="13"/>
@@ -9950,7 +10080,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -9966,7 +10096,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -9982,7 +10112,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="50"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="13"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -9998,7 +10128,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="50"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="13"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10014,7 +10144,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="50"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="13"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10030,7 +10160,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="51"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="13"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10046,7 +10176,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="50">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10064,7 +10194,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10080,7 +10210,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10096,7 +10226,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10112,7 +10242,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10128,7 +10258,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="53"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10144,7 +10274,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10160,7 +10290,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B78" s="53">
         <v>11</v>
       </c>
       <c r="C78" s="13"/>
@@ -10178,7 +10308,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -10194,7 +10324,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="50"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -10210,7 +10340,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="50"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -10226,7 +10356,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="50"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10242,7 +10372,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="50"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -10258,7 +10388,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="51"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="13"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10274,7 +10404,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="52">
+      <c r="B85" s="50">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10292,7 +10422,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10308,7 +10438,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10324,7 +10454,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10340,7 +10470,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10356,7 +10486,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10372,7 +10502,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10388,7 +10518,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="49">
+      <c r="B92" s="53">
         <v>13</v>
       </c>
       <c r="C92" s="13"/>
@@ -10406,7 +10536,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -10422,7 +10552,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="50"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -10438,7 +10568,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="50"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -10454,7 +10584,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="50"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -10470,7 +10600,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="50"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -10486,7 +10616,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="51"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="13"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -10502,7 +10632,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="52">
+      <c r="B99" s="50">
         <v>14</v>
       </c>
       <c r="C99" s="16"/>
@@ -10520,7 +10650,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -10536,7 +10666,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -10552,7 +10682,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -10568,7 +10698,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -10584,7 +10714,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -10600,7 +10730,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -10616,7 +10746,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="49">
+      <c r="B106" s="53">
         <v>15</v>
       </c>
       <c r="C106" s="13"/>
@@ -10634,7 +10764,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="50"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -10650,7 +10780,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="50"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -10666,7 +10796,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="50"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -10682,7 +10812,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="50"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -10698,7 +10828,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="50"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -10714,7 +10844,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="51"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -10730,7 +10860,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="52">
+      <c r="B113" s="50">
         <v>16</v>
       </c>
       <c r="C113" s="16"/>
@@ -10748,7 +10878,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -10764,7 +10894,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="51"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -10780,7 +10910,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="51"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -10796,7 +10926,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="53"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -10812,7 +10942,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="53"/>
+      <c r="B118" s="51"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -10828,7 +10958,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="54"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02E5714-B044-451C-BB53-16E763ADA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A259BE8-D3D7-4494-AB85-437B74B5F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -298,30 +298,6 @@
     <author>Manuel</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{AE5528DD-6E96-4C37-A0FB-77D3041C1809}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Eliminar video 2 porque corresponde a semana 2.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L8" authorId="0" shapeId="0" xr:uid="{8F9CD7A6-73EF-4E17-BEBB-F8508DE9E964}">
       <text>
         <r>
@@ -367,30 +343,6 @@
           </rPr>
           <t xml:space="preserve">
 Están los videos del encuadre, pero falta el de la clase de la unidad 9 ya que en este curso así está planificado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{4121718F-B3A1-4384-8135-2C257EE1D2BE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Eliminar video 1 porque corresponde a semana 1.</t>
         </r>
       </text>
     </comment>
@@ -538,30 +490,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{A90C3EE5-70A4-4394-B683-ECCBB3E6F059}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Se ha subido el video de la unidad 3 y no el de la unidad 2.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{B71AA77F-951E-48AE-BB6C-051BB842EF0E}">
       <text>
         <r>
@@ -582,7 +510,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Corresponden a los mismos videos subidos en la semana 2.</t>
+Video dura 00:02:22.</t>
         </r>
       </text>
     </comment>
@@ -731,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{69493085-0251-4113-8664-F2FB4D05DC65}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{532A36FB-D452-4149-B46B-C3A4C77AF099}">
       <text>
         <r>
           <rPr>
@@ -751,7 +679,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Se subió el video de la unidad 3. Se subió otro video que dura 55 segundos. Falta video de evaluación.</t>
+Video dura 00:02:22.</t>
         </r>
       </text>
     </comment>
@@ -823,7 +751,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video subido es de la unidad 2 y parte de la 3. Tiene que constar el video de la evaluación.</t>
+Video subido es de la unidad 2 y unidad 3. El video de la evaluación consta en la siguiente semana.</t>
         </r>
       </text>
     </comment>
@@ -899,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{00ADBC80-E0A5-41B6-B02C-49E9D0D777E2}">
+    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{4286FB39-0D23-4C63-B083-5586CD388085}">
       <text>
         <r>
           <rPr>
@@ -919,7 +847,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:01:23.</t>
+Video dura 00:04:07.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{42FA973D-E082-4308-88F0-3F7E93B5C9E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El video de esta semana se encuentra en un solo video de la semana pasada. Este video corresponde a la evaluación que debió darse la semana pasada.</t>
         </r>
       </text>
     </comment>
@@ -943,7 +895,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video estaba en proceso al momento de revisión el 21/06/2022 15H22 y al 22/09/2022 15H50.</t>
+Video estaba en proceso al momento de revisión el 21/06/2022 15H22, al 22/09/2022 15H50,
+23/06/2022 16H54.</t>
         </r>
       </text>
     </comment>
@@ -967,7 +920,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:03:13.</t>
+Video dura 00:05:13.</t>
         </r>
       </text>
     </comment>
@@ -991,7 +944,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video estaba en proceso al momento de revisión el 22/06/2022 15H52.</t>
+Video estaba en proceso al momento de revisión el 22/06/2022 15H52.
+Al 23/06/2022 habían dos videos, uno no se habría y el otro duraba 00:02:06</t>
         </r>
       </text>
     </comment>
@@ -1000,7 +954,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="131">
   <si>
     <t>CURSO</t>
   </si>
@@ -1770,14 +1724,11 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,8 +1739,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1805,9 +1762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2129,7 +2083,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2173,7 +2127,7 @@
       <c r="B4" s="20"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2184,7 +2138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2195,7 +2149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2217,7 +2171,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2250,7 +2204,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2283,7 +2237,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2309,7 +2263,7 @@
   <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
     <filterColumn colId="2">
       <filters>
-        <filter val="02_Martes"/>
+        <filter val="03_Miércoles"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2339,7 +2293,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,44 +2306,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2398,11 +2352,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="58">
         <f ca="1">NOW()</f>
-        <v>44734.662150925928</v>
-      </c>
-      <c r="P3" s="58"/>
+        <v>44735.72055150463</v>
+      </c>
+      <c r="P3" s="59"/>
     </row>
     <row r="5" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2458,7 +2412,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
       <c r="C6" s="12">
@@ -2506,7 +2460,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="12">
         <v>1</v>
       </c>
@@ -2552,7 +2506,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -2598,7 +2552,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -2644,7 +2598,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -2690,7 +2644,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="55">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2738,7 +2692,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2784,7 +2738,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2830,7 +2784,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="6"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -2850,7 +2804,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="6"/>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -2870,7 +2824,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2916,7 +2870,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="6"/>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -2936,7 +2890,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>3</v>
       </c>
       <c r="C18" s="12">
@@ -2984,7 +2938,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -3030,7 +2984,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
@@ -3076,7 +3030,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="12">
         <v>1</v>
       </c>
@@ -3122,7 +3076,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
       <c r="E22" s="12"/>
@@ -3142,7 +3096,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -3188,7 +3142,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="12"/>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -3208,7 +3162,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="55">
         <v>4</v>
       </c>
       <c r="C25" s="34">
@@ -3256,7 +3210,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3302,7 +3256,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3348,7 +3302,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="6"/>
       <c r="D28" s="22"/>
       <c r="E28" s="6"/>
@@ -3368,7 +3322,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3414,7 +3368,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="6"/>
       <c r="D30" s="22"/>
       <c r="E30" s="6"/>
@@ -3434,7 +3388,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3480,7 +3434,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="52">
         <v>5</v>
       </c>
       <c r="C32" s="33">
@@ -3493,12 +3447,18 @@
       <c r="F32" s="33">
         <v>1</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="33">
+        <v>1</v>
+      </c>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="33">
+        <v>1</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="L32" s="33">
+        <v>1</v>
+      </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="33">
@@ -3512,7 +3472,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="12">
         <v>5</v>
       </c>
@@ -3523,12 +3483,18 @@
       <c r="F33" s="12">
         <v>5</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="12">
+        <v>5</v>
+      </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12">
+        <v>3</v>
+      </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="L33" s="12">
+        <v>5</v>
+      </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="12">
@@ -3542,7 +3508,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="12">
         <v>1</v>
       </c>
@@ -3553,12 +3519,18 @@
       <c r="F34" s="12">
         <v>1</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="L34" s="12">
+        <v>1</v>
+      </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="12">
@@ -3572,17 +3544,17 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="12"/>
       <c r="D35" s="22"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="12"/>
@@ -3592,17 +3564,17 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="12"/>
       <c r="D36" s="22"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="12"/>
@@ -3612,7 +3584,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
@@ -3623,12 +3595,18 @@
       <c r="F37" s="12">
         <v>1</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="L37" s="12">
+        <v>1</v>
+      </c>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="12">
@@ -3642,7 +3620,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="22"/>
       <c r="E38" s="13"/>
@@ -3662,7 +3640,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="55">
         <v>6</v>
       </c>
       <c r="C39" s="9"/>
@@ -3684,7 +3662,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="9"/>
       <c r="D40" s="22"/>
       <c r="E40" s="9"/>
@@ -3704,7 +3682,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="9"/>
       <c r="D41" s="22"/>
       <c r="E41" s="9"/>
@@ -3724,7 +3702,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="9"/>
       <c r="D42" s="22"/>
       <c r="E42" s="5"/>
@@ -3744,7 +3722,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="9"/>
       <c r="D43" s="22"/>
       <c r="E43" s="5"/>
@@ -3764,7 +3742,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="9"/>
       <c r="D44" s="22"/>
       <c r="E44" s="5"/>
@@ -3784,7 +3762,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="9"/>
       <c r="D45" s="22"/>
       <c r="E45" s="5"/>
@@ -3804,7 +3782,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="52">
         <v>7</v>
       </c>
       <c r="C46" s="11"/>
@@ -3826,7 +3804,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="13"/>
@@ -3846,7 +3824,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="13"/>
       <c r="D48" s="22"/>
       <c r="E48" s="13"/>
@@ -3866,7 +3844,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="13"/>
       <c r="D49" s="22"/>
       <c r="E49" s="13"/>
@@ -3886,7 +3864,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="54"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="13"/>
@@ -3906,7 +3884,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="13"/>
@@ -3926,7 +3904,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="13"/>
       <c r="D52" s="22"/>
       <c r="E52" s="13"/>
@@ -3946,7 +3924,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="55">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3968,7 +3946,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="51"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="5"/>
       <c r="D54" s="22"/>
       <c r="E54" s="5"/>
@@ -3988,7 +3966,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="51"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="6"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
@@ -4008,7 +3986,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="6"/>
       <c r="D56" s="21"/>
       <c r="E56" s="5"/>
@@ -4028,7 +4006,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="51"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="6"/>
       <c r="D57" s="21"/>
       <c r="E57" s="5"/>
@@ -4048,7 +4026,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="51"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="6"/>
       <c r="D58" s="21"/>
       <c r="E58" s="5"/>
@@ -4068,7 +4046,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="52"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="6"/>
       <c r="D59" s="21"/>
       <c r="E59" s="6"/>
@@ -4088,7 +4066,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="52">
         <v>9</v>
       </c>
       <c r="C60" s="13"/>
@@ -4110,7 +4088,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="13"/>
       <c r="D61" s="22"/>
       <c r="E61" s="13"/>
@@ -4130,7 +4108,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="54"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="13"/>
       <c r="D62" s="22"/>
       <c r="E62" s="13"/>
@@ -4150,7 +4128,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="13"/>
       <c r="D63" s="23"/>
       <c r="E63" s="10"/>
@@ -4170,7 +4148,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="13"/>
       <c r="D64" s="23"/>
       <c r="E64" s="10"/>
@@ -4190,7 +4168,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="13"/>
       <c r="D65" s="23"/>
       <c r="E65" s="10"/>
@@ -4210,7 +4188,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="13"/>
       <c r="D66" s="23"/>
       <c r="E66" s="10"/>
@@ -4230,7 +4208,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="50">
+      <c r="B67" s="55">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4252,7 +4230,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="51"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="5"/>
       <c r="D68" s="22"/>
       <c r="E68" s="5"/>
@@ -4272,7 +4250,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="51"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="5"/>
       <c r="D69" s="22"/>
       <c r="E69" s="5"/>
@@ -4292,7 +4270,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="51"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="5"/>
       <c r="D70" s="22"/>
       <c r="E70" s="5"/>
@@ -4312,7 +4290,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="51"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="5"/>
       <c r="D71" s="22"/>
       <c r="E71" s="5"/>
@@ -4332,7 +4310,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="51"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="22"/>
       <c r="E72" s="5"/>
@@ -4352,7 +4330,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="52"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="6"/>
       <c r="D73" s="21"/>
       <c r="E73" s="6"/>
@@ -4372,7 +4350,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="52">
         <v>11</v>
       </c>
       <c r="C74" s="13"/>
@@ -4394,7 +4372,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="13"/>
       <c r="D75" s="22"/>
       <c r="E75" s="13"/>
@@ -4414,7 +4392,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="54"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="13"/>
       <c r="D76" s="22"/>
       <c r="E76" s="13"/>
@@ -4434,7 +4412,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="13"/>
       <c r="D77" s="22"/>
       <c r="E77" s="13"/>
@@ -4454,7 +4432,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="54"/>
+      <c r="B78" s="53"/>
       <c r="C78" s="10"/>
       <c r="D78" s="23"/>
       <c r="E78" s="10"/>
@@ -4474,7 +4452,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="13"/>
       <c r="D79" s="22"/>
       <c r="E79" s="13"/>
@@ -4494,7 +4472,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="13"/>
       <c r="D80" s="23"/>
       <c r="E80" s="10"/>
@@ -4514,7 +4492,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="50">
+      <c r="B81" s="55">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4536,7 +4514,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="51"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="5"/>
       <c r="D82" s="22"/>
       <c r="E82" s="5"/>
@@ -4556,7 +4534,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="51"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="5"/>
       <c r="D83" s="22"/>
       <c r="E83" s="5"/>
@@ -4576,7 +4554,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="51"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="5"/>
       <c r="D84" s="22"/>
       <c r="E84" s="5"/>
@@ -4596,7 +4574,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="51"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="5"/>
       <c r="D85" s="22"/>
       <c r="E85" s="5"/>
@@ -4616,7 +4594,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="51"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="22"/>
       <c r="E86" s="5"/>
@@ -4636,7 +4614,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="52"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="22"/>
       <c r="E87" s="5"/>
@@ -4656,7 +4634,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="53">
+      <c r="B88" s="52">
         <v>13</v>
       </c>
       <c r="C88" s="13"/>
@@ -4678,7 +4656,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="13"/>
       <c r="D89" s="22"/>
       <c r="E89" s="13"/>
@@ -4698,7 +4676,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="13"/>
       <c r="D90" s="22"/>
       <c r="E90" s="13"/>
@@ -4718,7 +4696,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="13"/>
       <c r="D91" s="22"/>
       <c r="E91" s="13"/>
@@ -4738,7 +4716,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="54"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="13"/>
       <c r="D92" s="22"/>
       <c r="E92" s="13"/>
@@ -4758,7 +4736,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="13"/>
       <c r="D93" s="22"/>
       <c r="E93" s="13"/>
@@ -4778,7 +4756,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="55"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="13"/>
       <c r="D94" s="23"/>
       <c r="E94" s="10"/>
@@ -4798,7 +4776,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="50">
+      <c r="B95" s="55">
         <v>14</v>
       </c>
       <c r="C95" s="16"/>
@@ -4820,7 +4798,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="51"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="16"/>
       <c r="D96" s="22"/>
       <c r="E96" s="16"/>
@@ -4840,7 +4818,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="51"/>
+      <c r="B97" s="56"/>
       <c r="C97" s="16"/>
       <c r="D97" s="22"/>
       <c r="E97" s="16"/>
@@ -4860,7 +4838,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="51"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="16"/>
       <c r="D98" s="22"/>
       <c r="E98" s="16"/>
@@ -4880,7 +4858,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="51"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="16"/>
       <c r="D99" s="22"/>
       <c r="E99" s="16"/>
@@ -4900,7 +4878,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="51"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="16"/>
       <c r="D100" s="22"/>
       <c r="E100" s="16"/>
@@ -4920,7 +4898,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="52"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="16"/>
       <c r="D101" s="22"/>
       <c r="E101" s="16"/>
@@ -4940,7 +4918,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="52">
         <v>15</v>
       </c>
       <c r="C102" s="13"/>
@@ -4962,7 +4940,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="13"/>
       <c r="D103" s="22"/>
       <c r="E103" s="13"/>
@@ -4982,7 +4960,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="54"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="13"/>
       <c r="D104" s="22"/>
       <c r="E104" s="13"/>
@@ -5002,7 +4980,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="13"/>
       <c r="D105" s="22"/>
       <c r="E105" s="13"/>
@@ -5022,7 +5000,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="54"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="13"/>
       <c r="D106" s="22"/>
       <c r="E106" s="13"/>
@@ -5042,7 +5020,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="13"/>
       <c r="D107" s="22"/>
       <c r="E107" s="13"/>
@@ -5062,7 +5040,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="55"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="13"/>
       <c r="D108" s="22"/>
       <c r="E108" s="13"/>
@@ -5082,7 +5060,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="50">
+      <c r="B109" s="55">
         <v>16</v>
       </c>
       <c r="C109" s="16"/>
@@ -5104,7 +5082,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="51"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="16"/>
       <c r="D110" s="22"/>
       <c r="E110" s="16"/>
@@ -5124,7 +5102,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="51"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="16"/>
       <c r="D111" s="22"/>
       <c r="E111" s="16"/>
@@ -5144,7 +5122,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="51"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="16"/>
       <c r="D112" s="22"/>
       <c r="E112" s="16"/>
@@ -5164,7 +5142,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="51"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="16"/>
       <c r="D113" s="22"/>
       <c r="E113" s="16"/>
@@ -5184,7 +5162,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="51"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="16"/>
       <c r="D114" s="22"/>
       <c r="E114" s="16"/>
@@ -5204,7 +5182,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="52"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="16"/>
       <c r="D115" s="22"/>
       <c r="E115" s="16"/>
@@ -5222,17 +5200,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5241,6 +5208,17 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5252,7 +5230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5458,11 +5438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A915C6-6362-4FC4-8327-4B7F0C4EA5C4}">
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,44 +5455,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5521,11 +5501,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="58">
         <f ca="1">NOW()</f>
-        <v>44734.662150925928</v>
-      </c>
-      <c r="P3" s="58"/>
+        <v>44735.72055150463</v>
+      </c>
+      <c r="P3" s="59"/>
     </row>
     <row r="5" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5581,7 +5561,7 @@
       <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="60">
         <v>1</v>
       </c>
       <c r="C6" s="18">
@@ -5631,7 +5611,7 @@
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="18">
         <v>1</v>
       </c>
@@ -5679,9 +5659,9 @@
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="15">
-        <v>2</v>
+      <c r="B8" s="61"/>
+      <c r="C8" s="18">
+        <v>1</v>
       </c>
       <c r="D8" s="18">
         <v>2</v>
@@ -5727,7 +5707,7 @@
       <c r="A9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="18">
         <v>1</v>
       </c>
@@ -5775,7 +5755,7 @@
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="18">
         <v>1</v>
       </c>
@@ -5823,7 +5803,7 @@
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="18">
         <v>10</v>
       </c>
@@ -5871,7 +5851,7 @@
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
@@ -5893,7 +5873,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="55">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5943,7 +5923,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -5991,9 +5971,9 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="15">
-        <v>2</v>
+      <c r="B15" s="56"/>
+      <c r="C15" s="6">
+        <v>1</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -6039,7 +6019,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6059,7 +6039,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6107,7 +6087,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6155,7 +6135,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="52"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6175,7 +6155,7 @@
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="60">
         <v>3</v>
       </c>
       <c r="C20" s="18">
@@ -6225,7 +6205,7 @@
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="18">
         <v>5</v>
       </c>
@@ -6273,9 +6253,9 @@
       <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="15" t="s">
-        <v>94</v>
+      <c r="B22" s="61"/>
+      <c r="C22" s="18">
+        <v>1</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>94</v>
@@ -6321,7 +6301,7 @@
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="18">
         <v>1</v>
       </c>
@@ -6369,7 +6349,7 @@
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -6389,7 +6369,7 @@
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="18">
         <v>1</v>
       </c>
@@ -6437,7 +6417,7 @@
       <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -6457,7 +6437,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="55">
         <v>4</v>
       </c>
       <c r="C27" s="35">
@@ -6507,7 +6487,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6555,12 +6535,12 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>92</v>
@@ -6577,8 +6557,8 @@
       <c r="I29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>92</v>
+      <c r="J29" s="5">
+        <v>1</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>92</v>
@@ -6603,7 +6583,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6623,7 +6603,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6647,7 +6627,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6671,10 +6651,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
+      <c r="B33" s="57"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6713,7 +6690,7 @@
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="59">
+      <c r="B34" s="60">
         <v>5</v>
       </c>
       <c r="C34" s="49">
@@ -6721,12 +6698,16 @@
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="62"/>
+      <c r="F34" s="49">
+        <v>1</v>
+      </c>
       <c r="G34" s="19"/>
-      <c r="H34" s="62">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19"/>
+      <c r="H34" s="50">
+        <v>1</v>
+      </c>
+      <c r="I34" s="49">
+        <v>1</v>
+      </c>
       <c r="J34" s="49">
         <v>1</v>
       </c>
@@ -6734,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="19"/>
-      <c r="M34" s="62">
+      <c r="M34" s="50">
         <v>1</v>
       </c>
       <c r="N34" s="19"/>
@@ -6747,18 +6728,22 @@
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="18">
         <v>6</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="18">
+        <v>4</v>
+      </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19">
         <v>5</v>
       </c>
-      <c r="I35" s="19"/>
+      <c r="I35" s="18">
+        <v>5</v>
+      </c>
       <c r="J35" s="19">
         <v>5</v>
       </c>
@@ -6779,20 +6764,24 @@
       <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="18">
         <v>1</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19">
         <v>2</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="14" t="s">
+      <c r="I36" s="14" t="s">
         <v>94</v>
+      </c>
+      <c r="J36" s="19">
+        <v>1</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>94</v>
@@ -6811,14 +6800,14 @@
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="60"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -6833,18 +6822,22 @@
       <c r="A38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="18">
         <v>1</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19">
         <v>1</v>
       </c>
-      <c r="I38" s="19"/>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
       <c r="J38" s="19">
         <v>1</v>
       </c>
@@ -6863,18 +6856,22 @@
       <c r="A39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="18">
         <v>1</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19">
         <v>1</v>
       </c>
-      <c r="I39" s="19"/>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
       <c r="J39" s="19">
         <v>1</v>
       </c>
@@ -6895,7 +6892,7 @@
       <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="61"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6915,7 +6912,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="55">
         <v>6</v>
       </c>
       <c r="C41" s="9"/>
@@ -6937,7 +6934,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -6957,7 +6954,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -6977,7 +6974,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -6997,7 +6994,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7017,7 +7014,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -7037,7 +7034,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="52"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7057,7 +7054,7 @@
       <c r="A48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="59">
+      <c r="B48" s="60">
         <v>7</v>
       </c>
       <c r="C48" s="18"/>
@@ -7079,7 +7076,7 @@
       <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="60"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -7099,7 +7096,7 @@
       <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -7119,7 +7116,7 @@
       <c r="A51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -7139,7 +7136,7 @@
       <c r="A52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -7159,7 +7156,7 @@
       <c r="A53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -7179,7 +7176,7 @@
       <c r="A54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="61"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -7199,7 +7196,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="55">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7221,7 +7218,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7241,7 +7238,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="51"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7261,7 +7258,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="51"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7281,7 +7278,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="51"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7301,7 +7298,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="51"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7321,7 +7318,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="52"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7341,7 +7338,7 @@
       <c r="A62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="59">
+      <c r="B62" s="60">
         <v>9</v>
       </c>
       <c r="C62" s="18"/>
@@ -7363,7 +7360,7 @@
       <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="60"/>
+      <c r="B63" s="61"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -7383,7 +7380,7 @@
       <c r="A64" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="60"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -7403,7 +7400,7 @@
       <c r="A65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="60"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -7423,7 +7420,7 @@
       <c r="A66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="60"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -7443,7 +7440,7 @@
       <c r="A67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="60"/>
+      <c r="B67" s="61"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -7463,7 +7460,7 @@
       <c r="A68" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="61"/>
+      <c r="B68" s="62"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -7483,7 +7480,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="50">
+      <c r="B69" s="55">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7505,7 +7502,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="51"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7525,7 +7522,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="51"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7545,7 +7542,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="51"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7565,7 +7562,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="51"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7585,7 +7582,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="51"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7605,7 +7602,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="52"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7625,7 +7622,7 @@
       <c r="A76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="59">
+      <c r="B76" s="60">
         <v>11</v>
       </c>
       <c r="C76" s="18"/>
@@ -7647,7 +7644,7 @@
       <c r="A77" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="60"/>
+      <c r="B77" s="61"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -7667,7 +7664,7 @@
       <c r="A78" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="60"/>
+      <c r="B78" s="61"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -7687,7 +7684,7 @@
       <c r="A79" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="60"/>
+      <c r="B79" s="61"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -7707,7 +7704,7 @@
       <c r="A80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="60"/>
+      <c r="B80" s="61"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -7727,7 +7724,7 @@
       <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="60"/>
+      <c r="B81" s="61"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -7747,7 +7744,7 @@
       <c r="A82" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="61"/>
+      <c r="B82" s="62"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -7767,7 +7764,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="50">
+      <c r="B83" s="55">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -7789,7 +7786,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="51"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7809,7 +7806,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="51"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -7829,7 +7826,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="51"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -7849,7 +7846,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="51"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -7869,7 +7866,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="51"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -7889,7 +7886,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="52"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -7909,7 +7906,7 @@
       <c r="A90" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="59">
+      <c r="B90" s="60">
         <v>13</v>
       </c>
       <c r="C90" s="18"/>
@@ -7931,7 +7928,7 @@
       <c r="A91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="60"/>
+      <c r="B91" s="61"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
@@ -7951,7 +7948,7 @@
       <c r="A92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="60"/>
+      <c r="B92" s="61"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -7971,7 +7968,7 @@
       <c r="A93" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="60"/>
+      <c r="B93" s="61"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -7991,7 +7988,7 @@
       <c r="A94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="60"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -8011,7 +8008,7 @@
       <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="60"/>
+      <c r="B95" s="61"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -8031,7 +8028,7 @@
       <c r="A96" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="61"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -8051,7 +8048,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="50">
+      <c r="B97" s="55">
         <v>14</v>
       </c>
       <c r="C97" s="16"/>
@@ -8073,7 +8070,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="51"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -8093,7 +8090,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="51"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -8113,7 +8110,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="51"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -8133,7 +8130,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="51"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -8153,7 +8150,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="51"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -8173,7 +8170,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="52"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -8193,7 +8190,7 @@
       <c r="A104" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="59">
+      <c r="B104" s="60">
         <v>15</v>
       </c>
       <c r="C104" s="18"/>
@@ -8215,7 +8212,7 @@
       <c r="A105" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="60"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -8235,7 +8232,7 @@
       <c r="A106" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="60"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -8255,7 +8252,7 @@
       <c r="A107" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="60"/>
+      <c r="B107" s="61"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -8275,7 +8272,7 @@
       <c r="A108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="60"/>
+      <c r="B108" s="61"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
@@ -8295,7 +8292,7 @@
       <c r="A109" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="60"/>
+      <c r="B109" s="61"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
@@ -8315,7 +8312,7 @@
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="61"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
@@ -8335,7 +8332,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="50">
+      <c r="B111" s="55">
         <v>16</v>
       </c>
       <c r="C111" s="16"/>
@@ -8357,7 +8354,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="51"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -8377,7 +8374,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="51"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -8397,7 +8394,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="51"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -8417,7 +8414,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="51"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -8437,7 +8434,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="51"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -8457,7 +8454,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="52"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -8475,17 +8472,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8494,6 +8480,17 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8507,7 +8504,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8598,7 +8595,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
       <c r="C6" s="33">
@@ -8636,7 +8633,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="12">
         <v>7</v>
       </c>
@@ -8672,7 +8669,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8708,7 +8705,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -8744,7 +8741,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -8780,7 +8777,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -8816,7 +8813,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
@@ -8852,7 +8849,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -8888,7 +8885,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="12">
         <v>1</v>
       </c>
@@ -8924,7 +8921,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="55">
         <v>2</v>
       </c>
       <c r="C15" s="34">
@@ -8962,7 +8959,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -8998,7 +8995,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9034,7 +9031,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9070,7 +9067,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9086,7 +9083,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9122,7 +9119,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9138,7 +9135,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="52">
         <v>3</v>
       </c>
       <c r="C22" s="33">
@@ -9176,7 +9173,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -9212,7 +9209,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="12">
         <v>1</v>
       </c>
@@ -9248,7 +9245,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9264,7 +9261,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9280,7 +9277,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9296,7 +9293,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
@@ -9322,7 +9319,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="55">
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -9360,7 +9357,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9396,7 +9393,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9432,7 +9429,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9448,7 +9445,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9484,7 +9481,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9520,7 +9517,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="52"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9536,7 +9533,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="52">
         <v>5</v>
       </c>
       <c r="C36" s="33">
@@ -9568,11 +9565,13 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="12">
         <v>2</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
       <c r="E37" s="12">
         <v>2</v>
       </c>
@@ -9583,7 +9582,9 @@
       <c r="H37" s="12">
         <v>2</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="12">
+        <v>2</v>
+      </c>
       <c r="J37" s="12">
         <v>2</v>
       </c>
@@ -9598,11 +9599,13 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
       <c r="E38" s="12">
         <v>1</v>
       </c>
@@ -9613,7 +9616,9 @@
       <c r="H38" s="12">
         <v>1</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="12">
+        <v>1</v>
+      </c>
       <c r="J38" s="12">
         <v>1</v>
       </c>
@@ -9628,11 +9633,13 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
       <c r="E39" s="12">
         <v>1</v>
       </c>
@@ -9643,7 +9650,9 @@
       <c r="H39" s="12">
         <v>1</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="12">
+        <v>1</v>
+      </c>
       <c r="J39" s="12">
         <v>1</v>
       </c>
@@ -9658,14 +9667,14 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -9674,11 +9683,13 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
       <c r="E41" s="12">
         <v>1</v>
       </c>
@@ -9689,7 +9700,9 @@
       <c r="H41" s="12">
         <v>1</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="12">
+        <v>1</v>
+      </c>
       <c r="J41" s="12">
         <v>1</v>
       </c>
@@ -9704,7 +9717,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -9720,7 +9733,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="50">
+      <c r="B43" s="55">
         <v>6</v>
       </c>
       <c r="C43" s="9"/>
@@ -9738,7 +9751,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
@@ -9754,7 +9767,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
@@ -9770,7 +9783,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="9"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -9786,7 +9799,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="9"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -9802,7 +9815,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="9"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -9818,7 +9831,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="52"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="9"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -9834,7 +9847,7 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="52">
         <v>7</v>
       </c>
       <c r="C50" s="11"/>
@@ -9852,7 +9865,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -9868,7 +9881,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -9884,7 +9897,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -9900,7 +9913,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -9916,7 +9929,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -9932,7 +9945,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -9948,7 +9961,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="50">
+      <c r="B57" s="55">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -9966,7 +9979,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="51"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -9982,7 +9995,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="51"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -9998,7 +10011,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="51"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10014,7 +10027,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="51"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10030,7 +10043,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="51"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10046,7 +10059,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="52"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10062,7 +10075,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="52">
         <v>9</v>
       </c>
       <c r="C64" s="13"/>
@@ -10080,7 +10093,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -10096,7 +10109,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -10112,7 +10125,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="54"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="13"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10128,7 +10141,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="54"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="13"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10144,7 +10157,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="54"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="13"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10160,7 +10173,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="55"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="13"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10176,7 +10189,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="50">
+      <c r="B71" s="55">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10194,7 +10207,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="51"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10210,7 +10223,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="51"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10226,7 +10239,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="51"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10242,7 +10255,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="51"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10258,7 +10271,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="51"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10274,7 +10287,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="52"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10290,7 +10303,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="52">
         <v>11</v>
       </c>
       <c r="C78" s="13"/>
@@ -10308,7 +10321,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -10324,7 +10337,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -10340,7 +10353,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="54"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -10356,7 +10369,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="54"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10372,7 +10385,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="54"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -10388,7 +10401,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="55"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="13"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10404,7 +10417,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="50">
+      <c r="B85" s="55">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10422,7 +10435,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="51"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10438,7 +10451,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="51"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10454,7 +10467,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="51"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10470,7 +10483,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="51"/>
+      <c r="B89" s="56"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10486,7 +10499,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="51"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10502,7 +10515,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="52"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10518,7 +10531,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="53">
+      <c r="B92" s="52">
         <v>13</v>
       </c>
       <c r="C92" s="13"/>
@@ -10536,7 +10549,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -10552,7 +10565,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -10568,7 +10581,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="54"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -10584,7 +10597,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="54"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -10600,7 +10613,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="54"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -10616,7 +10629,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="55"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="13"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -10632,7 +10645,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="50">
+      <c r="B99" s="55">
         <v>14</v>
       </c>
       <c r="C99" s="16"/>
@@ -10650,7 +10663,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="51"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -10666,7 +10679,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="51"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -10682,7 +10695,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="51"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -10698,7 +10711,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="51"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -10714,7 +10727,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="51"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -10730,7 +10743,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="52"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -10746,7 +10759,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="52">
         <v>15</v>
       </c>
       <c r="C106" s="13"/>
@@ -10764,7 +10777,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -10780,7 +10793,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -10796,7 +10809,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -10812,7 +10825,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -10828,7 +10841,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="54"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -10844,7 +10857,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="55"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -10860,7 +10873,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="50">
+      <c r="B113" s="55">
         <v>16</v>
       </c>
       <c r="C113" s="16"/>
@@ -10878,7 +10891,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="51"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -10894,7 +10907,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="51"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -10910,7 +10923,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="51"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -10926,7 +10939,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="51"/>
+      <c r="B117" s="56"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -10942,7 +10955,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="51"/>
+      <c r="B118" s="56"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -10958,7 +10971,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="52"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A259BE8-D3D7-4494-AB85-437B74B5F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B6B6DA-4E0A-4F4D-B2F2-6B6316E9A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -298,198 +298,6 @@
     <author>Manuel</author>
   </authors>
   <commentList>
-    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{8F9CD7A6-73EF-4E17-BEBB-F8508DE9E964}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Están los videos del encuadre, pero falta el de la clase de la unidad 9 ya que en este curso así está planificado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{13EF9975-98DC-4BD5-96E3-F788D64E0C76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Están los videos del encuadre, pero falta el de la clase de la unidad 9 ya que en este curso así está planificado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{834E03B8-E6A3-430B-99DA-37502E4DE18D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Los videos que aparecen aquí son de la semana 1.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{88379216-13D4-41BE-8D3D-AB7202E72EAB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Videos subidos aquí son del encuadre. Deben ser de la unidad 9.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{FBAE7249-F7C6-4BF8-83C9-51BAD7EA37E0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Videos son del encuadre. No corresponden a la unidad 9.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{1E7EF3B2-5768-40A2-A73B-069F85FC9CE0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Estos videos son le la unidad 9. Deberían estar en la semana anterior ya que así está planificado en este curso. En esta semana va el video de la  unidad 10.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{66EFD446-5503-4061-8E1F-718155372E8E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Estos videos corresponden al encuadre. Falta el video de la clase de la unidad 10 aquí, plorque así consta la planificación en este curso.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{4656FB62-5515-48D1-A9B5-E2772FC0B4F4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Son los videos del encuadre. Aquí hay que poner los de la unidad 9.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{B71AA77F-951E-48AE-BB6C-051BB842EF0E}">
       <text>
         <r>
@@ -534,31 +342,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 1 minuto 51 segundos.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{B39212B2-1A2E-401D-B0E7-C1056D55AB32}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Video dura 4 minutos</t>
+Está subido el video de la unidad 11, poner en la semana 5. Aquí debe estar el de la unidad 10 en esta semana 3.</t>
         </r>
       </text>
     </comment>
@@ -582,31 +366,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Este video es de la unidad 10. Debe estar en la semana anterior. Aquí hay que poner el video de la evaluación parcial.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{4215B0D7-745B-4D26-8396-527ECB3ECA1D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Video no corresponde a la evaluación. Video subido dura 1 minuto 51 segundos.</t>
+Este video es de la unidad 10. Debe estar en la semana anterior. Aquí hay que poner el video de la evaluación parcial aunque haya sido tomada de manera atrasasa.</t>
         </r>
       </text>
     </comment>
@@ -630,12 +390,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Sale un video que dura 1 minuto 51 segundos.
-Sale otro video que indica que es la sesión del curso de Finanzas A. Verificar por favor. Justamente ese curso no tiene el video. Faltaría el video de este curso de 4b de MERCA también aquí.</t>
+Video dura 00:02:06.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{C067490D-0135-4FB2-864A-95E64D82849C}">
+    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{2DFADD53-42F8-4D24-BE6C-E6B71A801F46}">
       <text>
         <r>
           <rPr>
@@ -643,7 +402,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Manuel:</t>
         </r>
@@ -652,10 +411,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Debería constar el video de la unidad 10, no de la unidad 9.</t>
+Ok. 
+Contiene el video de la unidad 10 y de la evaluación parcial 1. Video dura 01:47:40.</t>
         </r>
       </text>
     </comment>
@@ -683,6 +443,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{98DBDA2E-1A02-494A-BE5C-DE57824BDA29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Video dura 00:06:17.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F29" authorId="0" shapeId="0" xr:uid="{EADA5E84-87EC-4450-B126-813E024CEFF0}">
       <text>
         <r>
@@ -703,7 +487,32 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Está subido un video que dura 5 segundos. Debe estar el video de la evaluación.</t>
+OK.
+Consta el video de la unidad 11. El video de la evaluación parcial 1 se encuentra al final. El video total dura 01:43:01.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{09817B4C-23CC-41EE-A71C-474586CADB7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El video aparecía en proceso al momento de la revisión. Revisar por favor si tal vez hay que otorgar acceso a usuarios de la UTEQ.</t>
         </r>
       </text>
     </comment>
@@ -727,7 +536,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Consta video que dura 1 minuto 51 segundos.</t>
+Solamente debe constar el video de la evaluación. El video de la unidad 10 debe estar en la semana anterior.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{95116498-3722-4305-96CB-414B6A795D5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Video no corresponde a la evaluación parcial 1, sino a la segunda mitad de la clase de la semana 3.</t>
         </r>
       </text>
     </comment>
@@ -742,6 +575,27 @@
             <charset val="1"/>
           </rPr>
           <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+OK.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comentario para mi registro: </t>
         </r>
         <r>
           <rPr>
@@ -775,11 +629,54 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Es el mismo video subido en la semana 3. Video debe ser de la evaluación. </t>
+Es el mismo video subido en la semana 3. Video debe ser de la </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>evaluación parcial 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>. Me escribiste que no hay video de evaluación porque estaban atrasados. Sin embargo, cuando se recupere la clase de la evaluación, igualmente debe haber un video aquí de dicha sesión.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{6B35C0D0-6EC3-4378-999B-CF8F785D0931}">
+    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{580D5AE6-C07B-4185-B707-F3BA5E2633D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Video dura 00:03:41.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{72CE3E14-8CDE-4C8B-B503-74BE21C45A95}">
       <text>
         <r>
           <rPr>
@@ -799,11 +696,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video no corresponde a la unidad 3. Es el mismo video subido de la semana 3 que dura 1 minuto 51 segundos.</t>
+Video dura 00:02:06.</t>
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{495A4096-6A3D-47EF-BB74-DE390AD16F94}">
+    <comment ref="P29" authorId="0" shapeId="0" xr:uid="{21153DD3-8F82-4030-BF68-2A7EE7C10ECA}">
       <text>
         <r>
           <rPr>
@@ -811,7 +708,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Manuel:</t>
         </r>
@@ -820,14 +717,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Falta video de evaluación. Aquí constan los videos de la unidad 10 que deberían estar en la semana anterior.</t>
+Ok. 
+Contiene el video de la unidad 10 y de la evaluación parcial 1. Video dura 01:47:40.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{4286FB39-0D23-4C63-B083-5586CD388085}">
+    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{05030A36-EABE-4262-AB2E-114C2011CE49}">
       <text>
         <r>
           <rPr>
@@ -835,7 +733,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Manuel:</t>
         </r>
@@ -844,10 +742,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:04:07.</t>
+Poner el video de la semana pasada aquí también porque contiene la evaluación parcial 1 en la segunda parte.</t>
         </r>
       </text>
     </comment>
@@ -861,7 +759,28 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Manuel:</t>
+          <t xml:space="preserve">Manuel:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OK</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comentario para mi registro:</t>
         </r>
         <r>
           <rPr>
@@ -895,8 +814,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video estaba en proceso al momento de revisión el 21/06/2022 15H22, al 22/09/2022 15H50,
-23/06/2022 16H54.</t>
+Video dura 00:12:10.</t>
         </r>
       </text>
     </comment>
@@ -924,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{233926BC-9CBE-4D57-B476-DAADC3613DD7}">
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{3F87F745-1859-447F-B6BD-365D40A5B006}">
       <text>
         <r>
           <rPr>
@@ -944,8 +862,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video estaba en proceso al momento de revisión el 22/06/2022 15H52.
-Al 23/06/2022 habían dos videos, uno no se habría y el otro duraba 00:02:06</t>
+Video dura 00:02:06.</t>
         </r>
       </text>
     </comment>
@@ -954,7 +871,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="131">
   <si>
     <t>CURSO</t>
   </si>
@@ -1425,7 +1342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,8 +1391,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,6 +1433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,7 +1535,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,9 +1638,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="46"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="46"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -1725,6 +1658,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2083,7 +2022,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2171,7 +2110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +2121,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2204,7 +2143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2263,7 +2202,7 @@
   <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
     <filterColumn colId="2">
       <filters>
-        <filter val="03_Miércoles"/>
+        <filter val="05_Viernes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2293,7 +2232,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,44 +2245,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2352,59 +2291,59 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44735.72055150463</v>
-      </c>
-      <c r="P3" s="59"/>
+        <v>44738.49276296296</v>
+      </c>
+      <c r="P3" s="60"/>
     </row>
     <row r="5" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2412,7 +2351,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="12">
@@ -2460,7 +2399,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="12">
         <v>1</v>
       </c>
@@ -2506,7 +2445,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -2552,7 +2491,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -2598,7 +2537,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -2644,7 +2583,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="56">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2692,7 +2631,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2738,7 +2677,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2784,7 +2723,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="6"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -2804,7 +2743,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="6"/>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -2824,7 +2763,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2870,7 +2809,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="6"/>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -2890,7 +2829,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>3</v>
       </c>
       <c r="C18" s="12">
@@ -2938,7 +2877,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -2984,7 +2923,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
@@ -3030,7 +2969,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="12">
         <v>1</v>
       </c>
@@ -3076,7 +3015,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
       <c r="E22" s="12"/>
@@ -3096,7 +3035,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -3142,7 +3081,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="12"/>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -3162,7 +3101,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="56">
         <v>4</v>
       </c>
       <c r="C25" s="34">
@@ -3210,7 +3149,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3256,7 +3195,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3302,7 +3241,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="6"/>
       <c r="D28" s="22"/>
       <c r="E28" s="6"/>
@@ -3322,7 +3261,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3368,7 +3307,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="6"/>
       <c r="D30" s="22"/>
       <c r="E30" s="6"/>
@@ -3388,7 +3327,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3434,7 +3373,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="53">
         <v>5</v>
       </c>
       <c r="C32" s="33">
@@ -3450,17 +3389,27 @@
       <c r="G32" s="33">
         <v>1</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="33">
+        <v>1</v>
+      </c>
       <c r="I32" s="33">
         <v>1</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="J32" s="33">
+        <v>1</v>
+      </c>
+      <c r="K32" s="33">
+        <v>1</v>
+      </c>
       <c r="L32" s="33">
         <v>1</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="M32" s="33">
+        <v>1</v>
+      </c>
+      <c r="N32" s="33">
+        <v>1</v>
+      </c>
       <c r="O32" s="33">
         <v>1</v>
       </c>
@@ -3472,7 +3421,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12">
         <v>5</v>
       </c>
@@ -3486,17 +3435,27 @@
       <c r="G33" s="12">
         <v>5</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="12">
+        <v>5</v>
+      </c>
       <c r="I33" s="12">
         <v>3</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="J33" s="12">
+        <v>5</v>
+      </c>
+      <c r="K33" s="12">
+        <v>5</v>
+      </c>
       <c r="L33" s="12">
         <v>5</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="M33" s="12">
+        <v>5</v>
+      </c>
+      <c r="N33" s="12">
+        <v>5</v>
+      </c>
       <c r="O33" s="12">
         <v>5</v>
       </c>
@@ -3508,7 +3467,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="12">
         <v>1</v>
       </c>
@@ -3522,17 +3481,27 @@
       <c r="G34" s="12">
         <v>1</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
       <c r="I34" s="12">
         <v>1</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="12">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
       <c r="L34" s="12">
         <v>1</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="M34" s="12">
+        <v>1</v>
+      </c>
+      <c r="N34" s="12">
+        <v>1</v>
+      </c>
       <c r="O34" s="12">
         <v>1</v>
       </c>
@@ -3544,19 +3513,19 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="12"/>
       <c r="D35" s="22"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
     </row>
@@ -3564,19 +3533,19 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="12"/>
       <c r="D36" s="22"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
     </row>
@@ -3584,7 +3553,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
@@ -3598,17 +3567,27 @@
       <c r="G37" s="12">
         <v>1</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
       <c r="I37" s="12">
         <v>1</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="J37" s="12">
+        <v>1</v>
+      </c>
+      <c r="K37" s="12">
+        <v>1</v>
+      </c>
       <c r="L37" s="12">
         <v>1</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="M37" s="12">
+        <v>1</v>
+      </c>
+      <c r="N37" s="12">
+        <v>1</v>
+      </c>
       <c r="O37" s="12">
         <v>1</v>
       </c>
@@ -3620,7 +3599,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="12"/>
       <c r="D38" s="22"/>
       <c r="E38" s="13"/>
@@ -3640,7 +3619,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="56">
         <v>6</v>
       </c>
       <c r="C39" s="9"/>
@@ -3662,7 +3641,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="9"/>
       <c r="D40" s="22"/>
       <c r="E40" s="9"/>
@@ -3682,7 +3661,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="9"/>
       <c r="D41" s="22"/>
       <c r="E41" s="9"/>
@@ -3702,7 +3681,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="9"/>
       <c r="D42" s="22"/>
       <c r="E42" s="5"/>
@@ -3722,7 +3701,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="9"/>
       <c r="D43" s="22"/>
       <c r="E43" s="5"/>
@@ -3742,7 +3721,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="9"/>
       <c r="D44" s="22"/>
       <c r="E44" s="5"/>
@@ -3762,7 +3741,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="9"/>
       <c r="D45" s="22"/>
       <c r="E45" s="5"/>
@@ -3782,7 +3761,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="53">
         <v>7</v>
       </c>
       <c r="C46" s="11"/>
@@ -3804,7 +3783,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="13"/>
@@ -3824,7 +3803,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="13"/>
       <c r="D48" s="22"/>
       <c r="E48" s="13"/>
@@ -3844,7 +3823,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="53"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="13"/>
       <c r="D49" s="22"/>
       <c r="E49" s="13"/>
@@ -3864,7 +3843,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="13"/>
@@ -3884,7 +3863,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="53"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="13"/>
@@ -3904,7 +3883,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="13"/>
       <c r="D52" s="22"/>
       <c r="E52" s="13"/>
@@ -3924,7 +3903,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="55">
+      <c r="B53" s="56">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3946,7 +3925,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="5"/>
       <c r="D54" s="22"/>
       <c r="E54" s="5"/>
@@ -3966,7 +3945,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="6"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
@@ -3986,7 +3965,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="6"/>
       <c r="D56" s="21"/>
       <c r="E56" s="5"/>
@@ -4006,7 +3985,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="6"/>
       <c r="D57" s="21"/>
       <c r="E57" s="5"/>
@@ -4026,7 +4005,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="6"/>
       <c r="D58" s="21"/>
       <c r="E58" s="5"/>
@@ -4046,7 +4025,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="6"/>
       <c r="D59" s="21"/>
       <c r="E59" s="6"/>
@@ -4066,7 +4045,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="53">
         <v>9</v>
       </c>
       <c r="C60" s="13"/>
@@ -4088,7 +4067,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="13"/>
       <c r="D61" s="22"/>
       <c r="E61" s="13"/>
@@ -4108,7 +4087,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="13"/>
       <c r="D62" s="22"/>
       <c r="E62" s="13"/>
@@ -4128,7 +4107,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="53"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="13"/>
       <c r="D63" s="23"/>
       <c r="E63" s="10"/>
@@ -4148,7 +4127,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="13"/>
       <c r="D64" s="23"/>
       <c r="E64" s="10"/>
@@ -4168,7 +4147,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="13"/>
       <c r="D65" s="23"/>
       <c r="E65" s="10"/>
@@ -4188,7 +4167,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="23"/>
       <c r="E66" s="10"/>
@@ -4208,7 +4187,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="55">
+      <c r="B67" s="56">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4230,7 +4209,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="5"/>
       <c r="D68" s="22"/>
       <c r="E68" s="5"/>
@@ -4250,7 +4229,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="56"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="5"/>
       <c r="D69" s="22"/>
       <c r="E69" s="5"/>
@@ -4270,7 +4249,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="22"/>
       <c r="E70" s="5"/>
@@ -4290,7 +4269,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="22"/>
       <c r="E71" s="5"/>
@@ -4310,7 +4289,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="22"/>
       <c r="E72" s="5"/>
@@ -4330,7 +4309,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="6"/>
       <c r="D73" s="21"/>
       <c r="E73" s="6"/>
@@ -4350,7 +4329,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="53">
         <v>11</v>
       </c>
       <c r="C74" s="13"/>
@@ -4372,7 +4351,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="13"/>
       <c r="D75" s="22"/>
       <c r="E75" s="13"/>
@@ -4392,7 +4371,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="53"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="13"/>
       <c r="D76" s="22"/>
       <c r="E76" s="13"/>
@@ -4412,7 +4391,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="53"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="13"/>
       <c r="D77" s="22"/>
       <c r="E77" s="13"/>
@@ -4432,7 +4411,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="53"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="10"/>
       <c r="D78" s="23"/>
       <c r="E78" s="10"/>
@@ -4452,7 +4431,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="13"/>
       <c r="D79" s="22"/>
       <c r="E79" s="13"/>
@@ -4472,7 +4451,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="13"/>
       <c r="D80" s="23"/>
       <c r="E80" s="10"/>
@@ -4492,7 +4471,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="55">
+      <c r="B81" s="56">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4514,7 +4493,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="56"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="5"/>
       <c r="D82" s="22"/>
       <c r="E82" s="5"/>
@@ -4534,7 +4513,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="56"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="5"/>
       <c r="D83" s="22"/>
       <c r="E83" s="5"/>
@@ -4554,7 +4533,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="56"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="22"/>
       <c r="E84" s="5"/>
@@ -4574,7 +4553,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="56"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="22"/>
       <c r="E85" s="5"/>
@@ -4594,7 +4573,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="22"/>
       <c r="E86" s="5"/>
@@ -4614,7 +4593,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="5"/>
       <c r="D87" s="22"/>
       <c r="E87" s="5"/>
@@ -4634,7 +4613,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="52">
+      <c r="B88" s="53">
         <v>13</v>
       </c>
       <c r="C88" s="13"/>
@@ -4656,7 +4635,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="13"/>
       <c r="D89" s="22"/>
       <c r="E89" s="13"/>
@@ -4676,7 +4655,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="13"/>
       <c r="D90" s="22"/>
       <c r="E90" s="13"/>
@@ -4696,7 +4675,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="13"/>
       <c r="D91" s="22"/>
       <c r="E91" s="13"/>
@@ -4716,7 +4695,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="53"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="13"/>
       <c r="D92" s="22"/>
       <c r="E92" s="13"/>
@@ -4736,7 +4715,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="53"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="13"/>
       <c r="D93" s="22"/>
       <c r="E93" s="13"/>
@@ -4756,7 +4735,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="13"/>
       <c r="D94" s="23"/>
       <c r="E94" s="10"/>
@@ -4776,7 +4755,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="55">
+      <c r="B95" s="56">
         <v>14</v>
       </c>
       <c r="C95" s="16"/>
@@ -4798,7 +4777,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="56"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="16"/>
       <c r="D96" s="22"/>
       <c r="E96" s="16"/>
@@ -4818,7 +4797,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="56"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="16"/>
       <c r="D97" s="22"/>
       <c r="E97" s="16"/>
@@ -4838,7 +4817,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="56"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="16"/>
       <c r="D98" s="22"/>
       <c r="E98" s="16"/>
@@ -4858,7 +4837,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="56"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="16"/>
       <c r="D99" s="22"/>
       <c r="E99" s="16"/>
@@ -4878,7 +4857,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="56"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="16"/>
       <c r="D100" s="22"/>
       <c r="E100" s="16"/>
@@ -4898,7 +4877,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="16"/>
       <c r="D101" s="22"/>
       <c r="E101" s="16"/>
@@ -4918,7 +4897,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="52">
+      <c r="B102" s="53">
         <v>15</v>
       </c>
       <c r="C102" s="13"/>
@@ -4940,7 +4919,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="13"/>
       <c r="D103" s="22"/>
       <c r="E103" s="13"/>
@@ -4960,7 +4939,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="13"/>
       <c r="D104" s="22"/>
       <c r="E104" s="13"/>
@@ -4980,7 +4959,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="53"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="13"/>
       <c r="D105" s="22"/>
       <c r="E105" s="13"/>
@@ -5000,7 +4979,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="53"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="13"/>
       <c r="D106" s="22"/>
       <c r="E106" s="13"/>
@@ -5020,7 +4999,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="13"/>
       <c r="D107" s="22"/>
       <c r="E107" s="13"/>
@@ -5040,7 +5019,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="13"/>
       <c r="D108" s="22"/>
       <c r="E108" s="13"/>
@@ -5060,7 +5039,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="55">
+      <c r="B109" s="56">
         <v>16</v>
       </c>
       <c r="C109" s="16"/>
@@ -5082,7 +5061,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="56"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="16"/>
       <c r="D110" s="22"/>
       <c r="E110" s="16"/>
@@ -5102,7 +5081,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="56"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="16"/>
       <c r="D111" s="22"/>
       <c r="E111" s="16"/>
@@ -5122,7 +5101,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="56"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="16"/>
       <c r="D112" s="22"/>
       <c r="E112" s="16"/>
@@ -5142,7 +5121,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="56"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="16"/>
       <c r="D113" s="22"/>
       <c r="E113" s="16"/>
@@ -5162,7 +5141,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="56"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="16"/>
       <c r="D114" s="22"/>
       <c r="E114" s="16"/>
@@ -5182,7 +5161,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="16"/>
       <c r="D115" s="22"/>
       <c r="E115" s="16"/>
@@ -5231,14 +5210,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="112.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,7 +5292,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -5324,7 +5303,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -5335,7 +5314,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -5346,7 +5325,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -5357,7 +5336,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -5368,7 +5347,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -5379,7 +5358,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -5390,7 +5369,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -5401,7 +5380,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -5438,11 +5417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A915C6-6362-4FC4-8327-4B7F0C4EA5C4}">
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5455,44 +5434,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5501,11 +5480,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44735.72055150463</v>
-      </c>
-      <c r="P3" s="59"/>
+        <v>44738.49276296296</v>
+      </c>
+      <c r="P3" s="60"/>
     </row>
     <row r="5" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5553,7 +5532,7 @@
       <c r="O5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="41" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5561,7 +5540,7 @@
       <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="61">
         <v>1</v>
       </c>
       <c r="C6" s="18">
@@ -5611,7 +5590,7 @@
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="18">
         <v>1</v>
       </c>
@@ -5659,7 +5638,7 @@
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="18">
         <v>1</v>
       </c>
@@ -5687,10 +5666,10 @@
       <c r="K8" s="19">
         <v>2</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="19">
         <v>2</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="19">
         <v>2</v>
       </c>
       <c r="N8" s="19">
@@ -5707,7 +5686,7 @@
       <c r="A9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="18">
         <v>1</v>
       </c>
@@ -5755,7 +5734,7 @@
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="18">
         <v>1</v>
       </c>
@@ -5803,7 +5782,7 @@
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="18">
         <v>10</v>
       </c>
@@ -5851,7 +5830,7 @@
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
@@ -5873,7 +5852,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="56">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5923,7 +5902,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -5971,7 +5950,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -5987,29 +5966,29 @@
       <c r="G15" s="6">
         <v>2</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>94</v>
+      <c r="H15" s="6">
+        <v>2</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>94</v>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
       </c>
       <c r="N15" s="5">
         <v>2</v>
       </c>
-      <c r="O15" s="14" t="s">
-        <v>92</v>
+      <c r="O15" s="5">
+        <v>1</v>
       </c>
       <c r="P15" s="5">
         <v>2</v>
@@ -6019,7 +5998,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6039,7 +6018,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6087,7 +6066,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6135,7 +6114,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6155,7 +6134,7 @@
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="61">
         <v>3</v>
       </c>
       <c r="C20" s="18">
@@ -6205,7 +6184,7 @@
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="18">
         <v>5</v>
       </c>
@@ -6253,11 +6232,11 @@
       <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="50" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="19">
@@ -6269,11 +6248,11 @@
       <c r="G22" s="19">
         <v>2</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>92</v>
+      <c r="I22" s="19">
+        <v>1</v>
       </c>
       <c r="J22" s="19">
         <v>1</v>
@@ -6281,27 +6260,27 @@
       <c r="K22" s="19">
         <v>1</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>94</v>
+      <c r="M22" s="19">
+        <v>1</v>
       </c>
       <c r="N22" s="19">
         <v>2</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="14" t="s">
-        <v>94</v>
+      <c r="P22" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="18">
         <v>1</v>
       </c>
@@ -6349,7 +6328,7 @@
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="61"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -6369,7 +6348,7 @@
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="18">
         <v>1</v>
       </c>
@@ -6417,7 +6396,7 @@
       <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -6437,7 +6416,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="56">
         <v>4</v>
       </c>
       <c r="C27" s="35">
@@ -6487,7 +6466,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6535,55 +6514,55 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="H29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="I29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="14" t="s">
+      <c r="O29" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>92</v>
+      <c r="P29" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6603,7 +6582,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6627,7 +6606,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6651,7 +6630,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="58"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6690,54 +6669,72 @@
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="60">
-        <v>5</v>
-      </c>
-      <c r="C34" s="49">
-        <v>1</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="49">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="50">
-        <v>1</v>
-      </c>
-      <c r="I34" s="49">
-        <v>1</v>
-      </c>
-      <c r="J34" s="49">
-        <v>1</v>
-      </c>
-      <c r="K34" s="49">
-        <v>1</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="50">
-        <v>1</v>
-      </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="49">
-        <v>1</v>
-      </c>
-      <c r="P34" s="19"/>
+      <c r="B34" s="61">
+        <v>5</v>
+      </c>
+      <c r="C34" s="48">
+        <v>1</v>
+      </c>
+      <c r="D34" s="49">
+        <v>1</v>
+      </c>
+      <c r="E34" s="49">
+        <v>1</v>
+      </c>
+      <c r="F34" s="48">
+        <v>1</v>
+      </c>
+      <c r="G34" s="49">
+        <v>1</v>
+      </c>
+      <c r="H34" s="49">
+        <v>1</v>
+      </c>
+      <c r="I34" s="48">
+        <v>1</v>
+      </c>
+      <c r="J34" s="48">
+        <v>1</v>
+      </c>
+      <c r="K34" s="48">
+        <v>1</v>
+      </c>
+      <c r="L34" s="49">
+        <v>1</v>
+      </c>
+      <c r="M34" s="49">
+        <v>1</v>
+      </c>
+      <c r="N34" s="49">
+        <v>1</v>
+      </c>
+      <c r="O34" s="48">
+        <v>1</v>
+      </c>
+      <c r="P34" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="18">
         <v>6</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="D35" s="19">
+        <v>5</v>
+      </c>
+      <c r="E35" s="19">
+        <v>5</v>
+      </c>
       <c r="F35" s="18">
         <v>4</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19">
+        <v>5</v>
+      </c>
       <c r="H35" s="19">
         <v>5</v>
       </c>
@@ -6750,57 +6747,75 @@
       <c r="K35" s="19">
         <v>5</v>
       </c>
-      <c r="L35" s="19"/>
+      <c r="L35" s="19">
+        <v>5</v>
+      </c>
       <c r="M35" s="19">
         <v>5</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="19">
+        <v>5</v>
+      </c>
       <c r="O35" s="19">
         <v>5</v>
       </c>
-      <c r="P35" s="19"/>
+      <c r="P35" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="61"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="18">
         <v>1</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="15" t="s">
+      <c r="D36" s="19">
+        <v>2</v>
+      </c>
+      <c r="E36" s="19">
+        <v>2</v>
+      </c>
+      <c r="F36" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="19">
+        <v>2</v>
+      </c>
       <c r="H36" s="19">
         <v>2</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
+      <c r="J36" s="19">
+        <v>1</v>
+      </c>
+      <c r="K36" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="19">
-        <v>1</v>
-      </c>
-      <c r="K36" s="14" t="s">
+      <c r="L36" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="14" t="s">
+      <c r="N36" s="19">
+        <v>2</v>
+      </c>
+      <c r="O36" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="P36" s="19"/>
+      <c r="P36" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="61"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -6822,16 +6837,22 @@
       <c r="A38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="61"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="18">
         <v>1</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1</v>
+      </c>
       <c r="F38" s="18">
         <v>1</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
       <c r="H38" s="19">
         <v>1</v>
       </c>
@@ -6844,28 +6865,40 @@
       <c r="K38" s="19">
         <v>1</v>
       </c>
-      <c r="L38" s="19"/>
+      <c r="L38" s="19">
+        <v>1</v>
+      </c>
       <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="N38" s="19">
+        <v>1</v>
+      </c>
       <c r="O38" s="19">
         <v>1</v>
       </c>
-      <c r="P38" s="19"/>
+      <c r="P38" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="61"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
       <c r="F39" s="18">
         <v>1</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="19">
+        <v>1</v>
+      </c>
       <c r="H39" s="19">
         <v>1</v>
       </c>
@@ -6878,21 +6911,27 @@
       <c r="K39" s="19">
         <v>1</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="19">
+        <v>1</v>
+      </c>
       <c r="M39" s="19">
         <v>1</v>
       </c>
-      <c r="N39" s="19"/>
+      <c r="N39" s="19">
+        <v>1</v>
+      </c>
       <c r="O39" s="19">
         <v>1</v>
       </c>
-      <c r="P39" s="19"/>
+      <c r="P39" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="62"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6912,7 +6951,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="55">
+      <c r="B41" s="56">
         <v>6</v>
       </c>
       <c r="C41" s="9"/>
@@ -6934,7 +6973,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -6954,7 +6993,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -6974,7 +7013,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -6994,7 +7033,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7014,7 +7053,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -7034,7 +7073,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7054,7 +7093,7 @@
       <c r="A48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="60">
+      <c r="B48" s="61">
         <v>7</v>
       </c>
       <c r="C48" s="18"/>
@@ -7076,7 +7115,7 @@
       <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="61"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -7096,7 +7135,7 @@
       <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="61"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -7116,7 +7155,7 @@
       <c r="A51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="61"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -7136,7 +7175,7 @@
       <c r="A52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -7156,7 +7195,7 @@
       <c r="A53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="61"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -7176,7 +7215,7 @@
       <c r="A54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="62"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -7196,7 +7235,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="55">
+      <c r="B55" s="56">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7218,7 +7257,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7238,7 +7277,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7258,7 +7297,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7278,7 +7317,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7298,7 +7337,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="56"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7318,7 +7357,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7338,7 +7377,7 @@
       <c r="A62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="60">
+      <c r="B62" s="61">
         <v>9</v>
       </c>
       <c r="C62" s="18"/>
@@ -7360,7 +7399,7 @@
       <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="61"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -7380,7 +7419,7 @@
       <c r="A64" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="61"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -7400,7 +7439,7 @@
       <c r="A65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="61"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -7420,7 +7459,7 @@
       <c r="A66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="61"/>
+      <c r="B66" s="62"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -7440,7 +7479,7 @@
       <c r="A67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="61"/>
+      <c r="B67" s="62"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -7460,7 +7499,7 @@
       <c r="A68" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="62"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -7480,7 +7519,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="55">
+      <c r="B69" s="56">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7502,7 +7541,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7522,7 +7561,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7542,7 +7581,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7562,7 +7601,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7582,7 +7621,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7602,7 +7641,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7622,7 +7661,7 @@
       <c r="A76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="60">
+      <c r="B76" s="61">
         <v>11</v>
       </c>
       <c r="C76" s="18"/>
@@ -7644,7 +7683,7 @@
       <c r="A77" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="61"/>
+      <c r="B77" s="62"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -7664,7 +7703,7 @@
       <c r="A78" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="61"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -7684,7 +7723,7 @@
       <c r="A79" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="61"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -7704,7 +7743,7 @@
       <c r="A80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="61"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -7724,7 +7763,7 @@
       <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="61"/>
+      <c r="B81" s="62"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -7744,7 +7783,7 @@
       <c r="A82" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="62"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -7764,7 +7803,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="55">
+      <c r="B83" s="56">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -7786,7 +7825,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="56"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7806,7 +7845,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="56"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -7826,7 +7865,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -7846,7 +7885,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="56"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -7866,7 +7905,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="56"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -7886,7 +7925,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -7906,7 +7945,7 @@
       <c r="A90" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="60">
+      <c r="B90" s="61">
         <v>13</v>
       </c>
       <c r="C90" s="18"/>
@@ -7928,7 +7967,7 @@
       <c r="A91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="61"/>
+      <c r="B91" s="62"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
@@ -7948,7 +7987,7 @@
       <c r="A92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="61"/>
+      <c r="B92" s="62"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -7968,7 +8007,7 @@
       <c r="A93" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="61"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -7988,7 +8027,7 @@
       <c r="A94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="61"/>
+      <c r="B94" s="62"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -8008,7 +8047,7 @@
       <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="61"/>
+      <c r="B95" s="62"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -8028,7 +8067,7 @@
       <c r="A96" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="62"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -8048,7 +8087,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="55">
+      <c r="B97" s="56">
         <v>14</v>
       </c>
       <c r="C97" s="16"/>
@@ -8070,7 +8109,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="56"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -8090,7 +8129,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="56"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -8110,7 +8149,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="56"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -8130,7 +8169,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="56"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -8150,7 +8189,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="56"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -8170,7 +8209,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="57"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -8190,7 +8229,7 @@
       <c r="A104" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="60">
+      <c r="B104" s="61">
         <v>15</v>
       </c>
       <c r="C104" s="18"/>
@@ -8212,7 +8251,7 @@
       <c r="A105" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="61"/>
+      <c r="B105" s="62"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -8232,7 +8271,7 @@
       <c r="A106" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="61"/>
+      <c r="B106" s="62"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -8252,7 +8291,7 @@
       <c r="A107" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="61"/>
+      <c r="B107" s="62"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -8272,7 +8311,7 @@
       <c r="A108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="61"/>
+      <c r="B108" s="62"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
@@ -8292,7 +8331,7 @@
       <c r="A109" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="61"/>
+      <c r="B109" s="62"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
@@ -8312,7 +8351,7 @@
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="62"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
@@ -8332,7 +8371,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="55">
+      <c r="B111" s="56">
         <v>16</v>
       </c>
       <c r="C111" s="16"/>
@@ -8354,7 +8393,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="56"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -8374,7 +8413,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="56"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -8394,7 +8433,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="56"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -8414,7 +8453,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="56"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -8434,7 +8473,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="56"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -8454,7 +8493,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="57"/>
+      <c r="B117" s="58"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -8502,9 +8541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8560,31 +8599,31 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="L5" s="38" t="s">
@@ -8595,7 +8634,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="33">
@@ -8633,7 +8672,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="12">
         <v>7</v>
       </c>
@@ -8669,7 +8708,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8705,7 +8744,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -8741,7 +8780,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -8777,7 +8816,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -8813,7 +8852,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
@@ -8849,7 +8888,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -8885,7 +8924,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="12">
         <v>1</v>
       </c>
@@ -8921,7 +8960,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="56">
         <v>2</v>
       </c>
       <c r="C15" s="34">
@@ -8959,7 +8998,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -8995,7 +9034,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9031,7 +9070,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9067,7 +9106,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9083,7 +9122,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9119,7 +9158,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9135,7 +9174,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="53">
         <v>3</v>
       </c>
       <c r="C22" s="33">
@@ -9173,7 +9212,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -9209,7 +9248,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="12">
         <v>1</v>
       </c>
@@ -9245,7 +9284,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9261,7 +9300,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9277,7 +9316,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9293,7 +9332,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
@@ -9319,7 +9358,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="56">
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -9357,7 +9396,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9393,7 +9432,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9429,7 +9468,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9445,7 +9484,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9481,7 +9520,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9517,7 +9556,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9533,24 +9572,30 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="53">
         <v>5</v>
       </c>
       <c r="C36" s="33">
         <v>1</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="33">
+        <v>1</v>
+      </c>
       <c r="E36" s="33">
         <v>1</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="33">
+        <v>1</v>
+      </c>
       <c r="G36" s="33">
         <v>1</v>
       </c>
       <c r="H36" s="33">
         <v>1</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="33">
+        <v>1</v>
+      </c>
       <c r="J36" s="33">
         <v>1</v>
       </c>
@@ -9565,7 +9610,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12">
         <v>2</v>
       </c>
@@ -9575,7 +9620,9 @@
       <c r="E37" s="12">
         <v>2</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="12">
+        <v>2</v>
+      </c>
       <c r="G37" s="12">
         <v>2</v>
       </c>
@@ -9599,7 +9646,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12">
         <v>1</v>
       </c>
@@ -9609,7 +9656,9 @@
       <c r="E38" s="12">
         <v>1</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
       <c r="G38" s="12">
         <v>1</v>
       </c>
@@ -9633,7 +9682,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="12">
         <v>1</v>
       </c>
@@ -9643,7 +9692,9 @@
       <c r="E39" s="12">
         <v>1</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
       <c r="G39" s="12">
         <v>1</v>
       </c>
@@ -9667,11 +9718,11 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -9683,7 +9734,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
@@ -9693,7 +9744,9 @@
       <c r="E41" s="12">
         <v>1</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
       <c r="G41" s="12">
         <v>1</v>
       </c>
@@ -9717,7 +9770,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="54"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -9733,7 +9786,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="55">
+      <c r="B43" s="56">
         <v>6</v>
       </c>
       <c r="C43" s="9"/>
@@ -9751,7 +9804,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
@@ -9767,7 +9820,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
@@ -9783,7 +9836,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="9"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -9799,7 +9852,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="9"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -9815,7 +9868,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="9"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -9831,7 +9884,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="9"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -9847,7 +9900,7 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="53">
         <v>7</v>
       </c>
       <c r="C50" s="11"/>
@@ -9865,7 +9918,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="53"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -9881,7 +9934,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="53"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -9897,7 +9950,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="53"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -9913,7 +9966,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -9929,7 +9982,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -9945,7 +9998,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -9961,7 +10014,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="55">
+      <c r="B57" s="56">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -9979,7 +10032,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -9995,7 +10048,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -10011,7 +10064,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="56"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10027,7 +10080,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10043,7 +10096,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10059,7 +10112,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10075,7 +10128,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="53">
         <v>9</v>
       </c>
       <c r="C64" s="13"/>
@@ -10093,7 +10146,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -10109,7 +10162,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="53"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -10125,7 +10178,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="53"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="13"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10141,7 +10194,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="13"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10157,7 +10210,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="13"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10173,7 +10226,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="13"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10189,7 +10242,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="55">
+      <c r="B71" s="56">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10207,7 +10260,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10223,7 +10276,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10239,7 +10292,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10255,7 +10308,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10271,7 +10324,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10287,7 +10340,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10303,7 +10356,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="53">
         <v>11</v>
       </c>
       <c r="C78" s="13"/>
@@ -10321,7 +10374,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -10337,7 +10390,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -10353,7 +10406,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="53"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -10369,7 +10422,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="53"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10385,7 +10438,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -10401,7 +10454,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="54"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="13"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10417,7 +10470,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="55">
+      <c r="B85" s="56">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10435,7 +10488,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10451,7 +10504,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="56"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10467,7 +10520,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="56"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10483,7 +10536,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10499,7 +10552,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="56"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10515,7 +10568,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10531,7 +10584,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="52">
+      <c r="B92" s="53">
         <v>13</v>
       </c>
       <c r="C92" s="13"/>
@@ -10549,7 +10602,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="53"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -10565,7 +10618,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="53"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -10581,7 +10634,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="53"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -10597,7 +10650,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -10613,7 +10666,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="53"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -10629,7 +10682,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="54"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="13"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -10645,7 +10698,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="55">
+      <c r="B99" s="56">
         <v>14</v>
       </c>
       <c r="C99" s="16"/>
@@ -10663,7 +10716,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="56"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -10679,7 +10732,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="56"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -10695,7 +10748,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="56"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -10711,7 +10764,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="56"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -10727,7 +10780,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="56"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -10743,7 +10796,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -10759,7 +10812,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="52">
+      <c r="B106" s="53">
         <v>15</v>
       </c>
       <c r="C106" s="13"/>
@@ -10777,7 +10830,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -10793,7 +10846,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="53"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -10809,7 +10862,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="53"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -10825,7 +10878,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -10841,7 +10894,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="53"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -10857,7 +10910,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="54"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -10873,7 +10926,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="55">
+      <c r="B113" s="56">
         <v>16</v>
       </c>
       <c r="C113" s="16"/>
@@ -10891,7 +10944,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="56"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -10907,7 +10960,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="56"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -10923,7 +10976,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="56"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -10939,7 +10992,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="56"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -10955,7 +11008,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="56"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -10971,7 +11024,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -12068,7 +12121,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>100</v>
       </c>
     </row>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B6B6DA-4E0A-4F4D-B2F2-6B6316E9A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8E2C3-3114-4FE3-A499-24CA5F925EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1666,8 +1666,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1678,14 +1684,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1700,6 +1700,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2022,7 +2025,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2202,7 +2205,7 @@
   <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
     <filterColumn colId="2">
       <filters>
-        <filter val="05_Viernes"/>
+        <filter val="01_Lunes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2231,8 +2234,8 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,44 +2248,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2293,7 +2296,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44738.49276296296</v>
+        <v>44740.711065277777</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -2351,7 +2354,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="12">
@@ -2399,7 +2402,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="12">
         <v>1</v>
       </c>
@@ -2445,7 +2448,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -2537,7 +2540,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -2583,7 +2586,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="52">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2631,7 +2634,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2677,7 +2680,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2723,7 +2726,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="6"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -2743,7 +2746,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6"/>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -2763,7 +2766,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2809,7 +2812,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="6"/>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -2829,7 +2832,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="55">
         <v>3</v>
       </c>
       <c r="C18" s="12">
@@ -2877,7 +2880,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -2923,7 +2926,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
@@ -2969,7 +2972,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="12">
         <v>1</v>
       </c>
@@ -3015,7 +3018,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
       <c r="E22" s="12"/>
@@ -3035,7 +3038,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -3081,7 +3084,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="12"/>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -3101,7 +3104,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="52">
         <v>4</v>
       </c>
       <c r="C25" s="34">
@@ -3149,7 +3152,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3195,7 +3198,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3241,7 +3244,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="6"/>
       <c r="D28" s="22"/>
       <c r="E28" s="6"/>
@@ -3261,7 +3264,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3307,7 +3310,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="6"/>
       <c r="D30" s="22"/>
       <c r="E30" s="6"/>
@@ -3327,7 +3330,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3373,7 +3376,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="55">
         <v>5</v>
       </c>
       <c r="C32" s="33">
@@ -3421,7 +3424,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12">
         <v>5</v>
       </c>
@@ -3467,7 +3470,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="12">
         <v>1</v>
       </c>
@@ -3513,7 +3516,7 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="12"/>
       <c r="D35" s="22"/>
       <c r="E35" s="12"/>
@@ -3533,7 +3536,7 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="12"/>
       <c r="D36" s="22"/>
       <c r="E36" s="12"/>
@@ -3553,7 +3556,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
@@ -3599,7 +3602,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="12"/>
       <c r="D38" s="22"/>
       <c r="E38" s="13"/>
@@ -3619,12 +3622,14 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="52">
         <v>6</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="64">
+        <v>1</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3635,16 +3640,20 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="16"/>
+      <c r="P39" s="64">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9"/>
       <c r="D40" s="22"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <v>6</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3655,16 +3664,20 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="P40" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="9"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3675,13 +3688,15 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="16"/>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="9"/>
       <c r="D42" s="22"/>
       <c r="E42" s="5"/>
@@ -3701,7 +3716,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="9"/>
       <c r="D43" s="22"/>
       <c r="E43" s="5"/>
@@ -3721,10 +3736,12 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="9"/>
       <c r="D44" s="22"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3735,13 +3752,15 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="P44" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="9"/>
       <c r="D45" s="22"/>
       <c r="E45" s="5"/>
@@ -3761,7 +3780,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="55">
         <v>7</v>
       </c>
       <c r="C46" s="11"/>
@@ -3783,7 +3802,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="13"/>
@@ -3803,7 +3822,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="13"/>
       <c r="D48" s="22"/>
       <c r="E48" s="13"/>
@@ -3823,7 +3842,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="13"/>
       <c r="D49" s="22"/>
       <c r="E49" s="13"/>
@@ -3843,7 +3862,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="54"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="13"/>
@@ -3863,7 +3882,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="13"/>
@@ -3883,7 +3902,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="13"/>
       <c r="D52" s="22"/>
       <c r="E52" s="13"/>
@@ -3903,7 +3922,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="52">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3925,7 +3944,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="5"/>
       <c r="D54" s="22"/>
       <c r="E54" s="5"/>
@@ -3945,7 +3964,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="6"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
@@ -3965,7 +3984,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="6"/>
       <c r="D56" s="21"/>
       <c r="E56" s="5"/>
@@ -3985,7 +4004,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="6"/>
       <c r="D57" s="21"/>
       <c r="E57" s="5"/>
@@ -4005,7 +4024,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="6"/>
       <c r="D58" s="21"/>
       <c r="E58" s="5"/>
@@ -4025,7 +4044,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="6"/>
       <c r="D59" s="21"/>
       <c r="E59" s="6"/>
@@ -4045,7 +4064,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="55">
         <v>9</v>
       </c>
       <c r="C60" s="13"/>
@@ -4067,7 +4086,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="13"/>
       <c r="D61" s="22"/>
       <c r="E61" s="13"/>
@@ -4087,7 +4106,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="54"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="13"/>
       <c r="D62" s="22"/>
       <c r="E62" s="13"/>
@@ -4107,7 +4126,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="13"/>
       <c r="D63" s="23"/>
       <c r="E63" s="10"/>
@@ -4127,7 +4146,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="13"/>
       <c r="D64" s="23"/>
       <c r="E64" s="10"/>
@@ -4147,7 +4166,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="13"/>
       <c r="D65" s="23"/>
       <c r="E65" s="10"/>
@@ -4167,7 +4186,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="23"/>
       <c r="E66" s="10"/>
@@ -4187,7 +4206,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="52">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4209,7 +4228,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="5"/>
       <c r="D68" s="22"/>
       <c r="E68" s="5"/>
@@ -4229,7 +4248,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="57"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="5"/>
       <c r="D69" s="22"/>
       <c r="E69" s="5"/>
@@ -4249,7 +4268,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="5"/>
       <c r="D70" s="22"/>
       <c r="E70" s="5"/>
@@ -4269,7 +4288,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="57"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="5"/>
       <c r="D71" s="22"/>
       <c r="E71" s="5"/>
@@ -4289,7 +4308,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="22"/>
       <c r="E72" s="5"/>
@@ -4309,7 +4328,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="58"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="6"/>
       <c r="D73" s="21"/>
       <c r="E73" s="6"/>
@@ -4329,7 +4348,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="55">
         <v>11</v>
       </c>
       <c r="C74" s="13"/>
@@ -4351,7 +4370,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="13"/>
       <c r="D75" s="22"/>
       <c r="E75" s="13"/>
@@ -4371,7 +4390,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="54"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="13"/>
       <c r="D76" s="22"/>
       <c r="E76" s="13"/>
@@ -4391,7 +4410,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="13"/>
       <c r="D77" s="22"/>
       <c r="E77" s="13"/>
@@ -4411,7 +4430,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="54"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="10"/>
       <c r="D78" s="23"/>
       <c r="E78" s="10"/>
@@ -4431,7 +4450,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="13"/>
       <c r="D79" s="22"/>
       <c r="E79" s="13"/>
@@ -4451,7 +4470,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="13"/>
       <c r="D80" s="23"/>
       <c r="E80" s="10"/>
@@ -4471,7 +4490,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="56">
+      <c r="B81" s="52">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4493,7 +4512,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="57"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="5"/>
       <c r="D82" s="22"/>
       <c r="E82" s="5"/>
@@ -4513,7 +4532,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="57"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="5"/>
       <c r="D83" s="22"/>
       <c r="E83" s="5"/>
@@ -4533,7 +4552,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="5"/>
       <c r="D84" s="22"/>
       <c r="E84" s="5"/>
@@ -4553,7 +4572,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="57"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="5"/>
       <c r="D85" s="22"/>
       <c r="E85" s="5"/>
@@ -4573,7 +4592,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="22"/>
       <c r="E86" s="5"/>
@@ -4593,7 +4612,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="58"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="5"/>
       <c r="D87" s="22"/>
       <c r="E87" s="5"/>
@@ -4613,7 +4632,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="53">
+      <c r="B88" s="55">
         <v>13</v>
       </c>
       <c r="C88" s="13"/>
@@ -4635,7 +4654,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="56"/>
       <c r="C89" s="13"/>
       <c r="D89" s="22"/>
       <c r="E89" s="13"/>
@@ -4655,7 +4674,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="13"/>
       <c r="D90" s="22"/>
       <c r="E90" s="13"/>
@@ -4675,7 +4694,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="13"/>
       <c r="D91" s="22"/>
       <c r="E91" s="13"/>
@@ -4695,7 +4714,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="54"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="13"/>
       <c r="D92" s="22"/>
       <c r="E92" s="13"/>
@@ -4715,7 +4734,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="13"/>
       <c r="D93" s="22"/>
       <c r="E93" s="13"/>
@@ -4735,7 +4754,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="55"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="13"/>
       <c r="D94" s="23"/>
       <c r="E94" s="10"/>
@@ -4755,7 +4774,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="52">
         <v>14</v>
       </c>
       <c r="C95" s="16"/>
@@ -4777,7 +4796,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="57"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="16"/>
       <c r="D96" s="22"/>
       <c r="E96" s="16"/>
@@ -4797,7 +4816,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="57"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="16"/>
       <c r="D97" s="22"/>
       <c r="E97" s="16"/>
@@ -4817,7 +4836,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="16"/>
       <c r="D98" s="22"/>
       <c r="E98" s="16"/>
@@ -4837,7 +4856,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="57"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="16"/>
       <c r="D99" s="22"/>
       <c r="E99" s="16"/>
@@ -4857,7 +4876,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="16"/>
       <c r="D100" s="22"/>
       <c r="E100" s="16"/>
@@ -4877,7 +4896,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="58"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="16"/>
       <c r="D101" s="22"/>
       <c r="E101" s="16"/>
@@ -4897,7 +4916,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="55">
         <v>15</v>
       </c>
       <c r="C102" s="13"/>
@@ -4919,7 +4938,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="13"/>
       <c r="D103" s="22"/>
       <c r="E103" s="13"/>
@@ -4939,7 +4958,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="54"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="13"/>
       <c r="D104" s="22"/>
       <c r="E104" s="13"/>
@@ -4959,7 +4978,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="13"/>
       <c r="D105" s="22"/>
       <c r="E105" s="13"/>
@@ -4979,7 +4998,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="54"/>
+      <c r="B106" s="56"/>
       <c r="C106" s="13"/>
       <c r="D106" s="22"/>
       <c r="E106" s="13"/>
@@ -4999,7 +5018,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="13"/>
       <c r="D107" s="22"/>
       <c r="E107" s="13"/>
@@ -5019,7 +5038,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="55"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="13"/>
       <c r="D108" s="22"/>
       <c r="E108" s="13"/>
@@ -5039,7 +5058,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="56">
+      <c r="B109" s="52">
         <v>16</v>
       </c>
       <c r="C109" s="16"/>
@@ -5061,7 +5080,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="57"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="16"/>
       <c r="D110" s="22"/>
       <c r="E110" s="16"/>
@@ -5081,7 +5100,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="57"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="16"/>
       <c r="D111" s="22"/>
       <c r="E111" s="16"/>
@@ -5101,7 +5120,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="16"/>
       <c r="D112" s="22"/>
       <c r="E112" s="16"/>
@@ -5121,7 +5140,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="57"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="16"/>
       <c r="D113" s="22"/>
       <c r="E113" s="16"/>
@@ -5141,7 +5160,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="16"/>
       <c r="D114" s="22"/>
       <c r="E114" s="16"/>
@@ -5161,7 +5180,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="58"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="16"/>
       <c r="D115" s="22"/>
       <c r="E115" s="16"/>
@@ -5179,6 +5198,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5187,17 +5217,6 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5207,10 +5226,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5267,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
@@ -5258,7 +5278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -5269,7 +5289,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
@@ -5280,7 +5300,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
@@ -5291,7 +5311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>49</v>
       </c>
@@ -5302,7 +5322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>50</v>
       </c>
@@ -5335,7 +5355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>53</v>
       </c>
@@ -5346,7 +5366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>54</v>
       </c>
@@ -5357,7 +5377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>55</v>
       </c>
@@ -5368,7 +5388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>56</v>
       </c>
@@ -5379,7 +5399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>57</v>
       </c>
@@ -5391,7 +5411,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}"/>
+  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="01_Lunes"/>
+        <filter val="01_Lunes &amp; Miércoles"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{DD95A364-B1CC-4080-9273-D870CFBF8027}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{AFF5CC48-0E1B-447C-A9B8-DC1E941AE79B}"/>
@@ -5418,7 +5445,7 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
@@ -5434,44 +5461,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5482,7 +5509,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44738.49276296296</v>
+        <v>44740.711065277777</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -5852,7 +5879,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="52">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5902,7 +5929,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -5950,7 +5977,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -5998,7 +6025,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6018,7 +6045,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6066,7 +6093,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6114,7 +6141,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6416,7 +6443,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="52">
         <v>4</v>
       </c>
       <c r="C27" s="35">
@@ -6466,7 +6493,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6514,7 +6541,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -6562,7 +6589,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6582,7 +6609,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6606,7 +6633,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6630,7 +6657,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="54"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6951,18 +6978,24 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="52">
         <v>6</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="64">
+        <v>1</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="J41" s="64">
+        <v>1</v>
+      </c>
+      <c r="K41" s="64">
+        <v>1</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -6973,16 +7006,22 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="J42" s="9">
+        <v>5</v>
+      </c>
+      <c r="K42" s="9">
+        <v>5</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -6993,16 +7032,22 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="J43" s="9">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -7013,16 +7058,22 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -7033,7 +7084,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7053,16 +7104,22 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="5"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -7073,7 +7130,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="58"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7235,7 +7292,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="52">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7257,7 +7314,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7277,7 +7334,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7297,7 +7354,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7317,7 +7374,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7337,7 +7394,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7357,7 +7414,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="58"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7519,7 +7576,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="52">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7541,7 +7598,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7561,7 +7618,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="57"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7581,7 +7638,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7601,7 +7658,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7621,7 +7678,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7641,7 +7698,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="58"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7803,7 +7860,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="52">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -7825,7 +7882,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7845,7 +7902,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="57"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -7865,7 +7922,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -7885,7 +7942,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -7905,7 +7962,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -7925,7 +7982,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="58"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8087,7 +8144,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="56">
+      <c r="B97" s="52">
         <v>14</v>
       </c>
       <c r="C97" s="16"/>
@@ -8109,7 +8166,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -8129,7 +8186,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="57"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -8149,7 +8206,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -8169,7 +8226,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -8189,7 +8246,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="57"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -8209,7 +8266,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="58"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -8371,7 +8428,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="56">
+      <c r="B111" s="52">
         <v>16</v>
       </c>
       <c r="C111" s="16"/>
@@ -8393,7 +8450,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -8413,7 +8470,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="57"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -8433,7 +8490,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -8453,7 +8510,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -8473,7 +8530,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="57"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -8493,7 +8550,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="58"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -8511,6 +8568,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8519,17 +8587,6 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8542,8 +8599,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
+      <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8634,7 +8691,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="33">
@@ -8672,7 +8729,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="12">
         <v>7</v>
       </c>
@@ -8708,7 +8765,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8744,7 +8801,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -8780,7 +8837,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -8816,7 +8873,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -8852,7 +8909,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
@@ -8888,7 +8945,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -8924,7 +8981,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="12">
         <v>1</v>
       </c>
@@ -8960,7 +9017,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="52">
         <v>2</v>
       </c>
       <c r="C15" s="34">
@@ -8998,7 +9055,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -9034,7 +9091,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9070,7 +9127,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9106,7 +9163,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9122,7 +9179,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9158,7 +9215,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9174,7 +9231,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="55">
         <v>3</v>
       </c>
       <c r="C22" s="33">
@@ -9212,7 +9269,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -9248,7 +9305,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="12">
         <v>1</v>
       </c>
@@ -9284,7 +9341,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9300,7 +9357,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9316,7 +9373,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9332,7 +9389,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
@@ -9358,7 +9415,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="52">
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -9396,7 +9453,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9432,7 +9489,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9468,7 +9525,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9484,7 +9541,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9520,7 +9577,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="57"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9556,7 +9613,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9572,7 +9629,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="55">
         <v>5</v>
       </c>
       <c r="C36" s="33">
@@ -9610,7 +9667,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="12">
         <v>2</v>
       </c>
@@ -9646,7 +9703,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12">
         <v>1</v>
       </c>
@@ -9682,7 +9739,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="12">
         <v>1</v>
       </c>
@@ -9718,7 +9775,7 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -9734,7 +9791,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
@@ -9770,7 +9827,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -9786,121 +9843,161 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="52">
         <v>6</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="64">
+        <v>1</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="64">
+        <v>1</v>
+      </c>
+      <c r="H43" s="64">
+        <v>1</v>
+      </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="J43" s="64">
+        <v>1</v>
+      </c>
+      <c r="K43" s="64">
+        <v>1</v>
+      </c>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="J44" s="9">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="J45" s="9">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="9"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="9"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="9"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1</v>
+      </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="J49" s="9">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9">
+        <v>1</v>
+      </c>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="55">
         <v>7</v>
       </c>
       <c r="C50" s="11"/>
@@ -9918,7 +10015,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -9934,7 +10031,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -9950,7 +10047,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -9966,7 +10063,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -9982,7 +10079,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -9998,7 +10095,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -10014,7 +10111,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="52">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -10032,7 +10129,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -10048,7 +10145,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -10064,7 +10161,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10080,7 +10177,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10096,7 +10193,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="57"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10112,7 +10209,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10128,7 +10225,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="55">
         <v>9</v>
       </c>
       <c r="C64" s="13"/>
@@ -10146,7 +10243,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -10162,7 +10259,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -10178,7 +10275,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="54"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="13"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10194,7 +10291,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="54"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="13"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10210,7 +10307,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="54"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="13"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10226,7 +10323,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="55"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="13"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10242,7 +10339,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="52">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10260,7 +10357,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10276,7 +10373,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10292,7 +10389,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10308,7 +10405,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10324,7 +10421,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="57"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10340,7 +10437,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10356,7 +10453,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="55">
         <v>11</v>
       </c>
       <c r="C78" s="13"/>
@@ -10374,7 +10471,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -10390,7 +10487,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -10406,7 +10503,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="54"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -10422,7 +10519,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="54"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10438,7 +10535,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="54"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -10454,7 +10551,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="55"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="13"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10470,7 +10567,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="52">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10488,7 +10585,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10504,7 +10601,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10520,7 +10617,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10536,7 +10633,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10552,7 +10649,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="57"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10568,7 +10665,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="58"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10584,7 +10681,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="53">
+      <c r="B92" s="55">
         <v>13</v>
       </c>
       <c r="C92" s="13"/>
@@ -10602,7 +10699,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -10618,7 +10715,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -10634,7 +10731,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="54"/>
+      <c r="B95" s="56"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -10650,7 +10747,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="54"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -10666,7 +10763,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="54"/>
+      <c r="B97" s="56"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -10682,7 +10779,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="55"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="13"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -10698,7 +10795,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="56">
+      <c r="B99" s="52">
         <v>14</v>
       </c>
       <c r="C99" s="16"/>
@@ -10716,7 +10813,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -10732,7 +10829,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -10748,7 +10845,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="57"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -10764,7 +10861,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="57"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -10780,7 +10877,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="57"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -10796,7 +10893,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="58"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -10812,7 +10909,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="55">
         <v>15</v>
       </c>
       <c r="C106" s="13"/>
@@ -10830,7 +10927,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -10846,7 +10943,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -10862,7 +10959,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="56"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -10878,7 +10975,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -10894,7 +10991,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="54"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -10910,7 +11007,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="55"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -10926,7 +11023,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="56">
+      <c r="B113" s="52">
         <v>16</v>
       </c>
       <c r="C113" s="16"/>
@@ -10944,7 +11041,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -10960,7 +11057,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -10976,7 +11073,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="57"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -10992,7 +11089,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="57"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -11008,7 +11105,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="57"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -11024,7 +11121,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="58"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8E2C3-3114-4FE3-A499-24CA5F925EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E552C80-F2A7-4DAB-BFEF-AB7B2A137A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -285,6 +285,30 @@
           </rPr>
           <t xml:space="preserve">
 Es el video de 4B SEG IND.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{5A9CCA24-6038-4BF0-B7D6-298B4065ADA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Video corresponde a 4B Agron.</t>
         </r>
       </text>
     </comment>
@@ -871,7 +895,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="131">
   <si>
     <t>CURSO</t>
   </si>
@@ -1535,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1666,14 +1690,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1684,8 +1705,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,7 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2235,7 +2262,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,44 +2275,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2294,11 +2321,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="60">
         <f ca="1">NOW()</f>
-        <v>44740.711065277777</v>
-      </c>
-      <c r="P3" s="60"/>
+        <v>44741.873942361111</v>
+      </c>
+      <c r="P3" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2354,7 +2381,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="12">
@@ -2402,7 +2429,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="12">
         <v>1</v>
       </c>
@@ -2448,7 +2475,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -2494,7 +2521,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -2540,7 +2567,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -2586,7 +2613,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="57">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2634,7 +2661,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2680,7 +2707,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2726,7 +2753,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="6"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -2746,7 +2773,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="6"/>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -2766,7 +2793,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2812,7 +2839,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="6"/>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -2832,7 +2859,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="54">
         <v>3</v>
       </c>
       <c r="C18" s="12">
@@ -2880,7 +2907,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -2926,7 +2953,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
@@ -2972,7 +2999,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="12">
         <v>1</v>
       </c>
@@ -3018,7 +3045,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="56"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
       <c r="E22" s="12"/>
@@ -3038,7 +3065,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -3084,7 +3111,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="12"/>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
@@ -3104,7 +3131,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="57">
         <v>4</v>
       </c>
       <c r="C25" s="34">
@@ -3152,7 +3179,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3198,7 +3225,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3244,7 +3271,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="6"/>
       <c r="D28" s="22"/>
       <c r="E28" s="6"/>
@@ -3264,7 +3291,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3310,7 +3337,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="6"/>
       <c r="D30" s="22"/>
       <c r="E30" s="6"/>
@@ -3330,7 +3357,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3376,7 +3403,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="54">
         <v>5</v>
       </c>
       <c r="C32" s="33">
@@ -3424,7 +3451,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="12">
         <v>5</v>
       </c>
@@ -3470,7 +3497,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="12">
         <v>1</v>
       </c>
@@ -3516,7 +3543,7 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="12"/>
       <c r="D35" s="22"/>
       <c r="E35" s="12"/>
@@ -3536,7 +3563,7 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="56"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="12"/>
       <c r="D36" s="22"/>
       <c r="E36" s="12"/>
@@ -3556,7 +3583,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
@@ -3602,7 +3629,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="22"/>
       <c r="E38" s="13"/>
@@ -3622,15 +3649,19 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="57">
         <v>6</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="52">
+        <v>1</v>
+      </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="64">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5"/>
+      <c r="E39" s="52">
+        <v>1</v>
+      </c>
+      <c r="F39" s="52">
+        <v>1</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -3639,8 +3670,10 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="64">
+      <c r="O39" s="52">
+        <v>1</v>
+      </c>
+      <c r="P39" s="52">
         <v>1</v>
       </c>
     </row>
@@ -3648,13 +3681,17 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="9">
+        <v>6</v>
+      </c>
       <c r="D40" s="22"/>
       <c r="E40" s="9">
         <v>6</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="9">
+        <v>6</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -3663,7 +3700,9 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
+      <c r="O40" s="9">
+        <v>6</v>
+      </c>
       <c r="P40" s="9">
         <v>6</v>
       </c>
@@ -3672,13 +3711,17 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
       <c r="D41" s="22"/>
       <c r="E41" s="9">
         <v>1</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -3687,7 +3730,9 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+      <c r="O41" s="65" t="s">
+        <v>94</v>
+      </c>
       <c r="P41" s="9">
         <v>1</v>
       </c>
@@ -3696,8 +3741,8 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="22"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3716,8 +3761,8 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="22"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3736,13 +3781,17 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
       <c r="D44" s="22"/>
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -3751,7 +3800,9 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5">
+        <v>1</v>
+      </c>
       <c r="P44" s="5">
         <v>1</v>
       </c>
@@ -3760,7 +3811,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="9"/>
       <c r="D45" s="22"/>
       <c r="E45" s="5"/>
@@ -3780,7 +3831,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="54">
         <v>7</v>
       </c>
       <c r="C46" s="11"/>
@@ -3802,7 +3853,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="13"/>
       <c r="D47" s="22"/>
       <c r="E47" s="13"/>
@@ -3822,7 +3873,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="13"/>
       <c r="D48" s="22"/>
       <c r="E48" s="13"/>
@@ -3842,7 +3893,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="56"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="13"/>
       <c r="D49" s="22"/>
       <c r="E49" s="13"/>
@@ -3862,7 +3913,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="56"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="13"/>
       <c r="D50" s="22"/>
       <c r="E50" s="13"/>
@@ -3882,7 +3933,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="22"/>
       <c r="E51" s="13"/>
@@ -3902,7 +3953,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="13"/>
       <c r="D52" s="22"/>
       <c r="E52" s="13"/>
@@ -3922,7 +3973,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="57">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3944,7 +3995,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="5"/>
       <c r="D54" s="22"/>
       <c r="E54" s="5"/>
@@ -3964,7 +4015,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="6"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
@@ -3984,7 +4035,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="6"/>
       <c r="D56" s="21"/>
       <c r="E56" s="5"/>
@@ -4004,7 +4055,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="6"/>
       <c r="D57" s="21"/>
       <c r="E57" s="5"/>
@@ -4024,7 +4075,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="6"/>
       <c r="D58" s="21"/>
       <c r="E58" s="5"/>
@@ -4044,7 +4095,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="54"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="6"/>
       <c r="D59" s="21"/>
       <c r="E59" s="6"/>
@@ -4064,7 +4115,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="54">
         <v>9</v>
       </c>
       <c r="C60" s="13"/>
@@ -4086,7 +4137,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="22"/>
       <c r="E61" s="13"/>
@@ -4106,7 +4157,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="13"/>
       <c r="D62" s="22"/>
       <c r="E62" s="13"/>
@@ -4126,7 +4177,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="13"/>
       <c r="D63" s="23"/>
       <c r="E63" s="10"/>
@@ -4146,7 +4197,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="13"/>
       <c r="D64" s="23"/>
       <c r="E64" s="10"/>
@@ -4166,7 +4217,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="13"/>
       <c r="D65" s="23"/>
       <c r="E65" s="10"/>
@@ -4186,7 +4237,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="57"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="13"/>
       <c r="D66" s="23"/>
       <c r="E66" s="10"/>
@@ -4206,7 +4257,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="57">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4228,7 +4279,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="5"/>
       <c r="D68" s="22"/>
       <c r="E68" s="5"/>
@@ -4248,7 +4299,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="5"/>
       <c r="D69" s="22"/>
       <c r="E69" s="5"/>
@@ -4268,7 +4319,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="5"/>
       <c r="D70" s="22"/>
       <c r="E70" s="5"/>
@@ -4288,7 +4339,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="5"/>
       <c r="D71" s="22"/>
       <c r="E71" s="5"/>
@@ -4308,7 +4359,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="5"/>
       <c r="D72" s="22"/>
       <c r="E72" s="5"/>
@@ -4328,7 +4379,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="54"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="6"/>
       <c r="D73" s="21"/>
       <c r="E73" s="6"/>
@@ -4348,7 +4399,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="55">
+      <c r="B74" s="54">
         <v>11</v>
       </c>
       <c r="C74" s="13"/>
@@ -4370,7 +4421,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="13"/>
       <c r="D75" s="22"/>
       <c r="E75" s="13"/>
@@ -4390,7 +4441,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="22"/>
       <c r="E76" s="13"/>
@@ -4410,7 +4461,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="56"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="13"/>
       <c r="D77" s="22"/>
       <c r="E77" s="13"/>
@@ -4430,7 +4481,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="56"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="10"/>
       <c r="D78" s="23"/>
       <c r="E78" s="10"/>
@@ -4450,7 +4501,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="13"/>
       <c r="D79" s="22"/>
       <c r="E79" s="13"/>
@@ -4470,7 +4521,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="57"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="13"/>
       <c r="D80" s="23"/>
       <c r="E80" s="10"/>
@@ -4490,7 +4541,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="57">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4512,7 +4563,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="53"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="5"/>
       <c r="D82" s="22"/>
       <c r="E82" s="5"/>
@@ -4532,7 +4583,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="5"/>
       <c r="D83" s="22"/>
       <c r="E83" s="5"/>
@@ -4552,7 +4603,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="5"/>
       <c r="D84" s="22"/>
       <c r="E84" s="5"/>
@@ -4572,7 +4623,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="5"/>
       <c r="D85" s="22"/>
       <c r="E85" s="5"/>
@@ -4592,7 +4643,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="5"/>
       <c r="D86" s="22"/>
       <c r="E86" s="5"/>
@@ -4612,7 +4663,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="59"/>
       <c r="C87" s="5"/>
       <c r="D87" s="22"/>
       <c r="E87" s="5"/>
@@ -4632,7 +4683,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="55">
+      <c r="B88" s="54">
         <v>13</v>
       </c>
       <c r="C88" s="13"/>
@@ -4654,7 +4705,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="13"/>
       <c r="D89" s="22"/>
       <c r="E89" s="13"/>
@@ -4674,7 +4725,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="56"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="13"/>
       <c r="D90" s="22"/>
       <c r="E90" s="13"/>
@@ -4694,7 +4745,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="56"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="13"/>
       <c r="D91" s="22"/>
       <c r="E91" s="13"/>
@@ -4714,7 +4765,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="56"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="13"/>
       <c r="D92" s="22"/>
       <c r="E92" s="13"/>
@@ -4734,7 +4785,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="13"/>
       <c r="D93" s="22"/>
       <c r="E93" s="13"/>
@@ -4754,7 +4805,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="57"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="13"/>
       <c r="D94" s="23"/>
       <c r="E94" s="10"/>
@@ -4774,7 +4825,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B95" s="57">
         <v>14</v>
       </c>
       <c r="C95" s="16"/>
@@ -4796,7 +4847,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="16"/>
       <c r="D96" s="22"/>
       <c r="E96" s="16"/>
@@ -4816,7 +4867,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="53"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="16"/>
       <c r="D97" s="22"/>
       <c r="E97" s="16"/>
@@ -4836,7 +4887,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="58"/>
       <c r="C98" s="16"/>
       <c r="D98" s="22"/>
       <c r="E98" s="16"/>
@@ -4856,7 +4907,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="16"/>
       <c r="D99" s="22"/>
       <c r="E99" s="16"/>
@@ -4876,7 +4927,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="16"/>
       <c r="D100" s="22"/>
       <c r="E100" s="16"/>
@@ -4896,7 +4947,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="54"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="16"/>
       <c r="D101" s="22"/>
       <c r="E101" s="16"/>
@@ -4916,7 +4967,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="55">
+      <c r="B102" s="54">
         <v>15</v>
       </c>
       <c r="C102" s="13"/>
@@ -4938,7 +4989,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="56"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="13"/>
       <c r="D103" s="22"/>
       <c r="E103" s="13"/>
@@ -4958,7 +5009,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="56"/>
+      <c r="B104" s="55"/>
       <c r="C104" s="13"/>
       <c r="D104" s="22"/>
       <c r="E104" s="13"/>
@@ -4978,7 +5029,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="56"/>
+      <c r="B105" s="55"/>
       <c r="C105" s="13"/>
       <c r="D105" s="22"/>
       <c r="E105" s="13"/>
@@ -4998,7 +5049,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="56"/>
+      <c r="B106" s="55"/>
       <c r="C106" s="13"/>
       <c r="D106" s="22"/>
       <c r="E106" s="13"/>
@@ -5018,7 +5069,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="56"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="13"/>
       <c r="D107" s="22"/>
       <c r="E107" s="13"/>
@@ -5038,7 +5089,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="57"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="13"/>
       <c r="D108" s="22"/>
       <c r="E108" s="13"/>
@@ -5058,7 +5109,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="52">
+      <c r="B109" s="57">
         <v>16</v>
       </c>
       <c r="C109" s="16"/>
@@ -5080,7 +5131,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="16"/>
       <c r="D110" s="22"/>
       <c r="E110" s="16"/>
@@ -5100,7 +5151,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="53"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="16"/>
       <c r="D111" s="22"/>
       <c r="E111" s="16"/>
@@ -5120,7 +5171,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="16"/>
       <c r="D112" s="22"/>
       <c r="E112" s="16"/>
@@ -5140,7 +5191,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="16"/>
       <c r="D113" s="22"/>
       <c r="E113" s="16"/>
@@ -5160,7 +5211,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="16"/>
       <c r="D114" s="22"/>
       <c r="E114" s="16"/>
@@ -5180,7 +5231,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="54"/>
+      <c r="B115" s="59"/>
       <c r="C115" s="16"/>
       <c r="D115" s="22"/>
       <c r="E115" s="16"/>
@@ -5198,17 +5249,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5217,6 +5257,17 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5448,7 +5499,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,44 +5512,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5507,11 +5558,11 @@
       <c r="N3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="60">
         <f ca="1">NOW()</f>
-        <v>44740.711065277777</v>
-      </c>
-      <c r="P3" s="60"/>
+        <v>44741.873942361111</v>
+      </c>
+      <c r="P3" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5567,7 +5618,7 @@
       <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="62">
         <v>1</v>
       </c>
       <c r="C6" s="18">
@@ -5617,7 +5668,7 @@
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="18">
         <v>1</v>
       </c>
@@ -5665,7 +5716,7 @@
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="18">
         <v>1</v>
       </c>
@@ -5713,7 +5764,7 @@
       <c r="A9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="18">
         <v>1</v>
       </c>
@@ -5761,7 +5812,7 @@
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="18">
         <v>1</v>
       </c>
@@ -5809,7 +5860,7 @@
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="18">
         <v>10</v>
       </c>
@@ -5857,7 +5908,7 @@
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
@@ -5879,7 +5930,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="57">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5929,7 +5980,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -5977,7 +6028,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -6025,7 +6076,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6045,7 +6096,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6093,7 +6144,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6141,7 +6192,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6161,7 +6212,7 @@
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="62">
         <v>3</v>
       </c>
       <c r="C20" s="18">
@@ -6211,7 +6262,7 @@
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="18">
         <v>5</v>
       </c>
@@ -6259,7 +6310,7 @@
       <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="18">
         <v>1</v>
       </c>
@@ -6307,7 +6358,7 @@
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="18">
         <v>1</v>
       </c>
@@ -6355,7 +6406,7 @@
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -6375,7 +6426,7 @@
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="18">
         <v>1</v>
       </c>
@@ -6423,7 +6474,7 @@
       <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -6443,7 +6494,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="57">
         <v>4</v>
       </c>
       <c r="C27" s="35">
@@ -6493,7 +6544,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6541,7 +6592,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -6589,7 +6640,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6609,7 +6660,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6633,7 +6684,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6657,7 +6708,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="59"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6696,7 +6747,7 @@
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="62">
         <v>5</v>
       </c>
       <c r="C34" s="48">
@@ -6746,7 +6797,7 @@
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="18">
         <v>6</v>
       </c>
@@ -6794,7 +6845,7 @@
       <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="18">
         <v>1</v>
       </c>
@@ -6842,7 +6893,7 @@
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -6864,7 +6915,7 @@
       <c r="A38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="18">
         <v>1</v>
       </c>
@@ -6910,7 +6961,7 @@
       <c r="A39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="18">
         <v>1</v>
       </c>
@@ -6958,7 +7009,7 @@
       <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6978,35 +7029,41 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="57">
         <v>6</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="52">
         <v>1</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="52">
+        <v>1</v>
+      </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="64">
-        <v>1</v>
-      </c>
-      <c r="K41" s="64">
+      <c r="J41" s="52">
+        <v>1</v>
+      </c>
+      <c r="K41" s="52">
         <v>1</v>
       </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="M41" s="52">
+        <v>1</v>
+      </c>
       <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+      <c r="O41" s="52">
+        <v>1</v>
+      </c>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="9">
         <v>5</v>
       </c>
@@ -7014,7 +7071,9 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="9">
+        <v>5</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="9">
         <v>5</v>
@@ -7023,42 +7082,52 @@
         <v>5</v>
       </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="M42" s="9">
+        <v>5</v>
+      </c>
       <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
+      <c r="O42" s="9">
+        <v>5</v>
+      </c>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="H43" s="9">
+        <v>2</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="M43" s="9">
+        <v>2</v>
+      </c>
       <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="O43" s="9">
+        <v>2</v>
+      </c>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -7066,7 +7135,9 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5">
         <v>1</v>
@@ -7077,14 +7148,16 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5">
+        <v>1</v>
+      </c>
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7104,7 +7177,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
@@ -7112,7 +7185,9 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5">
         <v>1</v>
@@ -7121,16 +7196,20 @@
         <v>1</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
       <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="O46" s="5">
+        <v>1</v>
+      </c>
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7150,7 +7229,7 @@
       <c r="A48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="61">
+      <c r="B48" s="62">
         <v>7</v>
       </c>
       <c r="C48" s="18"/>
@@ -7172,7 +7251,7 @@
       <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -7192,7 +7271,7 @@
       <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="62"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -7212,7 +7291,7 @@
       <c r="A51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -7232,7 +7311,7 @@
       <c r="A52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -7252,7 +7331,7 @@
       <c r="A53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="62"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -7272,7 +7351,7 @@
       <c r="A54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="63"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -7292,7 +7371,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="57">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7314,7 +7393,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7334,7 +7413,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7354,7 +7433,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7374,7 +7453,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7394,7 +7473,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7414,7 +7493,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7434,7 +7513,7 @@
       <c r="A62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="61">
+      <c r="B62" s="62">
         <v>9</v>
       </c>
       <c r="C62" s="18"/>
@@ -7456,7 +7535,7 @@
       <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="62"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -7476,7 +7555,7 @@
       <c r="A64" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="62"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -7496,7 +7575,7 @@
       <c r="A65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="62"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -7516,7 +7595,7 @@
       <c r="A66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="62"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -7536,7 +7615,7 @@
       <c r="A67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="62"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -7556,7 +7635,7 @@
       <c r="A68" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="63"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -7576,7 +7655,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="57">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7598,7 +7677,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7618,7 +7697,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7638,7 +7717,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7658,7 +7737,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7678,7 +7757,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7698,7 +7777,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7718,7 +7797,7 @@
       <c r="A76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="61">
+      <c r="B76" s="62">
         <v>11</v>
       </c>
       <c r="C76" s="18"/>
@@ -7740,7 +7819,7 @@
       <c r="A77" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="62"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -7760,7 +7839,7 @@
       <c r="A78" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="62"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -7780,7 +7859,7 @@
       <c r="A79" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="62"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -7800,7 +7879,7 @@
       <c r="A80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="62"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -7820,7 +7899,7 @@
       <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="62"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -7840,7 +7919,7 @@
       <c r="A82" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="63"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -7860,7 +7939,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="57">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -7882,7 +7961,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7902,7 +7981,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -7922,7 +8001,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -7942,7 +8021,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -7962,7 +8041,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -7982,7 +8061,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8002,7 +8081,7 @@
       <c r="A90" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="61">
+      <c r="B90" s="62">
         <v>13</v>
       </c>
       <c r="C90" s="18"/>
@@ -8024,7 +8103,7 @@
       <c r="A91" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="62"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
@@ -8044,7 +8123,7 @@
       <c r="A92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="62"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -8064,7 +8143,7 @@
       <c r="A93" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="62"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -8084,7 +8163,7 @@
       <c r="A94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="62"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -8104,7 +8183,7 @@
       <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="62"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -8124,7 +8203,7 @@
       <c r="A96" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="63"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -8144,7 +8223,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="57">
         <v>14</v>
       </c>
       <c r="C97" s="16"/>
@@ -8166,7 +8245,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="58"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -8186,7 +8265,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -8206,7 +8285,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -8226,7 +8305,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -8246,7 +8325,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -8266,7 +8345,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -8286,7 +8365,7 @@
       <c r="A104" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="61">
+      <c r="B104" s="62">
         <v>15</v>
       </c>
       <c r="C104" s="18"/>
@@ -8308,7 +8387,7 @@
       <c r="A105" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="62"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -8328,7 +8407,7 @@
       <c r="A106" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="62"/>
+      <c r="B106" s="63"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -8348,7 +8427,7 @@
       <c r="A107" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="62"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -8368,7 +8447,7 @@
       <c r="A108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="62"/>
+      <c r="B108" s="63"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
@@ -8388,7 +8467,7 @@
       <c r="A109" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="62"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
@@ -8408,7 +8487,7 @@
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="63"/>
+      <c r="B110" s="64"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
@@ -8428,7 +8507,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="52">
+      <c r="B111" s="57">
         <v>16</v>
       </c>
       <c r="C111" s="16"/>
@@ -8450,7 +8529,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -8470,7 +8549,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -8490,7 +8569,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -8510,7 +8589,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -8530,7 +8609,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="58"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -8550,7 +8629,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="54"/>
+      <c r="B117" s="59"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -8568,17 +8647,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8587,6 +8655,17 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8600,7 +8679,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,7 +8770,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="33">
@@ -8729,7 +8808,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="12">
         <v>7</v>
       </c>
@@ -8765,7 +8844,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8801,7 +8880,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -8837,7 +8916,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -8873,7 +8952,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -8909,7 +8988,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
@@ -8945,7 +9024,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -8981,7 +9060,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="12">
         <v>1</v>
       </c>
@@ -9017,7 +9096,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="57">
         <v>2</v>
       </c>
       <c r="C15" s="34">
@@ -9055,7 +9134,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -9091,7 +9170,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9127,7 +9206,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9163,7 +9242,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9179,7 +9258,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9215,7 +9294,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9231,7 +9310,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="54">
         <v>3</v>
       </c>
       <c r="C22" s="33">
@@ -9269,7 +9348,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="56"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -9305,7 +9384,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="12">
         <v>1</v>
       </c>
@@ -9341,7 +9420,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="56"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9357,7 +9436,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9373,7 +9452,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9389,7 +9468,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
@@ -9415,7 +9494,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="57">
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -9453,7 +9532,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9489,7 +9568,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9525,7 +9604,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9541,7 +9620,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9577,7 +9656,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9613,7 +9692,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9629,7 +9708,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="55">
+      <c r="B36" s="54">
         <v>5</v>
       </c>
       <c r="C36" s="33">
@@ -9667,7 +9746,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="12">
         <v>2</v>
       </c>
@@ -9703,7 +9782,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="12">
         <v>1</v>
       </c>
@@ -9739,7 +9818,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="12">
         <v>1</v>
       </c>
@@ -9775,7 +9854,7 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -9791,7 +9870,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
@@ -9827,7 +9906,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -9843,40 +9922,52 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="57">
         <v>6</v>
       </c>
-      <c r="C43" s="64">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52">
+        <v>1</v>
+      </c>
+      <c r="E43" s="52">
+        <v>1</v>
+      </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="64">
-        <v>1</v>
-      </c>
-      <c r="H43" s="64">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="64">
-        <v>1</v>
-      </c>
-      <c r="K43" s="64">
-        <v>1</v>
-      </c>
-      <c r="L43" s="5"/>
+      <c r="G43" s="52">
+        <v>1</v>
+      </c>
+      <c r="H43" s="52">
+        <v>1</v>
+      </c>
+      <c r="I43" s="52">
+        <v>1</v>
+      </c>
+      <c r="J43" s="52">
+        <v>1</v>
+      </c>
+      <c r="K43" s="52">
+        <v>1</v>
+      </c>
+      <c r="L43" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="9">
         <v>1</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="9">
         <v>1</v>
@@ -9884,25 +9975,33 @@
       <c r="H44" s="9">
         <v>1</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="9">
+        <v>1</v>
+      </c>
       <c r="J44" s="9">
         <v>1</v>
       </c>
       <c r="K44" s="9">
         <v>1</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="9">
         <v>1</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="5"/>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="9">
         <v>1</v>
@@ -9910,73 +10009,81 @@
       <c r="H45" s="9">
         <v>1</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="9">
+        <v>1</v>
+      </c>
       <c r="J45" s="9">
         <v>1</v>
       </c>
       <c r="K45" s="9">
         <v>1</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="5"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="5"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="5"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="9">
         <v>1</v>
@@ -9984,20 +10091,24 @@
       <c r="H49" s="9">
         <v>1</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="9">
+        <v>1</v>
+      </c>
       <c r="J49" s="9">
         <v>1</v>
       </c>
       <c r="K49" s="9">
         <v>1</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="54">
         <v>7</v>
       </c>
       <c r="C50" s="11"/>
@@ -10015,7 +10126,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -10031,7 +10142,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -10047,7 +10158,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -10063,7 +10174,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -10079,7 +10190,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -10095,7 +10206,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -10111,7 +10222,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="57">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -10129,7 +10240,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -10145,7 +10256,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -10161,7 +10272,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10177,7 +10288,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10193,7 +10304,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10209,7 +10320,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10225,7 +10336,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="54">
         <v>9</v>
       </c>
       <c r="C64" s="13"/>
@@ -10243,7 +10354,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -10259,7 +10370,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="56"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -10275,7 +10386,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="56"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="13"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10291,7 +10402,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="13"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10307,7 +10418,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="56"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="13"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10323,7 +10434,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="13"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10339,7 +10450,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="57">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10357,7 +10468,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10373,7 +10484,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10389,7 +10500,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10405,7 +10516,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10421,7 +10532,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="53"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10437,7 +10548,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10453,7 +10564,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="55">
+      <c r="B78" s="54">
         <v>11</v>
       </c>
       <c r="C78" s="13"/>
@@ -10471,7 +10582,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -10487,7 +10598,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="56"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -10503,7 +10614,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="56"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -10519,7 +10630,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="56"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10535,7 +10646,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="56"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -10551,7 +10662,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="13"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10567,7 +10678,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="52">
+      <c r="B85" s="57">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10585,7 +10696,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10601,7 +10712,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10617,7 +10728,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10633,7 +10744,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10649,7 +10760,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="58"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10665,7 +10776,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10681,7 +10792,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="55">
+      <c r="B92" s="54">
         <v>13</v>
       </c>
       <c r="C92" s="13"/>
@@ -10699,7 +10810,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -10715,7 +10826,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="56"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -10731,7 +10842,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="56"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -10747,7 +10858,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="56"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -10763,7 +10874,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="56"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -10779,7 +10890,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="13"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -10795,7 +10906,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="52">
+      <c r="B99" s="57">
         <v>14</v>
       </c>
       <c r="C99" s="16"/>
@@ -10813,7 +10924,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -10829,7 +10940,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -10845,7 +10956,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -10861,7 +10972,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -10877,7 +10988,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -10893,7 +11004,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -10909,7 +11020,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="55">
+      <c r="B106" s="54">
         <v>15</v>
       </c>
       <c r="C106" s="13"/>
@@ -10927,7 +11038,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="56"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -10943,7 +11054,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="56"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -10959,7 +11070,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="56"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -10975,7 +11086,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="56"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -10991,7 +11102,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="56"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -11007,7 +11118,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -11023,7 +11134,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="52">
+      <c r="B113" s="57">
         <v>16</v>
       </c>
       <c r="C113" s="16"/>
@@ -11041,7 +11152,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -11057,7 +11168,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -11073,7 +11184,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="58"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -11089,7 +11200,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="53"/>
+      <c r="B117" s="58"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -11105,7 +11216,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="53"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -11121,7 +11232,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="54"/>
+      <c r="B119" s="59"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E552C80-F2A7-4DAB-BFEF-AB7B2A137A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6231CE-039E-4773-AF48-1D8BAA954059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{5A9CCA24-6038-4BF0-B7D6-298B4065ADA9}">
+    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{784446FE-1258-41F1-8EEF-8404214DC807}">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video corresponde a 4B Agron.</t>
+Al momento de revisar, el video estaba en estado de procesamiento.</t>
         </r>
       </text>
     </comment>
@@ -322,7 +322,7 @@
     <author>Manuel</author>
   </authors>
   <commentList>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{B71AA77F-951E-48AE-BB6C-051BB842EF0E}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{373D1922-983A-4BCE-BD10-7574CFE48704}">
       <text>
         <r>
           <rPr>
@@ -342,31 +342,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:02:22.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{CAF9B73F-90B0-4169-AF61-CBFEBB6AA9BE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Está subido el video de la unidad 11, poner en la semana 5. Aquí debe estar el de la unidad 10 en esta semana 3.</t>
+OK.
+En este video se encuentra la clase de la semana 3 y de la semana 4.</t>
         </r>
       </text>
     </comment>
@@ -390,7 +367,26 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Este video es de la unidad 10. Debe estar en la semana anterior. Aquí hay que poner el video de la evaluación parcial aunque haya sido tomada de manera atrasasa.</t>
+Este video es de la unidad 10. El video de la </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">evaluación parcial </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>consta en la segunda parte del video de la semana 4.</t>
         </r>
       </text>
     </comment>
@@ -414,7 +410,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:02:06.</t>
+Video dura 01:39:06. Incluye unidades 10 y 11.</t>
         </r>
       </text>
     </comment>
@@ -443,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{532A36FB-D452-4149-B46B-C3A4C77AF099}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{96F932A7-8EC5-4F00-8300-6DF6524C8F34}">
       <text>
         <r>
           <rPr>
@@ -463,31 +459,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:02:22.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{98DBDA2E-1A02-494A-BE5C-DE57824BDA29}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Video dura 00:06:17.</t>
+OK.
+En este video se encuentra la clase de la semana 3 y de la semana 4.</t>
         </r>
       </text>
     </comment>
@@ -516,54 +489,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{09817B4C-23CC-41EE-A71C-474586CADB7B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-El video aparecía en proceso al momento de la revisión. Revisar por favor si tal vez hay que otorgar acceso a usuarios de la UTEQ.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{A6A7B943-D621-4848-B37E-54DCD16AD8FC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Solamente debe constar el video de la evaluación. El video de la unidad 10 debe estar en la semana anterior.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I29" authorId="0" shapeId="0" xr:uid="{95116498-3722-4305-96CB-414B6A795D5A}">
       <text>
         <r>
@@ -584,7 +509,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video no corresponde a la evaluación parcial 1, sino a la segunda mitad de la clase de la semana 3.</t>
+Video no corresponde a la evaluación parcial 1, sino a la unidad 10.</t>
         </r>
       </text>
     </comment>
@@ -653,7 +578,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Es el mismo video subido en la semana 3. Video debe ser de la </t>
+Es el mismo video subido en la semana 3. Aquí debe constar el video de la </t>
         </r>
         <r>
           <rPr>
@@ -663,16 +588,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>evaluación parcial 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>. Me escribiste que no hay video de evaluación porque estaban atrasados. Sin embargo, cuando se recupere la clase de la evaluación, igualmente debe haber un video aquí de dicha sesión.</t>
+          <t>evaluación parcial de las unidades 1 y 2.</t>
         </r>
       </text>
     </comment>
@@ -696,11 +612,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:03:41.</t>
+Video incluye unidad 10 y evaluación parcial 1. video dura 01:35:11.</t>
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{72CE3E14-8CDE-4C8B-B503-74BE21C45A95}">
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{39D52173-3FD9-42BB-A7D4-49863BB1945F}">
       <text>
         <r>
           <rPr>
@@ -720,7 +636,17 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:02:06.</t>
+Es el mismo video subido en la semana 3. Aquí debe constar el video de la </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>evaluación parcial de las unidades 1 y 2.</t>
         </r>
       </text>
     </comment>
@@ -749,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{05030A36-EABE-4262-AB2E-114C2011CE49}">
+    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{251D0C95-2090-43B2-87E1-E4D4342ECDF0}">
       <text>
         <r>
           <rPr>
@@ -757,7 +683,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Manuel:</t>
         </r>
@@ -766,10 +692,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Poner el video de la semana pasada aquí también porque contiene la evaluación parcial 1 en la segunda parte.</t>
+OK.
+Consta el video de la unidad 11. El video de la evaluación parcial 1 se encuentra al final. El video total dura 01:43:01.</t>
         </r>
       </text>
     </comment>
@@ -838,7 +765,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:12:10.</t>
+Video corresponde a explicación de las actividades que constan en el SGA. La clase de la unidad 11 consta en el video de la semana 2.</t>
         </r>
       </text>
     </comment>
@@ -862,11 +789,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:05:13.</t>
+Video no es de este curso. Es de 4A ING AMBIENTAL de la semana 5.</t>
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{3F87F745-1859-447F-B6BD-365D40A5B006}">
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{9017261E-92BD-4C1F-A3BC-F9C1CB4AC0F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Clase se dio en semana 3, donde el video duró 01:39:06. Sin embargo, sí se dio clases este día.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L43" authorId="0" shapeId="0" xr:uid="{6E614371-83F3-496B-A4BE-6E89546EF842}">
       <text>
         <r>
           <rPr>
@@ -886,7 +837,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Video dura 00:02:06.</t>
+En esta semana, este curso tenía la evaluación parcial 2.</t>
         </r>
       </text>
     </comment>
@@ -895,7 +846,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="131">
   <si>
     <t>CURSO</t>
   </si>
@@ -1559,7 +1510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,10 +1638,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1727,9 +1678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,11 +1996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2089,14 +2036,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +2054,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2076,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2140,7 +2087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2151,7 +2098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2162,7 +2109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2173,7 +2120,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2184,7 +2131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2206,7 +2153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2229,13 +2176,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="01_Lunes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A1EA6162-9F94-41F9-B581-C06B3AEA2E9D}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{773B485D-E09A-4C89-9A13-77122C44E990}"/>
@@ -2262,7 +2203,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2264,7 @@
       </c>
       <c r="O3" s="60">
         <f ca="1">NOW()</f>
-        <v>44741.873942361111</v>
+        <v>44742.937597569442</v>
       </c>
       <c r="P3" s="61"/>
     </row>
@@ -3652,28 +3593,40 @@
       <c r="B39" s="57">
         <v>6</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="51">
         <v>1</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="52">
-        <v>1</v>
-      </c>
-      <c r="F39" s="52">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="E39" s="51">
+        <v>1</v>
+      </c>
+      <c r="F39" s="51">
+        <v>1</v>
+      </c>
+      <c r="G39" s="51">
+        <v>1</v>
+      </c>
+      <c r="H39" s="51">
+        <v>1</v>
+      </c>
+      <c r="I39" s="51">
+        <v>1</v>
+      </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="K39" s="51">
+        <v>1</v>
+      </c>
+      <c r="L39" s="51">
+        <v>1</v>
+      </c>
+      <c r="M39" s="51">
+        <v>1</v>
+      </c>
       <c r="N39" s="5"/>
-      <c r="O39" s="52">
-        <v>1</v>
-      </c>
-      <c r="P39" s="52">
+      <c r="O39" s="51">
+        <v>1</v>
+      </c>
+      <c r="P39" s="51">
         <v>1</v>
       </c>
     </row>
@@ -3692,13 +3645,25 @@
       <c r="F40" s="9">
         <v>6</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="G40" s="9">
+        <v>6</v>
+      </c>
+      <c r="H40" s="9">
+        <v>6</v>
+      </c>
+      <c r="I40" s="9">
+        <v>6</v>
+      </c>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="K40" s="9">
+        <v>6</v>
+      </c>
+      <c r="L40" s="9">
+        <v>6</v>
+      </c>
+      <c r="M40" s="9">
+        <v>6</v>
+      </c>
       <c r="N40" s="5"/>
       <c r="O40" s="9">
         <v>6</v>
@@ -3722,16 +3687,28 @@
       <c r="F41" s="9">
         <v>1</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1</v>
+      </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="K41" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="52" t="s">
+        <v>94</v>
+      </c>
       <c r="N41" s="5"/>
-      <c r="O41" s="65" t="s">
-        <v>94</v>
+      <c r="O41" s="9">
+        <v>1</v>
       </c>
       <c r="P41" s="9">
         <v>1</v>
@@ -3792,13 +3769,25 @@
       <c r="F44" s="5">
         <v>1</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5">
         <v>1</v>
@@ -5277,11 +5266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5318,7 +5306,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
@@ -5329,7 +5317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -5340,7 +5328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
@@ -5351,7 +5339,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
@@ -5362,7 +5350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>49</v>
       </c>
@@ -5373,7 +5361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>50</v>
       </c>
@@ -5406,7 +5394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>53</v>
       </c>
@@ -5417,7 +5405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +5416,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>55</v>
       </c>
@@ -5439,7 +5427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>56</v>
       </c>
@@ -5450,7 +5438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>57</v>
       </c>
@@ -5462,14 +5450,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="01_Lunes"/>
-        <filter val="01_Lunes &amp; Miércoles"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{DD95A364-B1CC-4080-9273-D870CFBF8027}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{AFF5CC48-0E1B-447C-A9B8-DC1E941AE79B}"/>
@@ -5496,10 +5477,10 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,7 +5541,7 @@
       </c>
       <c r="O3" s="60">
         <f ca="1">NOW()</f>
-        <v>44741.873942361111</v>
+        <v>44742.937597569442</v>
       </c>
       <c r="P3" s="61"/>
     </row>
@@ -6314,8 +6295,8 @@
       <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>94</v>
+      <c r="D22" s="19">
+        <v>1</v>
       </c>
       <c r="E22" s="19">
         <v>2</v>
@@ -6326,8 +6307,8 @@
       <c r="G22" s="19">
         <v>2</v>
       </c>
-      <c r="H22" s="50" t="s">
-        <v>94</v>
+      <c r="H22" s="19">
+        <v>1</v>
       </c>
       <c r="I22" s="19">
         <v>1</v>
@@ -6338,8 +6319,8 @@
       <c r="K22" s="19">
         <v>1</v>
       </c>
-      <c r="L22" s="50" t="s">
-        <v>94</v>
+      <c r="L22" s="19">
+        <v>1</v>
       </c>
       <c r="M22" s="19">
         <v>1</v>
@@ -6347,8 +6328,8 @@
       <c r="N22" s="19">
         <v>2</v>
       </c>
-      <c r="O22" s="50" t="s">
-        <v>94</v>
+      <c r="O22" s="19">
+        <v>1</v>
       </c>
       <c r="P22" s="19">
         <v>1</v>
@@ -6596,20 +6577,20 @@
       <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>92</v>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
       </c>
       <c r="F29" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>92</v>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
       </c>
       <c r="I29" s="50" t="s">
         <v>92</v>
@@ -6626,11 +6607,11 @@
       <c r="M29" s="5">
         <v>1</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="16">
+        <v>1</v>
+      </c>
+      <c r="O29" s="50" t="s">
         <v>92</v>
-      </c>
-      <c r="O29" s="50" t="s">
-        <v>94</v>
       </c>
       <c r="P29" s="16">
         <v>1</v>
@@ -6855,8 +6836,8 @@
       <c r="E36" s="19">
         <v>2</v>
       </c>
-      <c r="F36" s="51" t="s">
-        <v>94</v>
+      <c r="F36" s="18">
+        <v>1</v>
       </c>
       <c r="G36" s="19">
         <v>2</v>
@@ -6870,11 +6851,11 @@
       <c r="J36" s="19">
         <v>1</v>
       </c>
-      <c r="K36" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36" s="50" t="s">
-        <v>94</v>
+      <c r="K36" s="19">
+        <v>1</v>
+      </c>
+      <c r="L36" s="19">
+        <v>1</v>
       </c>
       <c r="M36" s="50" t="s">
         <v>94</v>
@@ -6882,8 +6863,8 @@
       <c r="N36" s="19">
         <v>2</v>
       </c>
-      <c r="O36" s="50" t="s">
-        <v>94</v>
+      <c r="O36" s="19">
+        <v>1</v>
       </c>
       <c r="P36" s="19">
         <v>2</v>
@@ -7032,32 +7013,44 @@
       <c r="B41" s="57">
         <v>6</v>
       </c>
-      <c r="C41" s="52">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9"/>
+      <c r="C41" s="51">
+        <v>1</v>
+      </c>
+      <c r="D41" s="51">
+        <v>1</v>
+      </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="51">
+        <v>1</v>
+      </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="52">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="52">
-        <v>1</v>
-      </c>
-      <c r="K41" s="52">
-        <v>1</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="52">
-        <v>1</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="52">
-        <v>1</v>
-      </c>
-      <c r="P41" s="5"/>
+      <c r="H41" s="51">
+        <v>1</v>
+      </c>
+      <c r="I41" s="51">
+        <v>1</v>
+      </c>
+      <c r="J41" s="51">
+        <v>1</v>
+      </c>
+      <c r="K41" s="51">
+        <v>1</v>
+      </c>
+      <c r="L41" s="51">
+        <v>1</v>
+      </c>
+      <c r="M41" s="51">
+        <v>1</v>
+      </c>
+      <c r="N41" s="51">
+        <v>1</v>
+      </c>
+      <c r="O41" s="51">
+        <v>1</v>
+      </c>
+      <c r="P41" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -7067,29 +7060,41 @@
       <c r="C42" s="9">
         <v>5</v>
       </c>
-      <c r="D42" s="9"/>
+      <c r="D42" s="9">
+        <v>5</v>
+      </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9">
+        <v>5</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="9">
         <v>5</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="9">
+        <v>5</v>
+      </c>
       <c r="J42" s="9">
         <v>5</v>
       </c>
       <c r="K42" s="9">
         <v>5</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="5">
+        <v>4</v>
+      </c>
       <c r="M42" s="9">
         <v>5</v>
       </c>
-      <c r="N42" s="5"/>
+      <c r="N42" s="9">
+        <v>5</v>
+      </c>
       <c r="O42" s="9">
         <v>5</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -7099,29 +7104,41 @@
       <c r="C43" s="9">
         <v>2</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9">
+        <v>2</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="9">
         <v>2</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="9">
+        <v>2</v>
+      </c>
       <c r="J43" s="9">
         <v>2</v>
       </c>
       <c r="K43" s="9">
         <v>2</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="M43" s="9">
         <v>2</v>
       </c>
-      <c r="N43" s="5"/>
+      <c r="N43" s="9">
+        <v>2</v>
+      </c>
       <c r="O43" s="9">
         <v>2</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -7131,14 +7148,20 @@
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5">
         <v>1</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
       <c r="J44" s="5">
         <v>1</v>
       </c>
@@ -7147,11 +7170,15 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
       <c r="O44" s="5">
         <v>1</v>
       </c>
-      <c r="P44" s="5"/>
+      <c r="P44" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -7181,14 +7208,20 @@
       <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5">
         <v>1</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
       <c r="J46" s="5">
         <v>1</v>
       </c>
@@ -7196,14 +7229,16 @@
         <v>1</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5">
-        <v>1</v>
-      </c>
-      <c r="N46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
       <c r="O46" s="5">
         <v>1</v>
       </c>
-      <c r="P46" s="5"/>
+      <c r="P46" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -7219,8 +7254,12 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>1</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -8677,9 +8716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43:L49"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9925,32 +9964,32 @@
       <c r="B43" s="57">
         <v>6</v>
       </c>
-      <c r="C43" s="52">
-        <v>1</v>
-      </c>
-      <c r="D43" s="52">
-        <v>1</v>
-      </c>
-      <c r="E43" s="52">
+      <c r="C43" s="51">
+        <v>1</v>
+      </c>
+      <c r="D43" s="51">
+        <v>1</v>
+      </c>
+      <c r="E43" s="51">
         <v>1</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="52">
-        <v>1</v>
-      </c>
-      <c r="H43" s="52">
-        <v>1</v>
-      </c>
-      <c r="I43" s="52">
-        <v>1</v>
-      </c>
-      <c r="J43" s="52">
-        <v>1</v>
-      </c>
-      <c r="K43" s="52">
-        <v>1</v>
-      </c>
-      <c r="L43" s="52">
+      <c r="G43" s="51">
+        <v>1</v>
+      </c>
+      <c r="H43" s="51">
+        <v>1</v>
+      </c>
+      <c r="I43" s="51">
+        <v>1</v>
+      </c>
+      <c r="J43" s="51">
+        <v>1</v>
+      </c>
+      <c r="K43" s="51">
+        <v>1</v>
+      </c>
+      <c r="L43" s="51">
         <v>1</v>
       </c>
     </row>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B796773-D6B9-4F7E-B8A4-763C7ADB7736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA098F5D-ED74-4712-BAFC-96F3A3937DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,8 +1569,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1581,14 +1587,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,6 +1604,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1925,7 +1931,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1951,7 +1957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2105,7 +2111,7 @@
   <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
     <filterColumn colId="2">
       <filters>
-        <filter val="05_Viernes"/>
+        <filter val="01_Lunes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2134,8 +2140,8 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,44 +2154,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2196,7 +2202,7 @@
       </c>
       <c r="O3" s="58">
         <f ca="1">NOW()</f>
-        <v>44746.694756249999</v>
+        <v>44747.736200115738</v>
       </c>
       <c r="P3" s="59"/>
     </row>
@@ -2254,7 +2260,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="12">
@@ -2302,7 +2308,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="12">
         <v>1</v>
       </c>
@@ -2348,7 +2354,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -2394,7 +2400,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -2440,7 +2446,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -2486,7 +2492,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="51">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2534,7 +2540,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2580,7 +2586,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2626,7 +2632,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="6"/>
       <c r="D14" s="21"/>
       <c r="E14" s="5"/>
@@ -2646,7 +2652,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6"/>
       <c r="D15" s="21"/>
       <c r="E15" s="5"/>
@@ -2666,7 +2672,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2712,7 +2718,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="6"/>
       <c r="D17" s="21"/>
       <c r="E17" s="5"/>
@@ -2732,7 +2738,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="54">
         <v>3</v>
       </c>
       <c r="C18" s="12">
@@ -2780,7 +2786,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -2826,7 +2832,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
@@ -2872,7 +2878,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="12">
         <v>1</v>
       </c>
@@ -2918,7 +2924,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="12"/>
       <c r="D22" s="21"/>
       <c r="E22" s="12"/>
@@ -2938,7 +2944,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -2984,7 +2990,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="12"/>
       <c r="D24" s="21"/>
       <c r="E24" s="13"/>
@@ -3004,7 +3010,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="51">
         <v>4</v>
       </c>
       <c r="C25" s="33">
@@ -3052,7 +3058,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3098,7 +3104,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3144,7 +3150,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="6"/>
       <c r="D28" s="21"/>
       <c r="E28" s="6"/>
@@ -3164,7 +3170,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3210,7 +3216,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="6"/>
       <c r="D30" s="21"/>
       <c r="E30" s="6"/>
@@ -3230,7 +3236,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3276,7 +3282,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="54">
         <v>5</v>
       </c>
       <c r="C32" s="32">
@@ -3324,7 +3330,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="12" t="s">
         <v>131</v>
       </c>
@@ -3370,7 +3376,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="12">
         <v>1</v>
       </c>
@@ -3416,7 +3422,7 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="12"/>
       <c r="D35" s="21"/>
       <c r="E35" s="12"/>
@@ -3436,7 +3442,7 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="12"/>
       <c r="D36" s="21"/>
       <c r="E36" s="12"/>
@@ -3456,7 +3462,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
@@ -3502,7 +3508,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="21"/>
       <c r="E38" s="13"/>
@@ -3522,7 +3528,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="51">
         <v>6</v>
       </c>
       <c r="C39" s="50">
@@ -3570,7 +3576,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="9">
         <v>6</v>
       </c>
@@ -3616,7 +3622,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="9">
         <v>1</v>
       </c>
@@ -3662,7 +3668,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="5"/>
       <c r="D42" s="21"/>
       <c r="E42" s="5"/>
@@ -3682,7 +3688,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="5"/>
       <c r="D43" s="21"/>
       <c r="E43" s="5"/>
@@ -3702,7 +3708,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -3748,7 +3754,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="9"/>
       <c r="D45" s="21"/>
       <c r="E45" s="5"/>
@@ -3768,10 +3774,12 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="54">
         <v>7</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="63">
+        <v>1</v>
+      </c>
       <c r="D46" s="20"/>
       <c r="E46" s="11"/>
       <c r="F46" s="13"/>
@@ -3784,14 +3792,18 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
+      <c r="P46" s="64">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="13">
+        <v>3</v>
+      </c>
       <c r="D47" s="21"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -3804,14 +3816,18 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
+      <c r="P47" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
       <c r="D48" s="21"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -3824,13 +3840,15 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="53"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="13"/>
       <c r="D49" s="21"/>
       <c r="E49" s="13"/>
@@ -3850,7 +3868,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="13"/>
       <c r="D50" s="21"/>
       <c r="E50" s="13"/>
@@ -3870,7 +3888,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="53"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="21"/>
       <c r="E51" s="13"/>
@@ -3890,8 +3908,10 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
       <c r="D52" s="21"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -3904,13 +3924,15 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
+      <c r="P52" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="55">
+      <c r="B53" s="51">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3932,7 +3954,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="5"/>
       <c r="D54" s="21"/>
       <c r="E54" s="5"/>
@@ -3952,7 +3974,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="6"/>
       <c r="D55" s="20"/>
       <c r="E55" s="6"/>
@@ -3972,7 +3994,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="6"/>
       <c r="D56" s="20"/>
       <c r="E56" s="5"/>
@@ -3992,7 +4014,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="6"/>
       <c r="D57" s="20"/>
       <c r="E57" s="5"/>
@@ -4012,7 +4034,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="6"/>
       <c r="D58" s="20"/>
       <c r="E58" s="5"/>
@@ -4032,7 +4054,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="6"/>
       <c r="D59" s="20"/>
       <c r="E59" s="6"/>
@@ -4052,7 +4074,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="54">
         <v>9</v>
       </c>
       <c r="C60" s="13"/>
@@ -4074,7 +4096,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="21"/>
       <c r="E61" s="13"/>
@@ -4094,7 +4116,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="13"/>
       <c r="D62" s="21"/>
       <c r="E62" s="13"/>
@@ -4114,7 +4136,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="53"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="13"/>
       <c r="D63" s="22"/>
       <c r="E63" s="10"/>
@@ -4134,7 +4156,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="13"/>
       <c r="D64" s="22"/>
       <c r="E64" s="10"/>
@@ -4154,7 +4176,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="13"/>
       <c r="D65" s="22"/>
       <c r="E65" s="10"/>
@@ -4174,7 +4196,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="13"/>
       <c r="D66" s="22"/>
       <c r="E66" s="10"/>
@@ -4194,7 +4216,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="55">
+      <c r="B67" s="51">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4216,7 +4238,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="5"/>
       <c r="D68" s="21"/>
       <c r="E68" s="5"/>
@@ -4236,7 +4258,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="56"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="5"/>
       <c r="D69" s="21"/>
       <c r="E69" s="5"/>
@@ -4256,7 +4278,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="5"/>
       <c r="D70" s="21"/>
       <c r="E70" s="5"/>
@@ -4276,7 +4298,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="5"/>
       <c r="D71" s="21"/>
       <c r="E71" s="5"/>
@@ -4296,7 +4318,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="5"/>
       <c r="D72" s="21"/>
       <c r="E72" s="5"/>
@@ -4316,7 +4338,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="6"/>
       <c r="D73" s="20"/>
       <c r="E73" s="6"/>
@@ -4336,7 +4358,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="54">
         <v>11</v>
       </c>
       <c r="C74" s="13"/>
@@ -4358,7 +4380,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="13"/>
       <c r="D75" s="21"/>
       <c r="E75" s="13"/>
@@ -4378,7 +4400,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="53"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="21"/>
       <c r="E76" s="13"/>
@@ -4398,7 +4420,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="53"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="13"/>
       <c r="D77" s="21"/>
       <c r="E77" s="13"/>
@@ -4418,7 +4440,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="53"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="10"/>
       <c r="D78" s="22"/>
       <c r="E78" s="10"/>
@@ -4438,7 +4460,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="13"/>
       <c r="D79" s="21"/>
       <c r="E79" s="13"/>
@@ -4458,7 +4480,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="13"/>
       <c r="D80" s="22"/>
       <c r="E80" s="10"/>
@@ -4478,7 +4500,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="55">
+      <c r="B81" s="51">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4500,7 +4522,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="56"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="5"/>
       <c r="D82" s="21"/>
       <c r="E82" s="5"/>
@@ -4520,7 +4542,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="56"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="5"/>
       <c r="D83" s="21"/>
       <c r="E83" s="5"/>
@@ -4540,7 +4562,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="56"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="5"/>
       <c r="D84" s="21"/>
       <c r="E84" s="5"/>
@@ -4560,7 +4582,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="56"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="5"/>
       <c r="D85" s="21"/>
       <c r="E85" s="5"/>
@@ -4580,7 +4602,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="5"/>
       <c r="D86" s="21"/>
       <c r="E86" s="5"/>
@@ -4600,7 +4622,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5"/>
       <c r="D87" s="21"/>
       <c r="E87" s="5"/>
@@ -4620,7 +4642,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="52">
+      <c r="B88" s="54">
         <v>13</v>
       </c>
       <c r="C88" s="13"/>
@@ -4642,7 +4664,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="13"/>
       <c r="D89" s="21"/>
       <c r="E89" s="13"/>
@@ -4662,7 +4684,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="13"/>
       <c r="D90" s="21"/>
       <c r="E90" s="13"/>
@@ -4682,7 +4704,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="13"/>
       <c r="D91" s="21"/>
       <c r="E91" s="13"/>
@@ -4702,7 +4724,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="53"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="13"/>
       <c r="D92" s="21"/>
       <c r="E92" s="13"/>
@@ -4722,7 +4744,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="53"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="13"/>
       <c r="D93" s="21"/>
       <c r="E93" s="13"/>
@@ -4742,7 +4764,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="13"/>
       <c r="D94" s="22"/>
       <c r="E94" s="10"/>
@@ -4762,7 +4784,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="55">
+      <c r="B95" s="51">
         <v>14</v>
       </c>
       <c r="C95" s="15"/>
@@ -4784,7 +4806,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="56"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="15"/>
       <c r="D96" s="21"/>
       <c r="E96" s="15"/>
@@ -4804,7 +4826,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="56"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="15"/>
       <c r="D97" s="21"/>
       <c r="E97" s="15"/>
@@ -4824,7 +4846,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="56"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="15"/>
       <c r="D98" s="21"/>
       <c r="E98" s="15"/>
@@ -4844,7 +4866,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="56"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="15"/>
       <c r="D99" s="21"/>
       <c r="E99" s="15"/>
@@ -4864,7 +4886,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="56"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="15"/>
       <c r="D100" s="21"/>
       <c r="E100" s="15"/>
@@ -4884,7 +4906,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="15"/>
       <c r="D101" s="21"/>
       <c r="E101" s="15"/>
@@ -4904,7 +4926,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="52">
+      <c r="B102" s="54">
         <v>15</v>
       </c>
       <c r="C102" s="13"/>
@@ -4926,7 +4948,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="13"/>
       <c r="D103" s="21"/>
       <c r="E103" s="13"/>
@@ -4946,7 +4968,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="55"/>
       <c r="C104" s="13"/>
       <c r="D104" s="21"/>
       <c r="E104" s="13"/>
@@ -4966,7 +4988,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="53"/>
+      <c r="B105" s="55"/>
       <c r="C105" s="13"/>
       <c r="D105" s="21"/>
       <c r="E105" s="13"/>
@@ -4986,7 +5008,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="53"/>
+      <c r="B106" s="55"/>
       <c r="C106" s="13"/>
       <c r="D106" s="21"/>
       <c r="E106" s="13"/>
@@ -5006,7 +5028,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="13"/>
       <c r="D107" s="21"/>
       <c r="E107" s="13"/>
@@ -5026,7 +5048,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="13"/>
       <c r="D108" s="21"/>
       <c r="E108" s="13"/>
@@ -5046,7 +5068,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="55">
+      <c r="B109" s="51">
         <v>16</v>
       </c>
       <c r="C109" s="15"/>
@@ -5068,7 +5090,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="56"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="15"/>
       <c r="D110" s="21"/>
       <c r="E110" s="15"/>
@@ -5088,7 +5110,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="56"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="15"/>
       <c r="D111" s="21"/>
       <c r="E111" s="15"/>
@@ -5108,7 +5130,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="56"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="15"/>
       <c r="D112" s="21"/>
       <c r="E112" s="15"/>
@@ -5128,7 +5150,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="56"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="15"/>
       <c r="D113" s="21"/>
       <c r="E113" s="15"/>
@@ -5148,7 +5170,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="56"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="15"/>
       <c r="D114" s="21"/>
       <c r="E114" s="15"/>
@@ -5168,7 +5190,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="15"/>
       <c r="D115" s="21"/>
       <c r="E115" s="15"/>
@@ -5186,6 +5208,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5194,17 +5227,6 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5218,7 +5240,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5244,7 +5266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>44</v>
       </c>
@@ -5255,7 +5277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
@@ -5321,7 +5343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>51</v>
       </c>
@@ -5332,7 +5354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>52</v>
       </c>
@@ -5343,7 +5365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>53</v>
       </c>
@@ -5365,7 +5387,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>55</v>
       </c>
@@ -5387,7 +5409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>57</v>
       </c>
@@ -5402,7 +5424,8 @@
   <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
     <filterColumn colId="2">
       <filters>
-        <filter val="04_Jueves"/>
+        <filter val="01_Lunes"/>
+        <filter val="01_Lunes &amp; Miércoles"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5432,10 +5455,10 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5448,44 +5471,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5496,7 +5519,7 @@
       </c>
       <c r="O3" s="58">
         <f ca="1">NOW()</f>
-        <v>44746.694756249999</v>
+        <v>44747.736200115738</v>
       </c>
       <c r="P3" s="59"/>
     </row>
@@ -5866,7 +5889,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="51">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5916,7 +5939,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -5964,7 +5987,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -6012,7 +6035,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6032,7 +6055,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6080,7 +6103,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6128,7 +6151,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6430,7 +6453,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="51">
         <v>4</v>
       </c>
       <c r="C27" s="34">
@@ -6480,7 +6503,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6528,7 +6551,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -6576,7 +6599,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6596,7 +6619,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="56"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6620,7 +6643,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6644,7 +6667,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="53"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6965,7 +6988,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="55">
+      <c r="B41" s="51">
         <v>6</v>
       </c>
       <c r="C41" s="50">
@@ -7015,7 +7038,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="9">
         <v>5</v>
       </c>
@@ -7063,7 +7086,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="9">
         <v>2</v>
       </c>
@@ -7109,7 +7132,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -7153,7 +7176,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="56"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7173,7 +7196,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="56"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
@@ -7217,7 +7240,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7244,15 +7267,21 @@
       <c r="B48" s="60">
         <v>7</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="47">
+        <v>1</v>
+      </c>
       <c r="D48" s="17"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="J48" s="47">
+        <v>1</v>
+      </c>
+      <c r="K48" s="47">
+        <v>1</v>
+      </c>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
@@ -7264,15 +7293,21 @@
         <v>7</v>
       </c>
       <c r="B49" s="61"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17">
+        <v>5</v>
+      </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="J49" s="17">
+        <v>5</v>
+      </c>
+      <c r="K49" s="17">
+        <v>5</v>
+      </c>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
@@ -7284,15 +7319,21 @@
         <v>8</v>
       </c>
       <c r="B50" s="61"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="J50" s="17">
+        <v>1</v>
+      </c>
+      <c r="K50" s="17">
+        <v>1</v>
+      </c>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
@@ -7311,8 +7352,8 @@
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
@@ -7331,8 +7372,12 @@
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="J52" s="17">
+        <v>1</v>
+      </c>
+      <c r="K52" s="17">
+        <v>1</v>
+      </c>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
@@ -7351,8 +7396,8 @@
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
@@ -7364,15 +7409,21 @@
         <v>12</v>
       </c>
       <c r="B54" s="62"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
+      <c r="J54" s="17">
+        <v>1</v>
+      </c>
+      <c r="K54" s="17">
+        <v>1</v>
+      </c>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
@@ -7383,7 +7434,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="55">
+      <c r="B55" s="51">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7405,7 +7456,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7425,7 +7476,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7445,7 +7496,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7465,7 +7516,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7485,7 +7536,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="56"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7505,7 +7556,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7667,7 +7718,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="55">
+      <c r="B69" s="51">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7689,7 +7740,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7709,7 +7760,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7729,7 +7780,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7749,7 +7800,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7769,7 +7820,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7789,7 +7840,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7951,7 +8002,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="55">
+      <c r="B83" s="51">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -7973,7 +8024,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="56"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7993,7 +8044,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="56"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8013,7 +8064,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8033,7 +8084,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="56"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8053,7 +8104,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="56"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -8073,7 +8124,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8235,7 +8286,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="55">
+      <c r="B97" s="51">
         <v>14</v>
       </c>
       <c r="C97" s="15"/>
@@ -8257,7 +8308,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="56"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
@@ -8277,7 +8328,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="56"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -8297,7 +8348,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="56"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -8317,7 +8368,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="56"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
@@ -8337,7 +8388,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="56"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -8357,7 +8408,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="57"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
@@ -8519,7 +8570,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="55">
+      <c r="B111" s="51">
         <v>16</v>
       </c>
       <c r="C111" s="15"/>
@@ -8541,7 +8592,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="56"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -8561,7 +8612,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="56"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
@@ -8581,7 +8632,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="56"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
@@ -8601,7 +8652,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="56"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
@@ -8621,7 +8672,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="56"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
@@ -8641,7 +8692,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="57"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
@@ -8659,6 +8710,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8667,17 +8729,6 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8690,8 +8741,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8782,7 +8833,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
       <c r="C6" s="32">
@@ -8820,7 +8871,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="12">
         <v>7</v>
       </c>
@@ -8856,7 +8907,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="12">
         <v>1</v>
       </c>
@@ -8892,7 +8943,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="12">
         <v>1</v>
       </c>
@@ -8928,7 +8979,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
@@ -8964,7 +9015,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -9000,7 +9051,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
@@ -9036,7 +9087,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -9072,7 +9123,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="12">
         <v>1</v>
       </c>
@@ -9108,7 +9159,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="51">
         <v>2</v>
       </c>
       <c r="C15" s="33">
@@ -9146,7 +9197,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -9182,7 +9233,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9218,7 +9269,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9254,7 +9305,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9270,7 +9321,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9306,7 +9357,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="57"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9322,7 +9373,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="54">
         <v>3</v>
       </c>
       <c r="C22" s="32">
@@ -9360,7 +9411,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="12">
         <v>1</v>
       </c>
@@ -9396,7 +9447,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="12">
         <v>1</v>
       </c>
@@ -9432,7 +9483,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9448,7 +9499,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9464,7 +9515,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9480,7 +9531,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
@@ -9506,7 +9557,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="51">
         <v>4</v>
       </c>
       <c r="C29" s="33">
@@ -9544,7 +9595,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9580,7 +9631,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="56"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9616,7 +9667,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9632,7 +9683,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9668,7 +9719,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9704,7 +9755,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9720,7 +9771,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="54">
         <v>5</v>
       </c>
       <c r="C36" s="32">
@@ -9758,7 +9809,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="12">
         <v>2</v>
       </c>
@@ -9794,7 +9845,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="12">
         <v>1</v>
       </c>
@@ -9830,7 +9881,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="12">
         <v>1</v>
       </c>
@@ -9866,7 +9917,7 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -9882,7 +9933,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
@@ -9918,7 +9969,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="54"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -9934,7 +9985,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="55">
+      <c r="B43" s="51">
         <v>6</v>
       </c>
       <c r="C43" s="50">
@@ -9972,7 +10023,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="9">
         <v>1</v>
       </c>
@@ -10008,7 +10059,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="56"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="9">
         <v>1</v>
       </c>
@@ -10044,7 +10095,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="56"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -10060,7 +10111,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -10076,7 +10127,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -10092,7 +10143,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="9">
         <v>1</v>
       </c>
@@ -10128,57 +10179,87 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="54">
         <v>7</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="63">
+        <v>1</v>
+      </c>
       <c r="D50" s="11"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="G50" s="63">
+        <v>1</v>
+      </c>
+      <c r="H50" s="63">
+        <v>1</v>
+      </c>
       <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="J50" s="63">
+        <v>1</v>
+      </c>
+      <c r="K50" s="63">
+        <v>1</v>
+      </c>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13">
+        <v>1</v>
+      </c>
       <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="J51" s="13">
+        <v>1</v>
+      </c>
+      <c r="K51" s="13">
+        <v>1</v>
+      </c>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="G52" s="13">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
       <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="J52" s="13">
+        <v>1</v>
+      </c>
+      <c r="K52" s="13">
+        <v>1</v>
+      </c>
       <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="53"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -10194,7 +10275,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -10210,7 +10291,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -10226,7 +10307,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -10242,7 +10323,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="55">
+      <c r="B57" s="51">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -10260,7 +10341,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -10276,7 +10357,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -10292,7 +10373,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="56"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10308,7 +10389,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10324,7 +10405,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10340,7 +10421,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10356,7 +10437,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="54">
         <v>9</v>
       </c>
       <c r="C64" s="13"/>
@@ -10374,7 +10455,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -10390,7 +10471,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="53"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -10406,7 +10487,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="53"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="13"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10422,7 +10503,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="13"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10438,7 +10519,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="13"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10454,7 +10535,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="13"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10470,7 +10551,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="55">
+      <c r="B71" s="51">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10488,7 +10569,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10504,7 +10585,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10520,7 +10601,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10536,7 +10617,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10552,7 +10633,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10568,7 +10649,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="57"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10584,7 +10665,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="54">
         <v>11</v>
       </c>
       <c r="C78" s="13"/>
@@ -10602,7 +10683,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -10618,7 +10699,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -10634,7 +10715,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="53"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -10650,7 +10731,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="53"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10666,7 +10747,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -10682,7 +10763,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="54"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="13"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10698,7 +10779,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="55">
+      <c r="B85" s="51">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10716,7 +10797,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10732,7 +10813,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="56"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10748,7 +10829,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="56"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10764,7 +10845,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10780,7 +10861,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="56"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10796,7 +10877,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="57"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10812,7 +10893,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="52">
+      <c r="B92" s="54">
         <v>13</v>
       </c>
       <c r="C92" s="13"/>
@@ -10830,7 +10911,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="53"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -10846,7 +10927,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="53"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -10862,7 +10943,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="53"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -10878,7 +10959,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -10894,7 +10975,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="53"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -10910,7 +10991,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="54"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="13"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -10926,7 +11007,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="55">
+      <c r="B99" s="51">
         <v>14</v>
       </c>
       <c r="C99" s="15"/>
@@ -10944,7 +11025,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="56"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -10960,7 +11041,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="56"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
@@ -10976,7 +11057,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="56"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -10992,7 +11073,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="56"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
@@ -11008,7 +11089,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="56"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
@@ -11024,7 +11105,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="57"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
@@ -11040,7 +11121,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="52">
+      <c r="B106" s="54">
         <v>15</v>
       </c>
       <c r="C106" s="13"/>
@@ -11058,7 +11139,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -11074,7 +11155,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="53"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -11090,7 +11171,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="53"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -11106,7 +11187,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -11122,7 +11203,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="53"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -11138,7 +11219,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="54"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -11154,7 +11235,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="55">
+      <c r="B113" s="51">
         <v>16</v>
       </c>
       <c r="C113" s="15"/>
@@ -11172,7 +11253,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="56"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
@@ -11188,7 +11269,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="56"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
@@ -11204,7 +11285,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="56"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
@@ -11220,7 +11301,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="56"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
@@ -11236,7 +11317,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="56"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
@@ -11252,7 +11333,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="57"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F19AD-8CC3-4BF9-8262-B7803E52CA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A6EABD-3632-40D3-A44F-46E9ABC87496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -1572,8 +1572,14 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1584,14 +1590,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1927,8 +1927,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1972,7 @@
       <c r="B4" s="18"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2108,7 @@
   <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
     <filterColumn colId="2">
       <filters>
-        <filter val="02_Martes"/>
+        <filter val="03_Miércoles"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2137,8 +2137,8 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,44 +2151,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44749.45909733796</v>
+        <v>44749.758322337962</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="11">
@@ -2305,7 +2305,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="52">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2537,7 +2537,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="6"/>
       <c r="D14" s="20"/>
       <c r="E14" s="5"/>
@@ -2649,7 +2649,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6"/>
       <c r="D15" s="20"/>
       <c r="E15" s="5"/>
@@ -2669,7 +2669,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="6"/>
       <c r="D17" s="20"/>
       <c r="E17" s="5"/>
@@ -2735,7 +2735,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="55">
         <v>3</v>
       </c>
       <c r="C18" s="11">
@@ -2783,7 +2783,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="11">
         <v>5</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="11">
         <v>1</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="11">
         <v>1</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="11"/>
       <c r="D22" s="20"/>
       <c r="E22" s="11"/>
@@ -2941,7 +2941,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="11">
         <v>1</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="11"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12"/>
@@ -3007,7 +3007,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="52">
         <v>4</v>
       </c>
       <c r="C25" s="32">
@@ -3055,7 +3055,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="6"/>
       <c r="D28" s="20"/>
       <c r="E28" s="6"/>
@@ -3167,7 +3167,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="6"/>
       <c r="D30" s="20"/>
       <c r="E30" s="6"/>
@@ -3233,7 +3233,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="55">
         <v>5</v>
       </c>
       <c r="C32" s="31">
@@ -3327,7 +3327,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="11" t="s">
         <v>131</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="11">
         <v>1</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="11"/>
       <c r="D35" s="20"/>
       <c r="E35" s="11"/>
@@ -3439,7 +3439,7 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="11"/>
       <c r="D36" s="20"/>
       <c r="E36" s="11"/>
@@ -3459,7 +3459,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="11">
         <v>1</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="11"/>
       <c r="D38" s="20"/>
       <c r="E38" s="12"/>
@@ -3525,7 +3525,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="52">
         <v>6</v>
       </c>
       <c r="C39" s="49">
@@ -3573,7 +3573,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9">
         <v>6</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="9">
         <v>1</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="5"/>
       <c r="D42" s="20"/>
       <c r="E42" s="5"/>
@@ -3685,7 +3685,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="5"/>
       <c r="D43" s="20"/>
       <c r="E43" s="5"/>
@@ -3705,7 +3705,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="9"/>
       <c r="D45" s="20"/>
       <c r="E45" s="5"/>
@@ -3771,7 +3771,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="55">
         <v>7</v>
       </c>
       <c r="C46" s="50">
@@ -3784,12 +3784,18 @@
       <c r="F46" s="50">
         <v>1</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="50">
+        <v>1</v>
+      </c>
       <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="50">
+        <v>1</v>
+      </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="L46" s="50">
+        <v>1</v>
+      </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="51">
@@ -3803,7 +3809,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="12">
         <v>3</v>
       </c>
@@ -3814,12 +3820,18 @@
       <c r="F47" s="12">
         <v>5</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12">
+        <v>5</v>
+      </c>
       <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="12">
+        <v>5</v>
+      </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="L47" s="12">
+        <v>5</v>
+      </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12">
@@ -3833,7 +3845,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="12">
         <v>1</v>
       </c>
@@ -3844,12 +3856,18 @@
       <c r="F48" s="12">
         <v>1</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="I48" s="12">
+        <v>1</v>
+      </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="L48" s="12">
+        <v>1</v>
+      </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12">
@@ -3863,7 +3881,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="12"/>
       <c r="D49" s="20"/>
       <c r="E49" s="12"/>
@@ -3883,7 +3901,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="54"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="20"/>
       <c r="E50" s="12"/>
@@ -3903,7 +3921,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="12"/>
       <c r="D51" s="20"/>
       <c r="E51" s="12"/>
@@ -3923,7 +3941,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="12">
         <v>1</v>
       </c>
@@ -3934,12 +3952,18 @@
       <c r="F52" s="12">
         <v>1</v>
       </c>
-      <c r="G52" s="12"/>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
       <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="12">
+        <v>1</v>
+      </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
+      <c r="L52" s="12">
+        <v>1</v>
+      </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12">
@@ -3953,7 +3977,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="52">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3975,7 +3999,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="5"/>
       <c r="D54" s="20"/>
       <c r="E54" s="5"/>
@@ -3995,7 +4019,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="6"/>
       <c r="D55" s="19"/>
       <c r="E55" s="6"/>
@@ -4015,7 +4039,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="6"/>
       <c r="D56" s="19"/>
       <c r="E56" s="5"/>
@@ -4035,7 +4059,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="6"/>
       <c r="D57" s="19"/>
       <c r="E57" s="5"/>
@@ -4055,7 +4079,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="6"/>
       <c r="D58" s="19"/>
       <c r="E58" s="5"/>
@@ -4075,7 +4099,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="6"/>
       <c r="D59" s="19"/>
       <c r="E59" s="6"/>
@@ -4095,7 +4119,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="55">
         <v>9</v>
       </c>
       <c r="C60" s="12"/>
@@ -4117,7 +4141,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="12"/>
       <c r="D61" s="20"/>
       <c r="E61" s="12"/>
@@ -4137,7 +4161,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="54"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="12"/>
       <c r="D62" s="20"/>
       <c r="E62" s="12"/>
@@ -4157,7 +4181,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="12"/>
       <c r="D63" s="21"/>
       <c r="E63" s="10"/>
@@ -4177,7 +4201,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="12"/>
       <c r="D64" s="21"/>
       <c r="E64" s="10"/>
@@ -4197,7 +4221,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="21"/>
       <c r="E65" s="10"/>
@@ -4217,7 +4241,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="12"/>
       <c r="D66" s="21"/>
       <c r="E66" s="10"/>
@@ -4237,7 +4261,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="52">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4259,7 +4283,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="5"/>
       <c r="D68" s="20"/>
       <c r="E68" s="5"/>
@@ -4279,7 +4303,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="57"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="5"/>
       <c r="D69" s="20"/>
       <c r="E69" s="5"/>
@@ -4299,7 +4323,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="5"/>
       <c r="D70" s="20"/>
       <c r="E70" s="5"/>
@@ -4319,7 +4343,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="57"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="5"/>
       <c r="D71" s="20"/>
       <c r="E71" s="5"/>
@@ -4339,7 +4363,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="20"/>
       <c r="E72" s="5"/>
@@ -4359,7 +4383,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="58"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="6"/>
       <c r="D73" s="19"/>
       <c r="E73" s="6"/>
@@ -4379,7 +4403,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="55">
         <v>11</v>
       </c>
       <c r="C74" s="12"/>
@@ -4401,7 +4425,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="20"/>
       <c r="E75" s="12"/>
@@ -4421,7 +4445,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="54"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="12"/>
       <c r="D76" s="20"/>
       <c r="E76" s="12"/>
@@ -4441,7 +4465,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="12"/>
       <c r="D77" s="20"/>
       <c r="E77" s="12"/>
@@ -4461,7 +4485,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="54"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="10"/>
       <c r="D78" s="21"/>
       <c r="E78" s="10"/>
@@ -4481,7 +4505,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="12"/>
       <c r="D79" s="20"/>
       <c r="E79" s="12"/>
@@ -4501,7 +4525,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="12"/>
       <c r="D80" s="21"/>
       <c r="E80" s="10"/>
@@ -4521,7 +4545,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="56">
+      <c r="B81" s="52">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4543,7 +4567,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="57"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="5"/>
       <c r="D82" s="20"/>
       <c r="E82" s="5"/>
@@ -4563,7 +4587,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="57"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="5"/>
       <c r="D83" s="20"/>
       <c r="E83" s="5"/>
@@ -4583,7 +4607,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="5"/>
       <c r="D84" s="20"/>
       <c r="E84" s="5"/>
@@ -4603,7 +4627,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="57"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="5"/>
       <c r="D85" s="20"/>
       <c r="E85" s="5"/>
@@ -4623,7 +4647,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="20"/>
       <c r="E86" s="5"/>
@@ -4643,7 +4667,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="58"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="5"/>
       <c r="D87" s="20"/>
       <c r="E87" s="5"/>
@@ -4663,7 +4687,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="53">
+      <c r="B88" s="55">
         <v>13</v>
       </c>
       <c r="C88" s="12"/>
@@ -4685,7 +4709,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="56"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
       <c r="E89" s="12"/>
@@ -4705,7 +4729,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="12"/>
       <c r="D90" s="20"/>
       <c r="E90" s="12"/>
@@ -4725,7 +4749,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="12"/>
       <c r="D91" s="20"/>
       <c r="E91" s="12"/>
@@ -4745,7 +4769,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="54"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="12"/>
       <c r="D92" s="20"/>
       <c r="E92" s="12"/>
@@ -4765,7 +4789,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="12"/>
       <c r="D93" s="20"/>
       <c r="E93" s="12"/>
@@ -4785,7 +4809,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="55"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="12"/>
       <c r="D94" s="21"/>
       <c r="E94" s="10"/>
@@ -4805,7 +4829,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="52">
         <v>14</v>
       </c>
       <c r="C95" s="14"/>
@@ -4827,7 +4851,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="57"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="14"/>
       <c r="D96" s="20"/>
       <c r="E96" s="14"/>
@@ -4847,7 +4871,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="57"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="14"/>
       <c r="D97" s="20"/>
       <c r="E97" s="14"/>
@@ -4867,7 +4891,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="14"/>
       <c r="D98" s="20"/>
       <c r="E98" s="14"/>
@@ -4887,7 +4911,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="57"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="14"/>
       <c r="D99" s="20"/>
       <c r="E99" s="14"/>
@@ -4907,7 +4931,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="14"/>
       <c r="D100" s="20"/>
       <c r="E100" s="14"/>
@@ -4927,7 +4951,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="58"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="14"/>
       <c r="D101" s="20"/>
       <c r="E101" s="14"/>
@@ -4947,7 +4971,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="55">
         <v>15</v>
       </c>
       <c r="C102" s="12"/>
@@ -4969,7 +4993,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="12"/>
       <c r="D103" s="20"/>
       <c r="E103" s="12"/>
@@ -4989,7 +5013,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="54"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="12"/>
       <c r="D104" s="20"/>
       <c r="E104" s="12"/>
@@ -5009,7 +5033,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="12"/>
       <c r="D105" s="20"/>
       <c r="E105" s="12"/>
@@ -5029,7 +5053,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="54"/>
+      <c r="B106" s="56"/>
       <c r="C106" s="12"/>
       <c r="D106" s="20"/>
       <c r="E106" s="12"/>
@@ -5049,7 +5073,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="12"/>
       <c r="D107" s="20"/>
       <c r="E107" s="12"/>
@@ -5069,7 +5093,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="55"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="12"/>
       <c r="D108" s="20"/>
       <c r="E108" s="12"/>
@@ -5089,7 +5113,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="56">
+      <c r="B109" s="52">
         <v>16</v>
       </c>
       <c r="C109" s="14"/>
@@ -5111,7 +5135,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="57"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="14"/>
       <c r="D110" s="20"/>
       <c r="E110" s="14"/>
@@ -5131,7 +5155,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="57"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="14"/>
       <c r="D111" s="20"/>
       <c r="E111" s="14"/>
@@ -5151,7 +5175,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="14"/>
       <c r="D112" s="20"/>
       <c r="E112" s="14"/>
@@ -5171,7 +5195,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="57"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="14"/>
       <c r="D113" s="20"/>
       <c r="E113" s="14"/>
@@ -5191,7 +5215,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="14"/>
       <c r="D114" s="20"/>
       <c r="E114" s="14"/>
@@ -5211,7 +5235,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="58"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="14"/>
       <c r="D115" s="20"/>
       <c r="E115" s="14"/>
@@ -5229,6 +5253,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5237,17 +5272,6 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5261,7 +5285,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5287,7 +5311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
@@ -5320,7 +5344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
@@ -5342,7 +5366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>49</v>
       </c>
@@ -5353,7 +5377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>50</v>
       </c>
@@ -5397,7 +5421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>54</v>
       </c>
@@ -5419,7 +5443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
@@ -5445,7 +5469,8 @@
   <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
     <filterColumn colId="2">
       <filters>
-        <filter val="02_Martes"/>
+        <filter val="01_Lunes &amp; Miércoles"/>
+        <filter val="03_Miércoles"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5478,7 +5503,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5491,44 +5516,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5539,7 +5564,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44749.45909733796</v>
+        <v>44749.758322337962</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -5909,7 +5934,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="52">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5959,7 +5984,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -6007,7 +6032,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -6055,7 +6080,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6075,7 +6100,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6123,7 +6148,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6171,7 +6196,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6473,7 +6498,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="52">
         <v>4</v>
       </c>
       <c r="C27" s="33">
@@ -6523,7 +6548,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6571,7 +6596,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -6619,7 +6644,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6639,7 +6664,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6663,7 +6688,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6687,7 +6712,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="54"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -7008,7 +7033,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="52">
         <v>6</v>
       </c>
       <c r="C41" s="49">
@@ -7058,7 +7083,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="9">
         <v>5</v>
       </c>
@@ -7106,7 +7131,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="9">
         <v>2</v>
       </c>
@@ -7152,7 +7177,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -7196,7 +7221,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7216,7 +7241,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
@@ -7260,7 +7285,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="58"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7292,12 +7317,16 @@
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="46">
+        <v>1</v>
+      </c>
       <c r="G48" s="17"/>
       <c r="H48" s="46">
         <v>1</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="46">
+        <v>1</v>
+      </c>
       <c r="J48" s="46">
         <v>1</v>
       </c>
@@ -7324,12 +7353,16 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="16">
+        <v>5</v>
+      </c>
       <c r="G49" s="17"/>
       <c r="H49" s="16">
         <v>5</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="16">
+        <v>5</v>
+      </c>
       <c r="J49" s="16">
         <v>5</v>
       </c>
@@ -7356,12 +7389,16 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="16">
+        <v>1</v>
+      </c>
       <c r="G50" s="17"/>
       <c r="H50" s="16">
         <v>1</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="16">
+        <v>1</v>
+      </c>
       <c r="J50" s="16">
         <v>1</v>
       </c>
@@ -7386,10 +7423,10 @@
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="17"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
       <c r="L51" s="17"/>
@@ -7406,12 +7443,16 @@
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
       <c r="G52" s="17"/>
       <c r="H52" s="16">
         <v>1</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="16">
+        <v>1</v>
+      </c>
       <c r="J52" s="16">
         <v>1</v>
       </c>
@@ -7436,10 +7477,10 @@
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
       <c r="L53" s="17"/>
@@ -7458,12 +7499,16 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="16">
+        <v>1</v>
+      </c>
       <c r="G54" s="17"/>
       <c r="H54" s="16">
         <v>1</v>
       </c>
-      <c r="I54" s="17"/>
+      <c r="I54" s="16">
+        <v>1</v>
+      </c>
       <c r="J54" s="16">
         <v>1</v>
       </c>
@@ -7484,7 +7529,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="52">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7506,7 +7551,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7526,7 +7571,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7546,7 +7591,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7566,7 +7611,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7586,7 +7631,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7606,7 +7651,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="58"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7768,7 +7813,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="52">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7790,7 +7835,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7810,7 +7855,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="57"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7830,7 +7875,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7850,7 +7895,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7870,7 +7915,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7890,7 +7935,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="58"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -8052,7 +8097,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="52">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -8074,7 +8119,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8094,7 +8139,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="57"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8114,7 +8159,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8134,7 +8179,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8154,7 +8199,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -8174,7 +8219,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="58"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8336,7 +8381,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="56">
+      <c r="B97" s="52">
         <v>14</v>
       </c>
       <c r="C97" s="14"/>
@@ -8358,7 +8403,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -8378,7 +8423,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="57"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -8398,7 +8443,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -8418,7 +8463,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -8438,7 +8483,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="57"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -8458,7 +8503,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="58"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -8620,7 +8665,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="56">
+      <c r="B111" s="52">
         <v>16</v>
       </c>
       <c r="C111" s="14"/>
@@ -8642,7 +8687,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
@@ -8662,7 +8707,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="57"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
@@ -8682,7 +8727,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -8702,7 +8747,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -8722,7 +8767,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="57"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -8742,7 +8787,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="58"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -8760,6 +8805,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8768,17 +8824,6 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8790,7 +8835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
@@ -8883,7 +8928,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
       <c r="C6" s="31">
@@ -8921,7 +8966,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="11">
         <v>7</v>
       </c>
@@ -8957,7 +9002,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -8993,7 +9038,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -9029,7 +9074,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -9065,7 +9110,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="11">
         <v>2</v>
       </c>
@@ -9101,7 +9146,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="11">
         <v>1</v>
       </c>
@@ -9137,7 +9182,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="11">
         <v>1</v>
       </c>
@@ -9173,7 +9218,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="11">
         <v>1</v>
       </c>
@@ -9209,7 +9254,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="52">
         <v>2</v>
       </c>
       <c r="C15" s="32">
@@ -9247,7 +9292,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -9283,7 +9328,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9319,7 +9364,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9355,7 +9400,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9371,7 +9416,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9407,7 +9452,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9423,7 +9468,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="55">
         <v>3</v>
       </c>
       <c r="C22" s="31">
@@ -9461,7 +9506,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="11">
         <v>1</v>
       </c>
@@ -9497,7 +9542,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="11">
         <v>1</v>
       </c>
@@ -9533,7 +9578,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -9549,7 +9594,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -9565,7 +9610,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -9581,7 +9626,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="11">
         <v>1</v>
       </c>
@@ -9607,7 +9652,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="52">
         <v>4</v>
       </c>
       <c r="C29" s="32">
@@ -9645,7 +9690,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9681,7 +9726,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9717,7 +9762,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9733,7 +9778,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9769,7 +9814,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="57"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9805,7 +9850,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9821,7 +9866,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="55">
         <v>5</v>
       </c>
       <c r="C36" s="31">
@@ -9859,7 +9904,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="11">
         <v>2</v>
       </c>
@@ -9895,7 +9940,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="11">
         <v>1</v>
       </c>
@@ -9931,7 +9976,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="11">
         <v>1</v>
       </c>
@@ -9967,7 +10012,7 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9983,7 +10028,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="11">
         <v>1</v>
       </c>
@@ -10019,7 +10064,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -10035,7 +10080,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="52">
         <v>6</v>
       </c>
       <c r="C43" s="49">
@@ -10073,7 +10118,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="9">
         <v>1</v>
       </c>
@@ -10109,7 +10154,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="9">
         <v>1</v>
       </c>
@@ -10145,7 +10190,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -10161,7 +10206,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -10177,7 +10222,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -10193,7 +10238,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="9">
         <v>1</v>
       </c>
@@ -10229,7 +10274,7 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="55">
         <v>7</v>
       </c>
       <c r="C50" s="50">
@@ -10265,7 +10310,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="12">
         <v>1</v>
       </c>
@@ -10299,7 +10344,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="12">
         <v>1</v>
       </c>
@@ -10333,7 +10378,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10349,7 +10394,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -10365,7 +10410,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -10381,7 +10426,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -10397,7 +10442,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="52">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -10415,7 +10460,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -10431,7 +10476,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -10447,7 +10492,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10463,7 +10508,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10479,7 +10524,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="57"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10495,7 +10540,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10511,7 +10556,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="55">
         <v>9</v>
       </c>
       <c r="C64" s="12"/>
@@ -10529,7 +10574,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -10545,7 +10590,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -10561,7 +10606,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="54"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="12"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10577,7 +10622,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="54"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="12"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10593,7 +10638,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="54"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10609,7 +10654,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="55"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="12"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10625,7 +10670,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="52">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10643,7 +10688,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10659,7 +10704,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10675,7 +10720,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10691,7 +10736,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10707,7 +10752,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="57"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10723,7 +10768,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10739,7 +10784,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="55">
         <v>11</v>
       </c>
       <c r="C78" s="12"/>
@@ -10757,7 +10802,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -10773,7 +10818,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -10789,7 +10834,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="54"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -10805,7 +10850,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="54"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10821,7 +10866,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="54"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -10837,7 +10882,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="55"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="12"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10853,7 +10898,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="52">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10871,7 +10916,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10887,7 +10932,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10903,7 +10948,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10919,7 +10964,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10935,7 +10980,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="57"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10951,7 +10996,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="58"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -10967,7 +11012,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="53">
+      <c r="B92" s="55">
         <v>13</v>
       </c>
       <c r="C92" s="12"/>
@@ -10985,7 +11030,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -11001,7 +11046,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -11017,7 +11062,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="54"/>
+      <c r="B95" s="56"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -11033,7 +11078,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="54"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
@@ -11049,7 +11094,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="54"/>
+      <c r="B97" s="56"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -11065,7 +11110,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="55"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="12"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -11081,7 +11126,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="56">
+      <c r="B99" s="52">
         <v>14</v>
       </c>
       <c r="C99" s="14"/>
@@ -11099,7 +11144,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -11115,7 +11160,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -11131,7 +11176,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="57"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -11147,7 +11192,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="57"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -11163,7 +11208,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="57"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -11179,7 +11224,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="58"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -11195,7 +11240,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="55">
         <v>15</v>
       </c>
       <c r="C106" s="12"/>
@@ -11213,7 +11258,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -11229,7 +11274,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -11245,7 +11290,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="56"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -11261,7 +11306,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -11277,7 +11322,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="54"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -11293,7 +11338,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="55"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -11309,7 +11354,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="56">
+      <c r="B113" s="52">
         <v>16</v>
       </c>
       <c r="C113" s="14"/>
@@ -11327,7 +11372,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -11343,7 +11388,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -11359,7 +11404,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="57"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -11375,7 +11420,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="57"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -11391,7 +11436,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="57"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -11407,7 +11452,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="58"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A6EABD-3632-40D3-A44F-46E9ABC87496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87030825-8484-4DEF-92E6-1757DB957FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -1572,14 +1572,8 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,8 +1584,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,11 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1965,14 +1964,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2105,13 +2104,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="03_Miércoles"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A1EA6162-9F94-41F9-B581-C06B3AEA2E9D}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{773B485D-E09A-4C89-9A13-77122C44E990}"/>
@@ -2137,8 +2130,8 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,44 +2144,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2199,7 +2192,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44749.758322337962</v>
+        <v>44753.544625694441</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -2257,7 +2250,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="11">
@@ -2305,7 +2298,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -2351,7 +2344,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -2397,7 +2390,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -2443,7 +2436,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -2489,7 +2482,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="56">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2537,7 +2530,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2583,7 +2576,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2629,7 +2622,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="6"/>
       <c r="D14" s="20"/>
       <c r="E14" s="5"/>
@@ -2649,7 +2642,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="6"/>
       <c r="D15" s="20"/>
       <c r="E15" s="5"/>
@@ -2669,7 +2662,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2715,7 +2708,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="6"/>
       <c r="D17" s="20"/>
       <c r="E17" s="5"/>
@@ -2735,7 +2728,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="53">
         <v>3</v>
       </c>
       <c r="C18" s="11">
@@ -2783,7 +2776,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="11">
         <v>5</v>
       </c>
@@ -2829,7 +2822,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="11">
         <v>1</v>
       </c>
@@ -2875,7 +2868,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="11">
         <v>1</v>
       </c>
@@ -2921,7 +2914,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="56"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="11"/>
       <c r="D22" s="20"/>
       <c r="E22" s="11"/>
@@ -2941,7 +2934,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="11">
         <v>1</v>
       </c>
@@ -2987,7 +2980,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="11"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12"/>
@@ -3007,7 +3000,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="56">
         <v>4</v>
       </c>
       <c r="C25" s="32">
@@ -3055,7 +3048,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3101,7 +3094,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3147,7 +3140,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="6"/>
       <c r="D28" s="20"/>
       <c r="E28" s="6"/>
@@ -3167,7 +3160,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3213,7 +3206,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="6"/>
       <c r="D30" s="20"/>
       <c r="E30" s="6"/>
@@ -3233,7 +3226,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3279,7 +3272,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="53">
         <v>5</v>
       </c>
       <c r="C32" s="31">
@@ -3327,7 +3320,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="11" t="s">
         <v>131</v>
       </c>
@@ -3373,7 +3366,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="11">
         <v>1</v>
       </c>
@@ -3419,7 +3412,7 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="11"/>
       <c r="D35" s="20"/>
       <c r="E35" s="11"/>
@@ -3439,7 +3432,7 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="56"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="11"/>
       <c r="D36" s="20"/>
       <c r="E36" s="11"/>
@@ -3459,7 +3452,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="11">
         <v>1</v>
       </c>
@@ -3505,7 +3498,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="11"/>
       <c r="D38" s="20"/>
       <c r="E38" s="12"/>
@@ -3525,7 +3518,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="56">
         <v>6</v>
       </c>
       <c r="C39" s="49">
@@ -3573,7 +3566,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="9">
         <v>6</v>
       </c>
@@ -3619,7 +3612,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="9">
         <v>1</v>
       </c>
@@ -3665,7 +3658,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="5"/>
       <c r="D42" s="20"/>
       <c r="E42" s="5"/>
@@ -3685,7 +3678,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="5"/>
       <c r="D43" s="20"/>
       <c r="E43" s="5"/>
@@ -3705,7 +3698,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -3751,7 +3744,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="9"/>
       <c r="D45" s="20"/>
       <c r="E45" s="5"/>
@@ -3771,7 +3764,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="53">
         <v>7</v>
       </c>
       <c r="C46" s="50">
@@ -3809,7 +3802,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="12">
         <v>3</v>
       </c>
@@ -3845,7 +3838,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="12">
         <v>1</v>
       </c>
@@ -3881,7 +3874,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="56"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="12"/>
       <c r="D49" s="20"/>
       <c r="E49" s="12"/>
@@ -3901,7 +3894,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="56"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="20"/>
       <c r="E50" s="12"/>
@@ -3921,7 +3914,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="12"/>
       <c r="D51" s="20"/>
       <c r="E51" s="12"/>
@@ -3941,7 +3934,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="12">
         <v>1</v>
       </c>
@@ -3977,7 +3970,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="56">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3999,7 +3992,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="5"/>
       <c r="D54" s="20"/>
       <c r="E54" s="5"/>
@@ -4019,7 +4012,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="6"/>
       <c r="D55" s="19"/>
       <c r="E55" s="6"/>
@@ -4039,7 +4032,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="6"/>
       <c r="D56" s="19"/>
       <c r="E56" s="5"/>
@@ -4059,7 +4052,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="6"/>
       <c r="D57" s="19"/>
       <c r="E57" s="5"/>
@@ -4079,7 +4072,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="6"/>
       <c r="D58" s="19"/>
       <c r="E58" s="5"/>
@@ -4099,7 +4092,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="54"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="6"/>
       <c r="D59" s="19"/>
       <c r="E59" s="6"/>
@@ -4119,7 +4112,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="53">
         <v>9</v>
       </c>
       <c r="C60" s="12"/>
@@ -4141,7 +4134,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="12"/>
       <c r="D61" s="20"/>
       <c r="E61" s="12"/>
@@ -4161,7 +4154,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="12"/>
       <c r="D62" s="20"/>
       <c r="E62" s="12"/>
@@ -4181,7 +4174,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="12"/>
       <c r="D63" s="21"/>
       <c r="E63" s="10"/>
@@ -4201,7 +4194,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="12"/>
       <c r="D64" s="21"/>
       <c r="E64" s="10"/>
@@ -4221,7 +4214,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="21"/>
       <c r="E65" s="10"/>
@@ -4241,7 +4234,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="57"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="12"/>
       <c r="D66" s="21"/>
       <c r="E66" s="10"/>
@@ -4261,7 +4254,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="56">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4283,7 +4276,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="5"/>
       <c r="D68" s="20"/>
       <c r="E68" s="5"/>
@@ -4303,7 +4296,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="5"/>
       <c r="D69" s="20"/>
       <c r="E69" s="5"/>
@@ -4323,7 +4316,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="20"/>
       <c r="E70" s="5"/>
@@ -4343,7 +4336,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="20"/>
       <c r="E71" s="5"/>
@@ -4363,7 +4356,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="20"/>
       <c r="E72" s="5"/>
@@ -4383,7 +4376,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="54"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="6"/>
       <c r="D73" s="19"/>
       <c r="E73" s="6"/>
@@ -4403,7 +4396,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="55">
+      <c r="B74" s="53">
         <v>11</v>
       </c>
       <c r="C74" s="12"/>
@@ -4425,7 +4418,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="20"/>
       <c r="E75" s="12"/>
@@ -4445,7 +4438,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="12"/>
       <c r="D76" s="20"/>
       <c r="E76" s="12"/>
@@ -4465,7 +4458,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="56"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="12"/>
       <c r="D77" s="20"/>
       <c r="E77" s="12"/>
@@ -4485,7 +4478,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="56"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="10"/>
       <c r="D78" s="21"/>
       <c r="E78" s="10"/>
@@ -4505,7 +4498,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="12"/>
       <c r="D79" s="20"/>
       <c r="E79" s="12"/>
@@ -4525,7 +4518,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="57"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="12"/>
       <c r="D80" s="21"/>
       <c r="E80" s="10"/>
@@ -4545,7 +4538,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="56">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4567,7 +4560,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="53"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="5"/>
       <c r="D82" s="20"/>
       <c r="E82" s="5"/>
@@ -4587,7 +4580,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="5"/>
       <c r="D83" s="20"/>
       <c r="E83" s="5"/>
@@ -4607,7 +4600,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="20"/>
       <c r="E84" s="5"/>
@@ -4627,7 +4620,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="20"/>
       <c r="E85" s="5"/>
@@ -4647,7 +4640,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="20"/>
       <c r="E86" s="5"/>
@@ -4667,7 +4660,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="5"/>
       <c r="D87" s="20"/>
       <c r="E87" s="5"/>
@@ -4687,7 +4680,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="55">
+      <c r="B88" s="53">
         <v>13</v>
       </c>
       <c r="C88" s="12"/>
@@ -4709,7 +4702,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
       <c r="E89" s="12"/>
@@ -4729,7 +4722,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="56"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="12"/>
       <c r="D90" s="20"/>
       <c r="E90" s="12"/>
@@ -4749,7 +4742,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="56"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="12"/>
       <c r="D91" s="20"/>
       <c r="E91" s="12"/>
@@ -4769,7 +4762,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="56"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="12"/>
       <c r="D92" s="20"/>
       <c r="E92" s="12"/>
@@ -4789,7 +4782,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="12"/>
       <c r="D93" s="20"/>
       <c r="E93" s="12"/>
@@ -4809,7 +4802,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="57"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="12"/>
       <c r="D94" s="21"/>
       <c r="E94" s="10"/>
@@ -4829,7 +4822,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B95" s="56">
         <v>14</v>
       </c>
       <c r="C95" s="14"/>
@@ -4851,7 +4844,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="14"/>
       <c r="D96" s="20"/>
       <c r="E96" s="14"/>
@@ -4871,7 +4864,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="53"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="14"/>
       <c r="D97" s="20"/>
       <c r="E97" s="14"/>
@@ -4891,7 +4884,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="14"/>
       <c r="D98" s="20"/>
       <c r="E98" s="14"/>
@@ -4911,7 +4904,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="14"/>
       <c r="D99" s="20"/>
       <c r="E99" s="14"/>
@@ -4931,7 +4924,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="14"/>
       <c r="D100" s="20"/>
       <c r="E100" s="14"/>
@@ -4951,7 +4944,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="54"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="14"/>
       <c r="D101" s="20"/>
       <c r="E101" s="14"/>
@@ -4971,7 +4964,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="55">
+      <c r="B102" s="53">
         <v>15</v>
       </c>
       <c r="C102" s="12"/>
@@ -4993,7 +4986,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="56"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="12"/>
       <c r="D103" s="20"/>
       <c r="E103" s="12"/>
@@ -5013,7 +5006,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="56"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="12"/>
       <c r="D104" s="20"/>
       <c r="E104" s="12"/>
@@ -5033,7 +5026,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="56"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="12"/>
       <c r="D105" s="20"/>
       <c r="E105" s="12"/>
@@ -5053,7 +5046,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="56"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="12"/>
       <c r="D106" s="20"/>
       <c r="E106" s="12"/>
@@ -5073,7 +5066,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="56"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="12"/>
       <c r="D107" s="20"/>
       <c r="E107" s="12"/>
@@ -5093,7 +5086,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="57"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="12"/>
       <c r="D108" s="20"/>
       <c r="E108" s="12"/>
@@ -5113,7 +5106,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="52">
+      <c r="B109" s="56">
         <v>16</v>
       </c>
       <c r="C109" s="14"/>
@@ -5135,7 +5128,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="14"/>
       <c r="D110" s="20"/>
       <c r="E110" s="14"/>
@@ -5155,7 +5148,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="53"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="14"/>
       <c r="D111" s="20"/>
       <c r="E111" s="14"/>
@@ -5175,7 +5168,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="14"/>
       <c r="D112" s="20"/>
       <c r="E112" s="14"/>
@@ -5195,7 +5188,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="14"/>
       <c r="D113" s="20"/>
       <c r="E113" s="14"/>
@@ -5215,7 +5208,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="14"/>
       <c r="D114" s="20"/>
       <c r="E114" s="14"/>
@@ -5235,7 +5228,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="54"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="14"/>
       <c r="D115" s="20"/>
       <c r="E115" s="14"/>
@@ -5253,17 +5246,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5272,6 +5254,17 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5281,11 +5274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5322,7 +5314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
@@ -5333,7 +5325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -5355,7 +5347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
@@ -5366,7 +5358,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>49</v>
       </c>
@@ -5388,7 +5380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
@@ -5399,7 +5391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
@@ -5410,7 +5402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>53</v>
       </c>
@@ -5421,7 +5413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>54</v>
       </c>
@@ -5432,7 +5424,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>55</v>
       </c>
@@ -5443,7 +5435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
@@ -5454,7 +5446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
@@ -5466,14 +5458,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="01_Lunes &amp; Miércoles"/>
-        <filter val="03_Miércoles"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{DD95A364-B1CC-4080-9273-D870CFBF8027}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{AFF5CC48-0E1B-447C-A9B8-DC1E941AE79B}"/>
@@ -5500,10 +5485,10 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,44 +5501,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5564,7 +5549,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44749.758322337962</v>
+        <v>44753.544625694441</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -5934,7 +5919,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="56">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5984,7 +5969,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -6032,7 +6017,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -6080,7 +6065,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6100,7 +6085,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6148,7 +6133,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6196,7 +6181,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6498,7 +6483,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="56">
         <v>4</v>
       </c>
       <c r="C27" s="33">
@@ -6548,7 +6533,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6596,7 +6581,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -6644,7 +6629,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6664,7 +6649,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6688,7 +6673,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6712,7 +6697,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="58"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -7033,7 +7018,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="56">
         <v>6</v>
       </c>
       <c r="C41" s="49">
@@ -7083,7 +7068,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="9">
         <v>5</v>
       </c>
@@ -7131,7 +7116,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="9">
         <v>2</v>
       </c>
@@ -7144,7 +7129,9 @@
       <c r="F43" s="9">
         <v>2</v>
       </c>
-      <c r="G43" s="9"/>
+      <c r="G43" s="9">
+        <v>2</v>
+      </c>
       <c r="H43" s="9">
         <v>2</v>
       </c>
@@ -7177,7 +7164,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -7221,7 +7208,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7241,7 +7228,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
@@ -7285,7 +7272,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7529,7 +7516,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="56">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7551,7 +7538,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7571,7 +7558,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7591,7 +7578,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7611,7 +7598,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7631,7 +7618,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7651,7 +7638,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7813,7 +7800,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="56">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7835,7 +7822,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7855,7 +7842,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7875,7 +7862,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7895,7 +7882,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7915,7 +7902,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7935,7 +7922,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -8097,7 +8084,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="56">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -8119,7 +8106,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8139,7 +8126,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8159,7 +8146,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8179,7 +8166,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8199,7 +8186,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -8219,7 +8206,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8381,7 +8368,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="56">
         <v>14</v>
       </c>
       <c r="C97" s="14"/>
@@ -8403,7 +8390,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -8423,7 +8410,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -8443,7 +8430,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -8463,7 +8450,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -8483,7 +8470,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -8503,7 +8490,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -8665,7 +8652,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="52">
+      <c r="B111" s="56">
         <v>16</v>
       </c>
       <c r="C111" s="14"/>
@@ -8687,7 +8674,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
@@ -8707,7 +8694,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
@@ -8727,7 +8714,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -8747,7 +8734,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -8767,7 +8754,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -8787,7 +8774,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="54"/>
+      <c r="B117" s="58"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -8805,17 +8792,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8824,6 +8800,17 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8928,7 +8915,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="31">
@@ -8966,7 +8953,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="11">
         <v>7</v>
       </c>
@@ -9002,7 +8989,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -9038,7 +9025,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -9074,7 +9061,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -9110,7 +9097,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="11">
         <v>2</v>
       </c>
@@ -9146,7 +9133,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="11">
         <v>1</v>
       </c>
@@ -9182,7 +9169,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="11">
         <v>1</v>
       </c>
@@ -9218,7 +9205,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="11">
         <v>1</v>
       </c>
@@ -9254,7 +9241,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="56">
         <v>2</v>
       </c>
       <c r="C15" s="32">
@@ -9292,7 +9279,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -9328,7 +9315,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9364,7 +9351,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9400,7 +9387,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9416,7 +9403,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9452,7 +9439,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9468,7 +9455,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="53">
         <v>3</v>
       </c>
       <c r="C22" s="31">
@@ -9506,7 +9493,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="56"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="11">
         <v>1</v>
       </c>
@@ -9542,7 +9529,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="56"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="11">
         <v>1</v>
       </c>
@@ -9578,7 +9565,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="56"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -9594,7 +9581,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -9610,7 +9597,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -9626,7 +9613,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="11">
         <v>1</v>
       </c>
@@ -9652,7 +9639,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="56">
         <v>4</v>
       </c>
       <c r="C29" s="32">
@@ -9690,7 +9677,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9726,7 +9713,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9762,7 +9749,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9778,7 +9765,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9814,7 +9801,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9850,7 +9837,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9866,7 +9853,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="55">
+      <c r="B36" s="53">
         <v>5</v>
       </c>
       <c r="C36" s="31">
@@ -9904,7 +9891,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="11">
         <v>2</v>
       </c>
@@ -9940,7 +9927,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="11">
         <v>1</v>
       </c>
@@ -9976,7 +9963,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="11">
         <v>1</v>
       </c>
@@ -10012,7 +9999,7 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -10028,7 +10015,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="11">
         <v>1</v>
       </c>
@@ -10064,7 +10051,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -10080,7 +10067,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="56">
         <v>6</v>
       </c>
       <c r="C43" s="49">
@@ -10118,7 +10105,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="9">
         <v>1</v>
       </c>
@@ -10154,7 +10141,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="9">
         <v>1</v>
       </c>
@@ -10190,7 +10177,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -10206,7 +10193,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -10222,7 +10209,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -10238,7 +10225,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="9">
         <v>1</v>
       </c>
@@ -10274,7 +10261,7 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="53">
         <v>7</v>
       </c>
       <c r="C50" s="50">
@@ -10310,7 +10297,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="12">
         <v>1</v>
       </c>
@@ -10344,7 +10331,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="12">
         <v>1</v>
       </c>
@@ -10378,7 +10365,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10394,7 +10381,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -10410,7 +10397,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -10426,7 +10413,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -10442,7 +10429,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="56">
         <v>8</v>
       </c>
       <c r="C57" s="5"/>
@@ -10460,7 +10447,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -10476,7 +10463,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -10492,7 +10479,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10508,7 +10495,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10524,7 +10511,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10540,7 +10527,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10556,7 +10543,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="53">
         <v>9</v>
       </c>
       <c r="C64" s="12"/>
@@ -10574,7 +10561,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -10590,7 +10577,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="56"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -10606,7 +10593,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="56"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="12"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10622,7 +10609,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="12"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10638,7 +10625,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="56"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10654,7 +10641,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="12"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10670,7 +10657,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="56">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10688,7 +10675,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10704,7 +10691,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10720,7 +10707,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10736,7 +10723,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10752,7 +10739,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="53"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10768,7 +10755,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10784,7 +10771,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="55">
+      <c r="B78" s="53">
         <v>11</v>
       </c>
       <c r="C78" s="12"/>
@@ -10802,7 +10789,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -10818,7 +10805,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="56"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -10834,7 +10821,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="56"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -10850,7 +10837,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="56"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10866,7 +10853,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="56"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -10882,7 +10869,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="12"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10898,7 +10885,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="52">
+      <c r="B85" s="56">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10916,7 +10903,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -10932,7 +10919,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -10948,7 +10935,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -10964,7 +10951,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -10980,7 +10967,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10996,7 +10983,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -11012,7 +10999,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="55">
+      <c r="B92" s="53">
         <v>13</v>
       </c>
       <c r="C92" s="12"/>
@@ -11030,7 +11017,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -11046,7 +11033,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="56"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -11062,7 +11049,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="56"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -11078,7 +11065,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="56"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
@@ -11094,7 +11081,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="56"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -11110,7 +11097,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="12"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -11126,7 +11113,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="52">
+      <c r="B99" s="56">
         <v>14</v>
       </c>
       <c r="C99" s="14"/>
@@ -11144,7 +11131,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -11160,7 +11147,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -11176,7 +11163,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -11192,7 +11179,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -11208,7 +11195,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -11224,7 +11211,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -11240,7 +11227,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="55">
+      <c r="B106" s="53">
         <v>15</v>
       </c>
       <c r="C106" s="12"/>
@@ -11258,7 +11245,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="56"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -11274,7 +11261,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="56"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -11290,7 +11277,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="56"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -11306,7 +11293,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="56"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -11322,7 +11309,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="56"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -11338,7 +11325,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -11354,7 +11341,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="52">
+      <c r="B113" s="56">
         <v>16</v>
       </c>
       <c r="C113" s="14"/>
@@ -11372,7 +11359,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -11388,7 +11375,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -11404,7 +11391,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -11420,7 +11407,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="53"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -11436,7 +11423,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="53"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -11452,7 +11439,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="54"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87030825-8484-4DEF-92E6-1757DB957FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BCD9F-1349-4B75-88F1-ED1FB50629A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="132">
   <si>
     <t>CURSO</t>
   </si>
@@ -1924,6 +1924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1964,7 +1965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2104,7 +2105,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
+  <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="01_Lunes"/>
+        <filter val="02_Martes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A1EA6162-9F94-41F9-B581-C06B3AEA2E9D}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{773B485D-E09A-4C89-9A13-77122C44E990}"/>
@@ -2130,8 +2138,8 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:P3"/>
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2200,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44753.544625694441</v>
+        <v>44755.876619907409</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -5274,10 +5282,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -5336,7 +5345,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
@@ -5369,7 +5378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>50</v>
       </c>
@@ -5402,7 +5411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>53</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>55</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
@@ -5458,7 +5467,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}"/>
+  <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="01_Lunes"/>
+        <filter val="01_Lunes &amp; Miércoles"/>
+        <filter val="02_Martes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{DD95A364-B1CC-4080-9273-D870CFBF8027}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{AFF5CC48-0E1B-447C-A9B8-DC1E941AE79B}"/>
@@ -5488,7 +5505,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,7 +5566,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44753.544625694441</v>
+        <v>44755.876619907409</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -8820,11 +8837,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8836,7 +8853,7 @@
     <col min="5" max="12" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
@@ -8852,7 +8869,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>43</v>
       </c>
@@ -8868,12 +8885,20 @@
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="59">
+        <f ca="1">NOW()</f>
+        <v>44755.876619907409</v>
+      </c>
+      <c r="M3" s="60"/>
+    </row>
+    <row r="5" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8911,7 +8936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -8949,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -8985,7 +9010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -9021,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
@@ -9057,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -9093,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -9129,7 +9154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -9165,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -9201,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -9237,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -9275,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -10273,7 +10298,9 @@
       <c r="E50" s="50">
         <v>1</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="50">
+        <v>1</v>
+      </c>
       <c r="G50" s="50">
         <v>1</v>
       </c>
@@ -10307,7 +10334,9 @@
       <c r="E51" s="12">
         <v>1</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
       <c r="G51" s="12">
         <v>1</v>
       </c>
@@ -10341,7 +10370,9 @@
       <c r="E52" s="12">
         <v>1</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
       <c r="G52" s="12">
         <v>1</v>
       </c>
@@ -10432,48 +10463,102 @@
       <c r="B57" s="56">
         <v>8</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="C57" s="33">
+        <v>1</v>
+      </c>
+      <c r="D57" s="33">
+        <v>1</v>
+      </c>
+      <c r="E57" s="33">
+        <v>1</v>
+      </c>
+      <c r="F57" s="33">
+        <v>1</v>
+      </c>
+      <c r="G57" s="33">
+        <v>1</v>
+      </c>
+      <c r="H57" s="33">
+        <v>1</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33">
+        <v>1</v>
+      </c>
+      <c r="K57" s="33">
+        <v>1</v>
+      </c>
+      <c r="L57" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="57"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2</v>
+      </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="J58" s="5">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5">
+        <v>2</v>
+      </c>
+      <c r="L58" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="57"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -11452,11 +11537,7 @@
       <c r="L119" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B35"/>
+  <mergeCells count="17">
     <mergeCell ref="B113:B119"/>
     <mergeCell ref="B36:B42"/>
     <mergeCell ref="B43:B49"/>
@@ -11469,6 +11550,11 @@
     <mergeCell ref="B92:B98"/>
     <mergeCell ref="B99:B105"/>
     <mergeCell ref="B106:B112"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BCD9F-1349-4B75-88F1-ED1FB50629A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D742A1E1-692F-43F1-A174-2F65C8D47918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
@@ -1927,7 +1927,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1972,7 +1972,7 @@
       <c r="B4" s="18"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2109,7 +2109,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="01_Lunes"/>
-        <filter val="02_Martes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2200,7 +2199,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44755.876619907409</v>
+        <v>44761.890328125002</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -5286,7 +5285,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5367,7 +5366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>49</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>54</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
@@ -5472,7 +5471,6 @@
       <filters>
         <filter val="01_Lunes"/>
         <filter val="01_Lunes &amp; Miércoles"/>
-        <filter val="02_Martes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5566,7 +5564,7 @@
       </c>
       <c r="O3" s="59">
         <f ca="1">NOW()</f>
-        <v>44755.876619907409</v>
+        <v>44761.890328125002</v>
       </c>
       <c r="P3" s="60"/>
     </row>
@@ -8839,9 +8837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8894,7 +8892,7 @@
       </c>
       <c r="L3" s="59">
         <f ca="1">NOW()</f>
-        <v>44755.876619907409</v>
+        <v>44761.890328125002</v>
       </c>
       <c r="M3" s="60"/>
     </row>
@@ -10481,7 +10479,9 @@
       <c r="H57" s="33">
         <v>1</v>
       </c>
-      <c r="I57" s="33"/>
+      <c r="I57" s="33">
+        <v>1</v>
+      </c>
       <c r="J57" s="33">
         <v>1</v>
       </c>
@@ -10515,7 +10515,9 @@
       <c r="H58" s="5">
         <v>2</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5">
+        <v>2</v>
+      </c>
       <c r="J58" s="5">
         <v>2</v>
       </c>
@@ -10549,7 +10551,9 @@
       <c r="H59" s="6">
         <v>1</v>
       </c>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6">
+        <v>1</v>
+      </c>
       <c r="J59" s="6">
         <v>1</v>
       </c>

--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -8,22 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D742A1E1-692F-43F1-A174-2F65C8D47918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F180E25-553C-4632-ACDF-2B628AEAB3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA (links)" sheetId="1" r:id="rId1"/>
-    <sheet name="rosmi (Total)" sheetId="8" r:id="rId2"/>
-    <sheet name="JIMMY (links)" sheetId="17" r:id="rId3"/>
-    <sheet name="JIMMY (Total)" sheetId="12" r:id="rId4"/>
-    <sheet name="Manuel (Total)" sheetId="16" r:id="rId5"/>
-    <sheet name="CAMBRIDGE" sheetId="11" r:id="rId6"/>
-    <sheet name="Recursos &amp; Videos" sheetId="15" r:id="rId7"/>
+    <sheet name="ROSMAIRA (cambridge)" sheetId="18" r:id="rId2"/>
+    <sheet name="rosmi (Total)" sheetId="8" r:id="rId3"/>
+    <sheet name="JIMMY (links)" sheetId="17" r:id="rId4"/>
+    <sheet name="JIMMY (CAMBRIDGE)" sheetId="19" r:id="rId5"/>
+    <sheet name="JIMMY (Total)" sheetId="12" r:id="rId6"/>
+    <sheet name="Manuel (Total)" sheetId="16" r:id="rId7"/>
+    <sheet name="MANUEL (CAMBRIDGE ASSIGNMENTS)" sheetId="11" r:id="rId8"/>
+    <sheet name="MANUEL (CAMBRIDGE)" sheetId="20" r:id="rId9"/>
+    <sheet name="Recursos &amp; Videos" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CAMBRIDGE!$A$5:$B$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'JIMMY (links)'!$A$2:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JIMMY (CAMBRIDGE)'!$A$2:$B$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'JIMMY (links)'!$A$2:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'MANUEL (CAMBRIDGE ASSIGNMENTS)'!$A$5:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'MANUEL (CAMBRIDGE)'!$A$5:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ROSMAIRA (cambridge)'!$A$2:$B$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ROSMAIRA (links)'!$A$2:$C$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -774,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="170">
   <si>
     <t>CURSO</t>
   </si>
@@ -1242,6 +1248,120 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/admin/admin/org_cup_Eb4Ymnjz6uladWC4f3Yya/profile/f8573aaa-183d-4c54-8f28-8de9e4c5be9d/clms_6563657</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/66476f15-8c6b-4b2e-a257-3435c1a2eff0/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/1586e518-87e0-4d6e-82b0-8f3e104f131c/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/c4113e45-564b-4590-9e0f-a95797084ad5/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/85a39a6f-ade6-4052-a676-e2b10b80f286/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/728b42a5-e6ea-40e1-902e-475b4b213df6/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/f48553b9-0145-44f3-aff6-5b373d1ab5b0/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/496f4a5e-ead6-429b-a1cb-0e6c196c0a9f/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/5ab36888-1286-4eb8-a3bc-6c66604c35bc/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/e8f0558d-cad3-4b11-9ec0-5434200e7ccd/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/8c135602-16d8-4384-8052-136cefc00345/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/38267a70-0f2e-4d2b-a5e2-f906f98fc21e/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/a3f63d34-ff9e-435c-bfbc-888f0e2f00ca/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/ecabcece-e8b5-4f88-b9a5-8d023d030e37/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/c86a983d-47fa-4e1c-ac7b-c5855a1a7125/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/67981999-0921-4f9b-b8ff-57cbb1892bb3/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/89436291-8b34-4138-bf03-a53fd2173126/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/b498f78b-a5a4-412d-a172-ef72847e43ac/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/24b8bde6-0187-4798-b014-fbdd4dd9de0b/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/d6221ddf-78ff-4e80-90dd-8a64e8005027/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/b181bfd8-4421-436a-b7c4-05f72e587a9f/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/4e4fc81f-22bc-40ef-9058-4b60edc81098/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/9cfb78c9-772f-4476-97bd-fd23bf5795ec/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/7565a975-ad8a-467d-9d75-b3ea78db5e70/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/52a81960-dace-4721-8a8a-13bd190cb057/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/143ed7a4-515a-4bca-beb2-db87c402e675/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/484defd1-f609-46b3-b8e1-128266a3b248/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/1b497f14-cd0b-4fe6-a7da-f7dc57511ab3/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/e143f77c-02c6-4f6d-8fd8-9abf74549a24/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/d2b10892-13fa-4b9f-9cf6-2489b0bbe771/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/1e1ffd7f-1b65-4803-b766-b39b3d26174a/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/c91aa891-da5a-4b67-bb2d-c9e65fcde987/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/49022f34-b3c4-4d2e-b371-8ff33d0bc809/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/e10b7f2b-b66a-4367-85da-a824b441039e/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/5a9fc5b3-8385-443f-8fd2-f0062f7b7759/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/8716aa89-965e-4479-872a-69f8cb2d48e3/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/b077f7b4-6b71-4c38-8f20-07af235f7dae/view/classdata</t>
+  </si>
+  <si>
+    <t>https://www.cambridgeone.org/class/teacher/org_cup_Eb4Ymnjz6uladWC4f3Yya/class/3a659f3d-66af-4385-bbcc-d7184ef8f2de/view/classdata</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1572,8 +1692,19 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1584,14 +1715,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1927,8 +2052,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,7 +2079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2005,7 +2130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2038,7 +2163,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2185,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2093,7 +2218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +2233,8 @@
   <autoFilter ref="A2:C16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
     <filterColumn colId="2">
       <filters>
-        <filter val="01_Lunes"/>
+        <filter val="04_Jueves"/>
+        <filter val="05_Viernes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2132,7 +2258,1198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B871542-77C7-4D36-899B-1886E99D7469}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <f>IF(C4="C",D4," ")</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>IF(C4="C",G4," ")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E17" si="0">IF(C6="C",D6," ")</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H17" si="1">IF(C6="C",G6," ")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f>IF(C24="C",D24," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="str">
+        <f>IF(C24="C",G24," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <f>IF(C25="C",D25," ")</f>
+        <v>5</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f>IF(C25="C",G25," ")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ref="E26:E37" si="2">IF(C26="C",D26," ")</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" ref="H26:H37" si="3">IF(C26="C",G26," ")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f>IF(C43="C",D43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f>IF(C43="C",G43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <f>IF(C44="C",D44," ")</f>
+        <v>2</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <f>IF(C44="C",G44," ")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" ref="E45:E52" si="4">IF(C45="C",D45," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f t="shared" ref="H45:H52" si="5">IF(C45="C",G45," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4267C757-179F-4E0A-B1C2-A8310FFCAC78}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="141.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:B16" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{8E9C00B7-FC6E-4AC8-819A-C2C870D51614}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7BD1428A-26F1-4A67-AAC4-AC3776F3BACD}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{A51A596B-B8D2-4F10-BF86-FABBDBDDEA4B}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{8562C9AD-2D0F-4225-A0CD-E69BE662C27D}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{714BB266-2F40-4009-AD53-6EAF2DD80F74}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{E9AA9AB9-33C9-4C57-8C8F-00E26B5A8E64}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{39C02B92-911C-4418-9E0C-DDE3DA5063A8}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{4C76018D-D58F-4F96-BABF-29D21BF5D2A4}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{6084BB46-103A-447E-978C-101D346AAE18}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{B66DE408-B20F-4FCD-87DD-9FEAAAFE6F9E}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{E94928C5-4D2F-41BF-8067-4448639B9CA9}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{6D4F4B40-1FDF-4533-896E-3CBBB45AD56D}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{AFE0A71C-C02E-4201-8E73-099D2A2A1F79}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{27B135EF-57AF-417B-A8F8-AEB599B0A2E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E407F4D9-7028-45A1-818A-121725CB1C2D}">
   <dimension ref="A1:P115"/>
   <sheetViews>
@@ -2151,44 +3468,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2197,11 +3514,11 @@
       <c r="N3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="62">
         <f ca="1">NOW()</f>
-        <v>44761.890328125002</v>
-      </c>
-      <c r="P3" s="60"/>
+        <v>44768.866413310185</v>
+      </c>
+      <c r="P3" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2257,7 +3574,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="58">
         <v>1</v>
       </c>
       <c r="C6" s="11">
@@ -2305,7 +3622,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -2351,7 +3668,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -2397,7 +3714,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -2443,7 +3760,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -2489,7 +3806,7 @@
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>2</v>
       </c>
       <c r="C11" s="6">
@@ -2537,7 +3854,7 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
@@ -2583,7 +3900,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -2629,7 +3946,7 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="6"/>
       <c r="D14" s="20"/>
       <c r="E14" s="5"/>
@@ -2649,7 +3966,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="6"/>
       <c r="D15" s="20"/>
       <c r="E15" s="5"/>
@@ -2669,7 +3986,7 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2715,7 +4032,7 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="6"/>
       <c r="D17" s="20"/>
       <c r="E17" s="5"/>
@@ -2735,7 +4052,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="58">
         <v>3</v>
       </c>
       <c r="C18" s="11">
@@ -2783,7 +4100,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="11">
         <v>5</v>
       </c>
@@ -2829,7 +4146,7 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="11">
         <v>1</v>
       </c>
@@ -2875,7 +4192,7 @@
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="11">
         <v>1</v>
       </c>
@@ -2921,7 +4238,7 @@
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="11"/>
       <c r="D22" s="20"/>
       <c r="E22" s="11"/>
@@ -2941,7 +4258,7 @@
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="11">
         <v>1</v>
       </c>
@@ -2987,7 +4304,7 @@
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="11"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12"/>
@@ -3007,7 +4324,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>4</v>
       </c>
       <c r="C25" s="32">
@@ -3055,7 +4372,7 @@
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
@@ -3101,7 +4418,7 @@
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="6">
         <v>1</v>
       </c>
@@ -3147,7 +4464,7 @@
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="6"/>
       <c r="D28" s="20"/>
       <c r="E28" s="6"/>
@@ -3167,7 +4484,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3213,7 +4530,7 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="6"/>
       <c r="D30" s="20"/>
       <c r="E30" s="6"/>
@@ -3233,7 +4550,7 @@
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -3279,7 +4596,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="58">
         <v>5</v>
       </c>
       <c r="C32" s="31">
@@ -3327,7 +4644,7 @@
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="11" t="s">
         <v>131</v>
       </c>
@@ -3373,7 +4690,7 @@
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="11">
         <v>1</v>
       </c>
@@ -3419,7 +4736,7 @@
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="11"/>
       <c r="D35" s="20"/>
       <c r="E35" s="11"/>
@@ -3439,7 +4756,7 @@
       <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="11"/>
       <c r="D36" s="20"/>
       <c r="E36" s="11"/>
@@ -3459,7 +4776,7 @@
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="11">
         <v>1</v>
       </c>
@@ -3505,7 +4822,7 @@
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="11"/>
       <c r="D38" s="20"/>
       <c r="E38" s="12"/>
@@ -3525,7 +4842,7 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="55">
         <v>6</v>
       </c>
       <c r="C39" s="49">
@@ -3573,7 +4890,7 @@
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="9">
         <v>6</v>
       </c>
@@ -3619,7 +4936,7 @@
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="9">
         <v>1</v>
       </c>
@@ -3665,7 +4982,7 @@
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="5"/>
       <c r="D42" s="20"/>
       <c r="E42" s="5"/>
@@ -3685,7 +5002,7 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="5"/>
       <c r="D43" s="20"/>
       <c r="E43" s="5"/>
@@ -3705,7 +5022,7 @@
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -3751,7 +5068,7 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="9"/>
       <c r="D45" s="20"/>
       <c r="E45" s="5"/>
@@ -3771,7 +5088,7 @@
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="58">
         <v>7</v>
       </c>
       <c r="C46" s="50">
@@ -3809,7 +5126,7 @@
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="12">
         <v>3</v>
       </c>
@@ -3845,7 +5162,7 @@
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="12">
         <v>1</v>
       </c>
@@ -3881,7 +5198,7 @@
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="12"/>
       <c r="D49" s="20"/>
       <c r="E49" s="12"/>
@@ -3901,7 +5218,7 @@
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="54"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="12"/>
       <c r="D50" s="20"/>
       <c r="E50" s="12"/>
@@ -3921,7 +5238,7 @@
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="12"/>
       <c r="D51" s="20"/>
       <c r="E51" s="12"/>
@@ -3941,7 +5258,7 @@
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="12">
         <v>1</v>
       </c>
@@ -3977,7 +5294,7 @@
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="55">
         <v>8</v>
       </c>
       <c r="C53" s="5"/>
@@ -3999,7 +5316,7 @@
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="5"/>
       <c r="D54" s="20"/>
       <c r="E54" s="5"/>
@@ -4019,7 +5336,7 @@
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="6"/>
       <c r="D55" s="19"/>
       <c r="E55" s="6"/>
@@ -4039,7 +5356,7 @@
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="6"/>
       <c r="D56" s="19"/>
       <c r="E56" s="5"/>
@@ -4059,7 +5376,7 @@
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="6"/>
       <c r="D57" s="19"/>
       <c r="E57" s="5"/>
@@ -4079,7 +5396,7 @@
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="6"/>
       <c r="D58" s="19"/>
       <c r="E58" s="5"/>
@@ -4099,7 +5416,7 @@
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="6"/>
       <c r="D59" s="19"/>
       <c r="E59" s="6"/>
@@ -4119,7 +5436,7 @@
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="58">
         <v>9</v>
       </c>
       <c r="C60" s="12"/>
@@ -4141,7 +5458,7 @@
       <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="12"/>
       <c r="D61" s="20"/>
       <c r="E61" s="12"/>
@@ -4161,7 +5478,7 @@
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="54"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="12"/>
       <c r="D62" s="20"/>
       <c r="E62" s="12"/>
@@ -4181,7 +5498,7 @@
       <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="12"/>
       <c r="D63" s="21"/>
       <c r="E63" s="10"/>
@@ -4201,7 +5518,7 @@
       <c r="A64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="12"/>
       <c r="D64" s="21"/>
       <c r="E64" s="10"/>
@@ -4221,7 +5538,7 @@
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="12"/>
       <c r="D65" s="21"/>
       <c r="E65" s="10"/>
@@ -4241,7 +5558,7 @@
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="12"/>
       <c r="D66" s="21"/>
       <c r="E66" s="10"/>
@@ -4261,7 +5578,7 @@
       <c r="A67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="55">
         <v>10</v>
       </c>
       <c r="C67" s="5"/>
@@ -4283,7 +5600,7 @@
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="5"/>
       <c r="D68" s="20"/>
       <c r="E68" s="5"/>
@@ -4303,7 +5620,7 @@
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="57"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="5"/>
       <c r="D69" s="20"/>
       <c r="E69" s="5"/>
@@ -4323,7 +5640,7 @@
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="5"/>
       <c r="D70" s="20"/>
       <c r="E70" s="5"/>
@@ -4343,7 +5660,7 @@
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="57"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="5"/>
       <c r="D71" s="20"/>
       <c r="E71" s="5"/>
@@ -4363,7 +5680,7 @@
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="20"/>
       <c r="E72" s="5"/>
@@ -4383,7 +5700,7 @@
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="58"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="6"/>
       <c r="D73" s="19"/>
       <c r="E73" s="6"/>
@@ -4403,7 +5720,7 @@
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="58">
         <v>11</v>
       </c>
       <c r="C74" s="12"/>
@@ -4425,7 +5742,7 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="12"/>
       <c r="D75" s="20"/>
       <c r="E75" s="12"/>
@@ -4445,7 +5762,7 @@
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="54"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="12"/>
       <c r="D76" s="20"/>
       <c r="E76" s="12"/>
@@ -4465,7 +5782,7 @@
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="12"/>
       <c r="D77" s="20"/>
       <c r="E77" s="12"/>
@@ -4485,7 +5802,7 @@
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="54"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="10"/>
       <c r="D78" s="21"/>
       <c r="E78" s="10"/>
@@ -4505,7 +5822,7 @@
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="12"/>
       <c r="D79" s="20"/>
       <c r="E79" s="12"/>
@@ -4525,7 +5842,7 @@
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="12"/>
       <c r="D80" s="21"/>
       <c r="E80" s="10"/>
@@ -4545,7 +5862,7 @@
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="56">
+      <c r="B81" s="55">
         <v>12</v>
       </c>
       <c r="C81" s="5"/>
@@ -4567,7 +5884,7 @@
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="57"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="5"/>
       <c r="D82" s="20"/>
       <c r="E82" s="5"/>
@@ -4587,7 +5904,7 @@
       <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="57"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="5"/>
       <c r="D83" s="20"/>
       <c r="E83" s="5"/>
@@ -4607,7 +5924,7 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="5"/>
       <c r="D84" s="20"/>
       <c r="E84" s="5"/>
@@ -4627,7 +5944,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="57"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="5"/>
       <c r="D85" s="20"/>
       <c r="E85" s="5"/>
@@ -4647,7 +5964,7 @@
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="20"/>
       <c r="E86" s="5"/>
@@ -4667,7 +5984,7 @@
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="58"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="20"/>
       <c r="E87" s="5"/>
@@ -4687,7 +6004,7 @@
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="53">
+      <c r="B88" s="58">
         <v>13</v>
       </c>
       <c r="C88" s="12"/>
@@ -4709,7 +6026,7 @@
       <c r="A89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
       <c r="E89" s="12"/>
@@ -4729,7 +6046,7 @@
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="12"/>
       <c r="D90" s="20"/>
       <c r="E90" s="12"/>
@@ -4749,7 +6066,7 @@
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="12"/>
       <c r="D91" s="20"/>
       <c r="E91" s="12"/>
@@ -4769,7 +6086,7 @@
       <c r="A92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="54"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="12"/>
       <c r="D92" s="20"/>
       <c r="E92" s="12"/>
@@ -4789,7 +6106,7 @@
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="12"/>
       <c r="D93" s="20"/>
       <c r="E93" s="12"/>
@@ -4809,7 +6126,7 @@
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="55"/>
+      <c r="B94" s="60"/>
       <c r="C94" s="12"/>
       <c r="D94" s="21"/>
       <c r="E94" s="10"/>
@@ -4829,7 +6146,7 @@
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="55">
         <v>14</v>
       </c>
       <c r="C95" s="14"/>
@@ -4851,7 +6168,7 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="57"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="14"/>
       <c r="D96" s="20"/>
       <c r="E96" s="14"/>
@@ -4871,7 +6188,7 @@
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="57"/>
+      <c r="B97" s="56"/>
       <c r="C97" s="14"/>
       <c r="D97" s="20"/>
       <c r="E97" s="14"/>
@@ -4891,7 +6208,7 @@
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="14"/>
       <c r="D98" s="20"/>
       <c r="E98" s="14"/>
@@ -4911,7 +6228,7 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="57"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="14"/>
       <c r="D99" s="20"/>
       <c r="E99" s="14"/>
@@ -4931,7 +6248,7 @@
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="14"/>
       <c r="D100" s="20"/>
       <c r="E100" s="14"/>
@@ -4951,7 +6268,7 @@
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="58"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="14"/>
       <c r="D101" s="20"/>
       <c r="E101" s="14"/>
@@ -4971,7 +6288,7 @@
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="58">
         <v>15</v>
       </c>
       <c r="C102" s="12"/>
@@ -4993,7 +6310,7 @@
       <c r="A103" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="12"/>
       <c r="D103" s="20"/>
       <c r="E103" s="12"/>
@@ -5013,7 +6330,7 @@
       <c r="A104" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="54"/>
+      <c r="B104" s="59"/>
       <c r="C104" s="12"/>
       <c r="D104" s="20"/>
       <c r="E104" s="12"/>
@@ -5033,7 +6350,7 @@
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="12"/>
       <c r="D105" s="20"/>
       <c r="E105" s="12"/>
@@ -5053,7 +6370,7 @@
       <c r="A106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="54"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="12"/>
       <c r="D106" s="20"/>
       <c r="E106" s="12"/>
@@ -5073,7 +6390,7 @@
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="12"/>
       <c r="D107" s="20"/>
       <c r="E107" s="12"/>
@@ -5093,7 +6410,7 @@
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="55"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="12"/>
       <c r="D108" s="20"/>
       <c r="E108" s="12"/>
@@ -5113,7 +6430,7 @@
       <c r="A109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="56">
+      <c r="B109" s="55">
         <v>16</v>
       </c>
       <c r="C109" s="14"/>
@@ -5135,7 +6452,7 @@
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="57"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="14"/>
       <c r="D110" s="20"/>
       <c r="E110" s="14"/>
@@ -5155,7 +6472,7 @@
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="57"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="14"/>
       <c r="D111" s="20"/>
       <c r="E111" s="14"/>
@@ -5175,7 +6492,7 @@
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="14"/>
       <c r="D112" s="20"/>
       <c r="E112" s="14"/>
@@ -5195,7 +6512,7 @@
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="57"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="14"/>
       <c r="D113" s="20"/>
       <c r="E113" s="14"/>
@@ -5215,7 +6532,7 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="14"/>
       <c r="D114" s="20"/>
       <c r="E114" s="14"/>
@@ -5235,7 +6552,7 @@
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="14"/>
       <c r="D115" s="20"/>
       <c r="E115" s="14"/>
@@ -5253,6 +6570,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B59"/>
     <mergeCell ref="B95:B101"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
@@ -5261,17 +6589,6 @@
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5279,13 +6596,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5311,7 +6628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
@@ -5322,7 +6639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
@@ -5333,7 +6650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -5355,7 +6672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
@@ -5388,7 +6705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
@@ -5399,7 +6716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
@@ -5410,7 +6727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>53</v>
       </c>
@@ -5432,7 +6749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>55</v>
       </c>
@@ -5454,7 +6771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
@@ -5469,8 +6786,8 @@
   <autoFilter ref="A2:C16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}">
     <filterColumn colId="2">
       <filters>
-        <filter val="01_Lunes"/>
-        <filter val="01_Lunes &amp; Miércoles"/>
+        <filter val="04_Jueves"/>
+        <filter val="05_Viernes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5495,7 +6812,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D20EA2A-11A3-4D9F-94FF-69F5C225010B}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="132.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:B16" xr:uid="{202426B2-605C-407B-BD81-2EB34D429EB9}"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{133E2FFA-0C82-4890-899C-98E3146853F2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{384295D1-6F69-422E-A70D-7039704FFD81}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{A4B32C1D-5612-43BD-A4BD-625B17831850}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C5BCCE39-FCCB-452D-9A58-640966B7FFDA}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{3E351DDC-85A3-45BC-BECC-888780D657E3}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{FE018218-7ABF-44F1-BCCA-4D34DDD248DF}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{98C0B379-E9A7-4D46-A3BB-5D34B493FC22}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{5D6D8BE0-F6F7-4048-B740-CA4B1ABEC1D8}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{AECF729C-49A9-469E-A9C7-788411C37939}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{1A353D00-6349-479B-AA2F-01937F8ED69B}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{57F12248-4AF3-40E8-8559-F8E665BC7BF7}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{B9846494-2CC6-465E-9EE0-BDC3FCE553F4}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{3DB0EDCE-96E2-466A-8B2D-2C8E870D6D58}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{FB659DF8-779B-4E73-9A6C-34680F12143E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A915C6-6362-4FC4-8327-4B7F0C4EA5C4}">
   <dimension ref="A1:P117"/>
   <sheetViews>
@@ -5516,44 +6995,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5562,11 +7041,11 @@
       <c r="N3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="62">
         <f ca="1">NOW()</f>
-        <v>44761.890328125002</v>
-      </c>
-      <c r="P3" s="60"/>
+        <v>44768.866413310185</v>
+      </c>
+      <c r="P3" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5622,7 +7101,7 @@
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="64">
         <v>1</v>
       </c>
       <c r="C6" s="16">
@@ -5672,7 +7151,7 @@
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="16">
         <v>1</v>
       </c>
@@ -5720,7 +7199,7 @@
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="16">
         <v>1</v>
       </c>
@@ -5768,7 +7247,7 @@
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="16">
         <v>1</v>
       </c>
@@ -5816,7 +7295,7 @@
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="16">
         <v>1</v>
       </c>
@@ -5864,7 +7343,7 @@
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="16">
         <v>10</v>
       </c>
@@ -5912,7 +7391,7 @@
       <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -5934,7 +7413,7 @@
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>2</v>
       </c>
       <c r="C13" s="6">
@@ -5984,7 +7463,7 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="6">
         <v>5</v>
       </c>
@@ -6032,7 +7511,7 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -6080,7 +7559,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6100,7 +7579,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -6148,7 +7627,7 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -6196,7 +7675,7 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -6216,7 +7695,7 @@
       <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="64">
         <v>3</v>
       </c>
       <c r="C20" s="16">
@@ -6266,7 +7745,7 @@
       <c r="A21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="16">
         <v>5</v>
       </c>
@@ -6314,7 +7793,7 @@
       <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="16">
         <v>1</v>
       </c>
@@ -6362,7 +7841,7 @@
       <c r="A23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="16">
         <v>1</v>
       </c>
@@ -6410,7 +7889,7 @@
       <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -6430,7 +7909,7 @@
       <c r="A25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="16">
         <v>1</v>
       </c>
@@ -6478,7 +7957,7 @@
       <c r="A26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -6498,7 +7977,7 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <v>4</v>
       </c>
       <c r="C27" s="33">
@@ -6548,7 +8027,7 @@
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -6596,7 +8075,7 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -6644,7 +8123,7 @@
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6664,7 +8143,7 @@
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6688,7 +8167,7 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6712,7 +8191,7 @@
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="57"/>
       <c r="D33" s="5">
         <v>1</v>
       </c>
@@ -6751,7 +8230,7 @@
       <c r="A34" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="64">
         <v>5</v>
       </c>
       <c r="C34" s="46">
@@ -6801,7 +8280,7 @@
       <c r="A35" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="16">
         <v>6</v>
       </c>
@@ -6849,7 +8328,7 @@
       <c r="A36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="16">
         <v>1</v>
       </c>
@@ -6897,7 +8376,7 @@
       <c r="A37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -6919,7 +8398,7 @@
       <c r="A38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="16">
         <v>1</v>
       </c>
@@ -6965,7 +8444,7 @@
       <c r="A39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="16">
         <v>1</v>
       </c>
@@ -7013,7 +8492,7 @@
       <c r="A40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
@@ -7033,7 +8512,7 @@
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="55">
         <v>6</v>
       </c>
       <c r="C41" s="49">
@@ -7083,7 +8562,7 @@
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="9">
         <v>5</v>
       </c>
@@ -7131,7 +8610,7 @@
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="9">
         <v>2</v>
       </c>
@@ -7179,7 +8658,7 @@
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
@@ -7223,7 +8702,7 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -7243,7 +8722,7 @@
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
@@ -7287,7 +8766,7 @@
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="58"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -7311,7 +8790,7 @@
       <c r="A48" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="61">
+      <c r="B48" s="64">
         <v>7</v>
       </c>
       <c r="C48" s="46">
@@ -7349,7 +8828,7 @@
       <c r="A49" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="16">
         <v>5</v>
       </c>
@@ -7385,7 +8864,7 @@
       <c r="A50" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="62"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="16">
         <v>1</v>
       </c>
@@ -7421,7 +8900,7 @@
       <c r="A51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -7441,7 +8920,7 @@
       <c r="A52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="62"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -7475,7 +8954,7 @@
       <c r="A53" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="62"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -7495,7 +8974,7 @@
       <c r="A54" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="63"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="16">
         <v>1</v>
       </c>
@@ -7531,7 +9010,7 @@
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="55">
         <v>8</v>
       </c>
       <c r="C55" s="5"/>
@@ -7553,7 +9032,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -7573,7 +9052,7 @@
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -7593,7 +9072,7 @@
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
@@ -7613,7 +9092,7 @@
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -7633,7 +9112,7 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -7653,7 +9132,7 @@
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="58"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -7673,7 +9152,7 @@
       <c r="A62" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="61">
+      <c r="B62" s="64">
         <v>9</v>
       </c>
       <c r="C62" s="16"/>
@@ -7695,7 +9174,7 @@
       <c r="A63" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="62"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
@@ -7715,7 +9194,7 @@
       <c r="A64" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="62"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -7735,7 +9214,7 @@
       <c r="A65" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="62"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -7755,7 +9234,7 @@
       <c r="A66" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="62"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -7775,7 +9254,7 @@
       <c r="A67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="62"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7795,7 +9274,7 @@
       <c r="A68" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="63"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
@@ -7815,7 +9294,7 @@
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="55">
         <v>10</v>
       </c>
       <c r="C69" s="5"/>
@@ -7837,7 +9316,7 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7857,7 +9336,7 @@
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="57"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -7877,7 +9356,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -7897,7 +9376,7 @@
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -7917,7 +9396,7 @@
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -7937,7 +9416,7 @@
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="58"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7957,7 +9436,7 @@
       <c r="A76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="61">
+      <c r="B76" s="64">
         <v>11</v>
       </c>
       <c r="C76" s="16"/>
@@ -7979,7 +9458,7 @@
       <c r="A77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="62"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="16"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -7999,7 +9478,7 @@
       <c r="A78" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="62"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -8019,7 +9498,7 @@
       <c r="A79" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="62"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="16"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
@@ -8039,7 +9518,7 @@
       <c r="A80" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="62"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -8059,7 +9538,7 @@
       <c r="A81" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="62"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
@@ -8079,7 +9558,7 @@
       <c r="A82" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="63"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -8099,7 +9578,7 @@
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="55">
         <v>12</v>
       </c>
       <c r="C83" s="5"/>
@@ -8121,7 +9600,7 @@
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="57"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8141,7 +9620,7 @@
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="57"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8161,7 +9640,7 @@
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8181,7 +9660,7 @@
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8201,7 +9680,7 @@
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -8221,7 +9700,7 @@
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="58"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8241,7 +9720,7 @@
       <c r="A90" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="61">
+      <c r="B90" s="64">
         <v>13</v>
       </c>
       <c r="C90" s="16"/>
@@ -8263,7 +9742,7 @@
       <c r="A91" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="62"/>
+      <c r="B91" s="65"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
@@ -8283,7 +9762,7 @@
       <c r="A92" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="62"/>
+      <c r="B92" s="65"/>
       <c r="C92" s="16"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
@@ -8303,7 +9782,7 @@
       <c r="A93" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="62"/>
+      <c r="B93" s="65"/>
       <c r="C93" s="16"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
@@ -8323,7 +9802,7 @@
       <c r="A94" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="62"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
@@ -8343,7 +9822,7 @@
       <c r="A95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="62"/>
+      <c r="B95" s="65"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
@@ -8363,7 +9842,7 @@
       <c r="A96" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="63"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="16"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
@@ -8383,7 +9862,7 @@
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="56">
+      <c r="B97" s="55">
         <v>14</v>
       </c>
       <c r="C97" s="14"/>
@@ -8405,7 +9884,7 @@
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="57"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -8425,7 +9904,7 @@
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="57"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -8445,7 +9924,7 @@
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -8465,7 +9944,7 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -8485,7 +9964,7 @@
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="57"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -8505,7 +9984,7 @@
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="58"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -8525,7 +10004,7 @@
       <c r="A104" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="61">
+      <c r="B104" s="64">
         <v>15</v>
       </c>
       <c r="C104" s="16"/>
@@ -8547,7 +10026,7 @@
       <c r="A105" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="62"/>
+      <c r="B105" s="65"/>
       <c r="C105" s="16"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
@@ -8567,7 +10046,7 @@
       <c r="A106" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="62"/>
+      <c r="B106" s="65"/>
       <c r="C106" s="16"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
@@ -8587,7 +10066,7 @@
       <c r="A107" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="62"/>
+      <c r="B107" s="65"/>
       <c r="C107" s="16"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
@@ -8607,7 +10086,7 @@
       <c r="A108" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="62"/>
+      <c r="B108" s="65"/>
       <c r="C108" s="16"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
@@ -8627,7 +10106,7 @@
       <c r="A109" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="62"/>
+      <c r="B109" s="65"/>
       <c r="C109" s="16"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
@@ -8647,7 +10126,7 @@
       <c r="A110" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="63"/>
+      <c r="B110" s="66"/>
       <c r="C110" s="16"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
@@ -8667,7 +10146,7 @@
       <c r="A111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="56">
+      <c r="B111" s="55">
         <v>16</v>
       </c>
       <c r="C111" s="14"/>
@@ -8689,7 +10168,7 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="57"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
@@ -8709,7 +10188,7 @@
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="57"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
@@ -8729,7 +10208,7 @@
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -8749,7 +10228,7 @@
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -8769,7 +10248,7 @@
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="57"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -8789,7 +10268,7 @@
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="58"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -8807,6 +10286,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="B111:B117"/>
@@ -8815,17 +10305,6 @@
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8833,7 +10312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F8AFC-7FF2-4095-98CA-D6B7FDE000E5}">
   <dimension ref="A1:M119"/>
   <sheetViews>
@@ -8890,11 +10369,11 @@
       <c r="K3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="62">
         <f ca="1">NOW()</f>
-        <v>44761.890328125002</v>
-      </c>
-      <c r="M3" s="60"/>
+        <v>44768.866413310185</v>
+      </c>
+      <c r="M3" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -8938,7 +10417,7 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="58">
         <v>1</v>
       </c>
       <c r="C6" s="31">
@@ -8976,7 +10455,7 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="11">
         <v>7</v>
       </c>
@@ -9012,7 +10491,7 @@
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -9048,7 +10527,7 @@
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -9084,7 +10563,7 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -9120,7 +10599,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="11">
         <v>2</v>
       </c>
@@ -9156,7 +10635,7 @@
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="11">
         <v>1</v>
       </c>
@@ -9192,7 +10671,7 @@
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="11">
         <v>1</v>
       </c>
@@ -9228,7 +10707,7 @@
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="11">
         <v>1</v>
       </c>
@@ -9264,7 +10743,7 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>2</v>
       </c>
       <c r="C15" s="32">
@@ -9302,7 +10781,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6">
         <v>2</v>
       </c>
@@ -9338,7 +10817,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -9374,7 +10853,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -9410,7 +10889,7 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9426,7 +10905,7 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="6">
         <v>1</v>
       </c>
@@ -9462,7 +10941,7 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -9478,7 +10957,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="58">
         <v>3</v>
       </c>
       <c r="C22" s="31">
@@ -9516,7 +10995,7 @@
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="11">
         <v>1</v>
       </c>
@@ -9552,7 +11031,7 @@
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="11">
         <v>1</v>
       </c>
@@ -9588,7 +11067,7 @@
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -9604,7 +11083,7 @@
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -9620,7 +11099,7 @@
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -9636,7 +11115,7 @@
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="11">
         <v>1</v>
       </c>
@@ -9662,7 +11141,7 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <v>4</v>
       </c>
       <c r="C29" s="32">
@@ -9700,7 +11179,7 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -9736,7 +11215,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
@@ -9772,7 +11251,7 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -9788,7 +11267,7 @@
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="6">
         <v>1</v>
       </c>
@@ -9824,7 +11303,7 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="57"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -9860,7 +11339,7 @@
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -9876,7 +11355,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="58">
         <v>5</v>
       </c>
       <c r="C36" s="31">
@@ -9914,7 +11393,7 @@
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="11">
         <v>2</v>
       </c>
@@ -9950,7 +11429,7 @@
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="11">
         <v>1</v>
       </c>
@@ -9986,7 +11465,7 @@
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="11">
         <v>1</v>
       </c>
@@ -10022,7 +11501,7 @@
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -10038,7 +11517,7 @@
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="11">
         <v>1</v>
       </c>
@@ -10074,7 +11553,7 @@
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -10090,7 +11569,7 @@
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="55">
         <v>6</v>
       </c>
       <c r="C43" s="49">
@@ -10128,7 +11607,7 @@
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="9">
         <v>1</v>
       </c>
@@ -10164,7 +11643,7 @@
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="9">
         <v>1</v>
       </c>
@@ -10200,7 +11679,7 @@
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -10216,7 +11695,7 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -10232,7 +11711,7 @@
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -10248,7 +11727,7 @@
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="9">
         <v>1</v>
       </c>
@@ -10284,7 +11763,7 @@
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="58">
         <v>7</v>
       </c>
       <c r="C50" s="50">
@@ -10322,7 +11801,7 @@
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="12">
         <v>1</v>
       </c>
@@ -10358,7 +11837,7 @@
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="12">
         <v>1</v>
       </c>
@@ -10394,7 +11873,7 @@
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10410,7 +11889,7 @@
       <c r="A54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -10426,7 +11905,7 @@
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -10442,7 +11921,7 @@
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -10458,7 +11937,7 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="55">
         <v>8</v>
       </c>
       <c r="C57" s="33">
@@ -10496,7 +11975,7 @@
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="5">
         <v>2</v>
       </c>
@@ -10532,7 +12011,7 @@
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="6">
         <v>1</v>
       </c>
@@ -10568,7 +12047,7 @@
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -10584,7 +12063,7 @@
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -10600,7 +12079,7 @@
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="57"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10616,7 +12095,7 @@
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -10632,7 +12111,7 @@
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="58">
         <v>9</v>
       </c>
       <c r="C64" s="12"/>
@@ -10650,7 +12129,7 @@
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -10666,7 +12145,7 @@
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -10682,7 +12161,7 @@
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="54"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="12"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -10698,7 +12177,7 @@
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="54"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="12"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -10714,7 +12193,7 @@
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="54"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -10730,7 +12209,7 @@
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="55"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="12"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -10746,7 +12225,7 @@
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="55">
         <v>10</v>
       </c>
       <c r="C71" s="5"/>
@@ -10764,7 +12243,7 @@
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -10780,7 +12259,7 @@
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10796,7 +12275,7 @@
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -10812,7 +12291,7 @@
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -10828,7 +12307,7 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="57"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -10844,7 +12323,7 @@
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
@@ -10860,7 +12339,7 @@
       <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="58">
         <v>11</v>
       </c>
       <c r="C78" s="12"/>
@@ -10878,7 +12357,7 @@
       <c r="A79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -10894,7 +12373,7 @@
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -10910,7 +12389,7 @@
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="54"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -10926,7 +12405,7 @@
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="54"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -10942,7 +12421,7 @@
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="54"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -10958,7 +12437,7 @@
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="55"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="12"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10974,7 +12453,7 @@
       <c r="A85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="55">
         <v>12</v>
       </c>
       <c r="C85" s="5"/>
@@ -10992,7 +12471,7 @@
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -11008,7 +12487,7 @@
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -11024,7 +12503,7 @@
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -11040,7 +12519,7 @@
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -11056,7 +12535,7 @@
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="57"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -11072,7 +12551,7 @@
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -11088,7 +12567,7 @@
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="53">
+      <c r="B92" s="58">
         <v>13</v>
       </c>
       <c r="C92" s="12"/>
@@ -11106,7 +12585,7 @@
       <c r="A93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -11122,7 +12601,7 @@
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -11138,7 +12617,7 @@
       <c r="A95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="54"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -11154,7 +12633,7 @@
       <c r="A96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="54"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
@@ -11170,7 +12649,7 @@
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="54"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -11186,7 +12665,7 @@
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="55"/>
+      <c r="B98" s="60"/>
       <c r="C98" s="12"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -11202,7 +12681,7 @@
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="56">
+      <c r="B99" s="55">
         <v>14</v>
       </c>
       <c r="C99" s="14"/>
@@ -11220,7 +12699,7 @@
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -11236,7 +12715,7 @@
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="57"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -11252,7 +12731,7 @@
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="57"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -11268,7 +12747,7 @@
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="57"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -11284,7 +12763,7 @@
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="57"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -11300,7 +12779,7 @@
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -11316,7 +12795,7 @@
       <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="58">
         <v>15</v>
       </c>
       <c r="C106" s="12"/>
@@ -11334,7 +12813,7 @@
       <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -11350,7 +12829,7 @@
       <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -11366,7 +12845,7 @@
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="59"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -11382,7 +12861,7 @@
       <c r="A110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -11398,7 +12877,7 @@
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="54"/>
+      <c r="B111" s="59"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -11414,7 +12893,7 @@
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="55"/>
+      <c r="B112" s="60"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -11430,7 +12909,7 @@
       <c r="A113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="56">
+      <c r="B113" s="55">
         <v>16</v>
       </c>
       <c r="C113" s="14"/>
@@ -11448,7 +12927,7 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="57"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -11464,7 +12943,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="57"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -11480,7 +12959,7 @@
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="57"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -11496,7 +12975,7 @@
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="57"/>
+      <c r="B117" s="56"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -11512,7 +12991,7 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="57"/>
+      <c r="B118" s="56"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -11528,7 +13007,7 @@
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
@@ -11542,6 +13021,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B35"/>
     <mergeCell ref="B113:B119"/>
     <mergeCell ref="B36:B42"/>
     <mergeCell ref="B43:B49"/>
@@ -11554,23 +13038,18 @@
     <mergeCell ref="B92:B98"/>
     <mergeCell ref="B99:B105"/>
     <mergeCell ref="B106:B112"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F03D0A5-0C7C-44D5-A28A-F1D8928FE1E3}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11707,1028 +13186,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B871542-77C7-4D36-899B-1886E99D7469}">
-  <dimension ref="A1:H52"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F68D7C-640B-4E10-9D5D-5D33B529B235}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="136.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <f>IF(C4="C",D4," ")</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>IF(C4="C",G4," ")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ref="E6:E17" si="0">IF(C6="C",D6," ")</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" ref="H6:H17" si="1">IF(C6="C",G6," ")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="str">
-        <f>IF(C24="C",D24," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="str">
-        <f>IF(C24="C",G24," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <f>IF(C25="C",D25," ")</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <f>IF(C25="C",G25," ")</f>
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26:E37" si="2">IF(C26="C",D26," ")</f>
-        <v>5</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <f t="shared" ref="H26:H37" si="3">IF(C26="C",G26," ")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="3">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="3">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="3">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f>IF(C43="C",D43," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="str">
-        <f>IF(C43="C",G43," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="B6" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
-        <f>IF(C44="C",D44," ")</f>
-        <v>2</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3">
-        <f>IF(C44="C",G44," ")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="B7" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="str">
-        <f t="shared" ref="E45:E52" si="4">IF(C45="C",D45," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="str">
-        <f t="shared" ref="H45:H52" si="5">IF(C45="C",G45," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="B8" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="B9" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="B10" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="B11" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="B12" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="B13" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="B14" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="B15" s="34" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:B15" xr:uid="{0F03D0A5-0C7C-44D5-A28A-F1D8928FE1E3}"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E5E571FF-9B3B-4FC3-BD03-0715D50683DA}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{E45EF546-ADF5-4CA4-905F-56E3123CBEFF}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{2A44A614-BFC2-4F37-86F5-C0ED1CB4C734}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{351A9319-E32E-4836-B070-C702062C54AC}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{9F8FBD1A-ABF6-4F29-BD71-A1123FFDDCAC}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{0D98D4D9-5CBF-4C5E-AAFA-7E7F17FD28BD}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{79E6AF1B-27C7-49B2-A6EC-E87B3B61861A}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{1504F4D1-5160-4828-8A1E-4CB3D4FFEE30}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{5E81E45B-ACBB-4089-A2FB-E6FD40639453}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{245F8B04-792B-41F7-AA71-EB6EDB769D90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/controlDiario.xlsx
+++ b/controlDiario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\COORD_INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8430E9F8-5B3B-4BD6-83B8-A57B51EAD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A88AB9-56C5-4E20-A6A0-F9C20D87B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F7888BE-47E6-4C2F-86A4-AF0D51AADF96}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="CLASS LINKS (4)" sheetId="24" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CLASS LINKS'!$A$2:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CLASS LINKS'!$A$2:$E$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CLASS LINKS (2)'!$B$2:$D$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CLASS LINKS (3)'!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CLASS LINKS (4)'!$B$2:$D$2</definedName>
@@ -34,8 +34,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="82">
   <si>
     <t>CURSO</t>
   </si>
@@ -244,6 +248,51 @@
   </si>
   <si>
     <t>VI</t>
+  </si>
+  <si>
+    <t>CASTRO MAGAYANES ISRAEL EDUARDO</t>
+  </si>
+  <si>
+    <t>4A ADMEMP-R</t>
+  </si>
+  <si>
+    <t>4A ECON-R</t>
+  </si>
+  <si>
+    <t>4A FIN</t>
+  </si>
+  <si>
+    <t>4A ADMPUBL</t>
+  </si>
+  <si>
+    <t>4A ZOOT-R</t>
+  </si>
+  <si>
+    <t>4B ADMPUBL</t>
+  </si>
+  <si>
+    <t>4B ECON-R</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPWS</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPWR</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPVW</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPWQ</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPWP</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPVX</t>
+  </si>
+  <si>
+    <t>https://sga.uteq.edu.ec/adm_seguimientoacademico?action=seguimientoaulavirtual&amp;id=OPPQQRRSSTTUUVVPVPVY</t>
   </si>
 </sst>
 </file>
@@ -331,7 +380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,13 +396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,11 +727,11 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="112.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -717,7 +759,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -726,16 +768,16 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -749,16 +791,16 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -772,16 +814,16 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -795,16 +837,16 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -818,16 +860,16 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -841,16 +883,16 @@
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -864,16 +906,16 @@
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -887,16 +929,16 @@
       <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -910,16 +952,16 @@
       <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -933,16 +975,16 @@
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -956,16 +998,16 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -979,16 +1021,16 @@
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1002,16 +1044,16 @@
       <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1025,16 +1067,16 @@
       <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1048,16 +1090,16 @@
       <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1071,16 +1113,16 @@
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="D19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1094,16 +1136,16 @@
       <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="D20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1117,16 +1159,16 @@
       <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="D21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1140,16 +1182,16 @@
       <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="D22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1163,16 +1205,16 @@
       <c r="C23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="D23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1186,16 +1228,16 @@
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="D24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1206,16 +1248,16 @@
       <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="D25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1226,16 +1268,16 @@
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1246,16 +1288,16 @@
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1266,16 +1308,16 @@
       <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="D28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1286,16 +1328,16 @@
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="D29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1306,16 +1348,16 @@
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="D30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1350,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1404,7 @@
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="112.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="9"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1383,7 +1425,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1509,7 +1551,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>63</v>
@@ -1739,8 +1781,127 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:E23" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
+  <autoFilter ref="A2:E30" xr:uid="{AD822270-F21C-4E8C-A827-2D8279C5D454}"/>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{50E5235C-36F0-4963-9869-432C28248FEE}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{4412421F-924C-4913-965B-A85CAF10DB8E}"/>
@@ -1763,9 +1924,16 @@
     <hyperlink ref="C19" r:id="rId19" xr:uid="{16DBD981-2430-434E-B55B-02DE8D716A60}"/>
     <hyperlink ref="C20" r:id="rId20" xr:uid="{06E0CAE2-7922-4265-AACA-14D54EE1B166}"/>
     <hyperlink ref="C22" r:id="rId21" xr:uid="{B0AD2142-03A7-44D9-946E-2022DDCD3491}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{07CB1E10-FFB2-45F3-8861-99CD15ED3F12}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{8B8CB565-7B48-44EC-A3BE-9D3F455C14A5}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{E0D04B9A-8EE0-4BE1-88E5-E57F9144ED3E}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{F98F0681-A5C9-48ED-B534-13086BE9637C}"/>
+    <hyperlink ref="C25" r:id="rId26" xr:uid="{0A50F81D-5FD3-4B9B-A08F-8CAD4EEB59F6}"/>
+    <hyperlink ref="C26" r:id="rId27" xr:uid="{2FAF2A3B-0884-4444-8376-725592B0705C}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{FC303AD4-6ECF-4449-8AFA-0F9ED8BE3C65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1950,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="112.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1800,7 +1968,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1914,7 +2082,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="112.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2046,7 +2214,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="112.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
